--- a/test_case_template.xlsx
+++ b/test_case_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyömbér Judit\IdeaProjects\TestingPortioWebpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF6E2F-CC93-4144-B89A-E460FBACD368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA3D8B2-4D1F-49CD-AEE5-17A200C8464F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="hibák (bug)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$F$43:$F$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$F$57:$F$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="263">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -120,31 +120,7 @@
     <t>Siker</t>
   </si>
   <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>TC06</t>
-  </si>
-  <si>
-    <t>TC07</t>
-  </si>
-  <si>
-    <t>TC08</t>
-  </si>
-  <si>
     <t>Assumption</t>
-  </si>
-  <si>
-    <t>TC09</t>
   </si>
   <si>
     <t>TC10</t>
@@ -298,9 +274,6 @@
   </si>
   <si>
     <t>hiányzó jelszó</t>
-  </si>
-  <si>
-    <t>TC01</t>
   </si>
   <si>
     <t>TC33</t>
@@ -381,9 +354,6 @@
     <t>Hire Me Now gomb validálása</t>
   </si>
   <si>
-    <t>Contact Me gomb validálása</t>
-  </si>
-  <si>
     <t xml:space="preserve">Felhasználónév: lovasia
 Jelszó: kispal123
 </t>
@@ -432,9 +402,6 @@
     <t>TC42</t>
   </si>
   <si>
-    <t>Profil beállítás mentése</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sikeres mentés
 </t>
   </si>
@@ -451,9 +418,6 @@
   <si>
     <t>Felhasználónév: teszteszter
 Jelszó: teszt</t>
-  </si>
-  <si>
-    <t>Message: Profile Edited!</t>
   </si>
   <si>
     <t>Bejelentkezés regisztráció nélkül</t>
@@ -625,9 +589,6 @@
     <t>A munkák közti navigálás a nextCase nyílra kattintással</t>
   </si>
   <si>
-    <t>A CaseStudyOne linkre kattintással navigálás a CaseStudyOne oldalra</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 1. Adott oldalra navigálás
 2. Feltételek elfogadása
@@ -812,12 +773,264 @@
   <si>
     <t>Helyes adatok: 2008-2010, Master in Arts</t>
   </si>
+  <si>
+    <t>RegisterPageTest</t>
+  </si>
+  <si>
+    <t>LoginPageTest</t>
+  </si>
+  <si>
+    <t>ProfilePageTest</t>
+  </si>
+  <si>
+    <t>BaseTest</t>
+  </si>
+  <si>
+    <t>Message: Profile edited!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profil beállítás mentése </t>
+  </si>
+  <si>
+    <t>AboutPage-re navigálás</t>
+  </si>
+  <si>
+    <t>SkillsPage-re navigálás</t>
+  </si>
+  <si>
+    <t>BlogPage-re navigálás</t>
+  </si>
+  <si>
+    <t>Footer-re navigálás</t>
+  </si>
+  <si>
+    <t>Contact me gomb validálása</t>
+  </si>
+  <si>
+    <t>Navigálás a HomePage-ről a  ContactPage-re a Contact me gombra kattintással</t>
+  </si>
+  <si>
+    <t>Navigálás a HomePage-ről a  ContactPage-re a Hire Me Now gombra kattintással</t>
+  </si>
+  <si>
+    <t>Contact információk validálása</t>
+  </si>
+  <si>
+    <t>Contact Form üzenet küldése a checkbox bepipálása nélkül</t>
+  </si>
+  <si>
+    <t>ContactPageTest</t>
+  </si>
+  <si>
+    <t>AboutPageTest</t>
+  </si>
+  <si>
+    <t>ServicePageTest</t>
+  </si>
+  <si>
+    <t>WorkPageTest</t>
+  </si>
+  <si>
+    <t>ResumePageTest</t>
+  </si>
+  <si>
+    <t>CaseStudyPageTest</t>
+  </si>
+  <si>
+    <t>??????</t>
+  </si>
+  <si>
+    <t>Számlálással</t>
+  </si>
+  <si>
+    <t>Resume linkre kattintással</t>
+  </si>
+  <si>
+    <t>About linkre kattintással</t>
+  </si>
+  <si>
+    <t>Skills linkre kattintással</t>
+  </si>
+  <si>
+    <t>Blog linkre kattintással</t>
+  </si>
+  <si>
+    <t>SkillsPageTest</t>
+  </si>
+  <si>
+    <t>százalékosan</t>
+  </si>
+  <si>
+    <t>Szakmai ismeretek</t>
+  </si>
+  <si>
+    <t>Szakmai ismeretek mélysége</t>
+  </si>
+  <si>
+    <t>A szakmai ismeretek és mélységüknek párosítása</t>
+  </si>
+  <si>
+    <t>BlogPageTest</t>
+  </si>
+  <si>
+    <t>Home link validálása</t>
+  </si>
+  <si>
+    <t>A Home linkkel vissza lehet-e jutni a HomePage-re a BlogPage-ről?</t>
+  </si>
+  <si>
+    <t>Blogok száma összesen</t>
+  </si>
+  <si>
+    <t>A blogok címének és tag-jeinek párosítása</t>
+  </si>
+  <si>
+    <t>Kép mentése meglévő fájlba</t>
+  </si>
+  <si>
+    <t>Kép mentése fájl létrehozásával</t>
+  </si>
+  <si>
+    <t>Blogok címének fájlba írása</t>
+  </si>
+  <si>
+    <t>TC43</t>
+  </si>
+  <si>
+    <t>TC44</t>
+  </si>
+  <si>
+    <t>TC45</t>
+  </si>
+  <si>
+    <t>TC46</t>
+  </si>
+  <si>
+    <t>TC47</t>
+  </si>
+  <si>
+    <t>FooterPageTest</t>
+  </si>
+  <si>
+    <t>BlogPage2-ra navigálás</t>
+  </si>
+  <si>
+    <t>A BlogPag-re navigálás után a See All Posts gombra kattintás</t>
+  </si>
+  <si>
+    <t>A WorkPage-re navigálás után a CsaeStudyOne linkre kattintás</t>
+  </si>
+  <si>
+    <t>CaseStudyPage-re navigálás</t>
+  </si>
+  <si>
+    <t>Download gomb validálása</t>
+  </si>
+  <si>
+    <t>Get in touch gomb validálása</t>
+  </si>
+  <si>
+    <t>About Me link validálása</t>
+  </si>
+  <si>
+    <t>FAQ link validálása</t>
+  </si>
+  <si>
+    <t>Privacy and policy link validálása</t>
+  </si>
+  <si>
+    <t>Latest Article link validálása</t>
+  </si>
+  <si>
+    <t>Terms and Conditions link validálása</t>
+  </si>
+  <si>
+    <t>Facebook link validálása</t>
+  </si>
+  <si>
+    <t>Linkedin link validálása</t>
+  </si>
+  <si>
+    <t>Pinterest link validálása</t>
+  </si>
+  <si>
+    <t>Twitter link validálása</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>TC48</t>
+  </si>
+  <si>
+    <t>TC49</t>
+  </si>
+  <si>
+    <t>TC50</t>
+  </si>
+  <si>
+    <t>TC51</t>
+  </si>
+  <si>
+    <t>TC52</t>
+  </si>
+  <si>
+    <t>TC53</t>
+  </si>
+  <si>
+    <t>TC54</t>
+  </si>
+  <si>
+    <t>TC55</t>
+  </si>
+  <si>
+    <t>TC56</t>
+  </si>
+  <si>
+    <t>TC57</t>
+  </si>
+  <si>
+    <t>TC58</t>
+  </si>
+  <si>
+    <t>TC59</t>
+  </si>
+  <si>
+    <t>TC60</t>
+  </si>
+  <si>
+    <t>TC61</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,8 +1064,14 @@
       <sz val="9"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -875,6 +1094,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF8496B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FF8496B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -906,7 +1143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -926,9 +1163,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -957,12 +1191,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1072,54 +1316,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFE598"/>
           <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1414,11 +1610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1017"/>
+  <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1451,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1491,42 +1687,24 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>107</v>
-      </c>
+    <row r="2" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1541,41 +1719,39 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A3" s="9" t="s">
-        <v>30</v>
+    <row r="3" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
+      <c r="A3" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>107</v>
+        <v>184</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1591,42 +1767,26 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>107</v>
-      </c>
+    <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1641,20 +1801,38 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+    <row r="5" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="3"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1669,35 +1847,33 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>68</v>
+    <row r="6" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
+      <c r="A6" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>29</v>
@@ -1717,42 +1893,38 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>70</v>
+    <row r="7" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
+      <c r="A7" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="M7" s="3"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1767,42 +1939,38 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A8" s="9" t="s">
-        <v>34</v>
+    <row r="8" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
+      <c r="A8" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>70</v>
+      <c r="G8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="M8" s="3"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1817,40 +1985,26 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>142</v>
-      </c>
+    <row r="9" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1865,40 +2019,26 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>130</v>
-      </c>
+    <row r="10" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1913,36 +2053,26 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
-      <c r="A11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="3"/>
+    <row r="11" spans="1:26" ht="25.5" thickTop="1" thickBot="1">
+      <c r="A11" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1958,19 +2088,25 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="13"/>
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1985,40 +2121,24 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
-      <c r="A13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>127</v>
-      </c>
+    <row r="13" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A13" s="17">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2033,38 +2153,42 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
-      <c r="A14" s="9" t="s">
-        <v>40</v>
+    <row r="14" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+      <c r="A14" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -2079,39 +2203,41 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
-      <c r="A15" s="9" t="s">
-        <v>41</v>
+    <row r="15" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>124</v>
+        <v>77</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2127,20 +2253,42 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="13"/>
+    <row r="16" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -2155,36 +2303,24 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="3"/>
+    <row r="17" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A17" s="18">
+        <v>3</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -2199,31 +2335,35 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
-      <c r="A18" s="9" t="s">
-        <v>43</v>
+    <row r="18" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
+      <c r="A18" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>77</v>
+        <v>93</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>29</v>
@@ -2243,39 +2383,41 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
-      <c r="A19" s="9" t="s">
-        <v>44</v>
+    <row r="19" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
+      <c r="A19" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>84</v>
+      <c r="K19" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="L19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2292,37 +2434,41 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A20" s="9" t="s">
-        <v>45</v>
+      <c r="A20" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>79</v>
+      <c r="K20" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -2337,20 +2483,40 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="13"/>
+    <row r="21" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
+      <c r="A21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -2365,38 +2531,40 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
-      <c r="A22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="10" t="s">
+    <row r="22" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
+      <c r="A22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>145</v>
+      <c r="K22" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -2411,31 +2579,31 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
-      <c r="A23" s="9" t="s">
-        <v>47</v>
+    <row r="23" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
+      <c r="A23" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>62</v>
+        <v>97</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="I23" s="5"/>
       <c r="J23" s="3" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>29</v>
@@ -2455,36 +2623,24 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
-      <c r="A24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="3"/>
+    <row r="24" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A24" s="18">
+        <v>4</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="12"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -2499,20 +2655,38 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="13"/>
+    <row r="25" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
+      <c r="A25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="3"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2527,34 +2701,40 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
-      <c r="A26" s="9" t="s">
-        <v>49</v>
+    <row r="26" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
+      <c r="A26" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>62</v>
+        <v>97</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="J26" s="3" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -2569,36 +2749,24 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27" s="3"/>
+    <row r="27" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A27" s="18">
+        <v>5</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="12"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -2613,31 +2781,33 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
-      <c r="A28" s="9" t="s">
-        <v>51</v>
+    <row r="28" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
+      <c r="A28" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>62</v>
+        <v>97</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="3" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>29</v>
@@ -2657,20 +2827,38 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="13"/>
+    <row r="29" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
+      <c r="A29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="3"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -2685,37 +2873,23 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
-      <c r="A30" s="9" t="s">
-        <v>52</v>
+    <row r="30" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="3"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2731,36 +2905,40 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A31" s="9" t="s">
-        <v>53</v>
+    <row r="31" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
+      <c r="A31" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>62</v>
+        <v>97</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I31" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="J31" s="3" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -2775,35 +2953,23 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
-      <c r="A32" s="9" t="s">
-        <v>54</v>
+    <row r="32" spans="1:26" ht="25.5" thickTop="1" thickBot="1">
+      <c r="A32" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="3"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -2820,32 +2986,36 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A33" s="9" t="s">
-        <v>55</v>
+      <c r="A33" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>62</v>
+        <v>99</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="3" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L33" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="M33" s="3"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2861,20 +3031,24 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="13"/>
+    <row r="34" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A34" s="18">
+        <v>6</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="12"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -2889,35 +3063,23 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
-      <c r="A35" s="9" t="s">
-        <v>56</v>
+    <row r="35" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="5"/>
       <c r="M35" s="3"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2933,37 +3095,23 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A36" s="9" t="s">
-        <v>57</v>
+    <row r="36" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A36" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="5"/>
       <c r="M36" s="3"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2979,38 +3127,24 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="121.5" thickTop="1" thickBot="1">
-      <c r="A37" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M37" s="3"/>
+    <row r="37" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A37" s="18">
+        <v>7</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -3025,31 +3159,31 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="121.5" thickTop="1" thickBot="1">
-      <c r="A38" s="9" t="s">
-        <v>59</v>
+    <row r="38" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+      <c r="A38" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>62</v>
+        <v>99</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="3" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>29</v>
@@ -3069,31 +3203,31 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="121.5" thickTop="1" thickBot="1">
-      <c r="A39" s="9" t="s">
-        <v>60</v>
+    <row r="39" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
+      <c r="A39" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>62</v>
+        <v>99</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="3" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>29</v>
@@ -3113,35 +3247,35 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A40" s="9" t="s">
-        <v>61</v>
+    <row r="40" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
+      <c r="A40" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>62</v>
+        <v>131</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="3" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="L40" s="5"/>
       <c r="M40" s="3"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3157,24 +3291,24 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="3"/>
+    <row r="41" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A41" s="18">
+        <v>8</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="12"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -3189,23 +3323,37 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+    <row r="42" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
+      <c r="A42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="M42" s="3"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3222,19 +3370,19 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="3"/>
+      <c r="A43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="G43" s="9"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="5"/>
+      <c r="I43" s="7"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="5"/>
@@ -3253,24 +3401,36 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="3"/>
+    <row r="44" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
+      <c r="A44" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="8"/>
+      <c r="F44" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" s="3"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -3285,24 +3445,24 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="2"/>
+    <row r="45" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A45" s="18">
+        <v>9</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="12"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -3317,24 +3477,36 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="3"/>
+    <row r="46" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+      <c r="A46" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="3"/>
+      <c r="F46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="I46" s="5"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="2"/>
+      <c r="J46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M46" s="3"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -3349,24 +3521,36 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="3"/>
+    <row r="47" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
+      <c r="A47" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="3"/>
+      <c r="F47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="I47" s="5"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="2"/>
+      <c r="J47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="3"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -3381,24 +3565,24 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="2"/>
+    <row r="48" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A48" s="18">
+        <v>10</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="12"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -3413,24 +3597,38 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+    <row r="49" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+      <c r="A49" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="3"/>
+      <c r="F49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="I49" s="5"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="2"/>
+      <c r="J49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="3"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -3445,24 +3643,38 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+    <row r="50" spans="1:26" ht="121.5" thickTop="1" thickBot="1">
+      <c r="A50" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" s="3"/>
+      <c r="F50" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="2"/>
+      <c r="J50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="3"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -3477,20 +3689,36 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+    <row r="51" spans="1:26" ht="121.5" thickTop="1" thickBot="1">
+      <c r="A51" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="3"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -3505,20 +3733,36 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+    <row r="52" spans="1:26" ht="121.5" thickTop="1" thickBot="1">
+      <c r="A52" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="3"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -3533,20 +3777,36 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
+    <row r="53" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+      <c r="A53" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" s="3"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -3561,20 +3821,24 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+    <row r="54" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A54" s="18">
+        <v>11</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="12"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3589,20 +3853,26 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+    <row r="55" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A55" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="3"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -3617,20 +3887,28 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
+    <row r="56" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A56" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="3"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -3645,20 +3923,26 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
+    <row r="57" spans="1:26" ht="25.5" thickTop="1" thickBot="1">
+      <c r="A57" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="3"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -3673,20 +3957,26 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
+    <row r="58" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A58" s="18">
+        <v>12</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="15"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -3701,20 +3991,28 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
+    <row r="59" spans="1:26" ht="37.5" thickTop="1" thickBot="1">
+      <c r="A59" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="3"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -3729,20 +4027,26 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
+    <row r="60" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A60" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="3"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -3757,20 +4061,26 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
+    <row r="61" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A61" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="3"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -3785,20 +4095,26 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
+    <row r="62" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A62" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="3"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -3813,20 +4129,26 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
+    <row r="63" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A63" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="3"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -3841,20 +4163,26 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
+    <row r="64" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A64" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="3"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -3869,20 +4197,24 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A65" s="18">
+        <v>13</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="12"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -3897,20 +4229,24 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A66" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="3"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -3925,20 +4261,24 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A67" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="3"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -3953,20 +4293,24 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A68" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="3"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -3981,20 +4325,24 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A69" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="3"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -4009,20 +4357,24 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A70" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="3"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -4037,20 +4389,24 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A71" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="3"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -4065,20 +4421,24 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A72" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="3"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -4093,20 +4453,24 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A73" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="3"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -4121,20 +4485,24 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A74" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="3"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -4149,20 +4517,24 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A75" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="3"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -4177,7 +4549,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -8713,25 +9085,349 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="238" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="M238" s="2"/>
+      <c r="N238" s="2"/>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" s="2"/>
+      <c r="R238" s="2"/>
+      <c r="S238" s="2"/>
+      <c r="T238" s="2"/>
+      <c r="U238" s="2"/>
+      <c r="V238" s="2"/>
+      <c r="W238" s="2"/>
+      <c r="X238" s="2"/>
+      <c r="Y238" s="2"/>
+      <c r="Z238" s="2"/>
+    </row>
+    <row r="239" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
+      <c r="M239" s="2"/>
+      <c r="N239" s="2"/>
+      <c r="O239" s="2"/>
+      <c r="P239" s="2"/>
+      <c r="Q239" s="2"/>
+      <c r="R239" s="2"/>
+      <c r="S239" s="2"/>
+      <c r="T239" s="2"/>
+      <c r="U239" s="2"/>
+      <c r="V239" s="2"/>
+      <c r="W239" s="2"/>
+      <c r="X239" s="2"/>
+      <c r="Y239" s="2"/>
+      <c r="Z239" s="2"/>
+    </row>
+    <row r="240" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
+      <c r="M240" s="2"/>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" s="2"/>
+      <c r="R240" s="2"/>
+      <c r="S240" s="2"/>
+      <c r="T240" s="2"/>
+      <c r="U240" s="2"/>
+      <c r="V240" s="2"/>
+      <c r="W240" s="2"/>
+      <c r="X240" s="2"/>
+      <c r="Y240" s="2"/>
+      <c r="Z240" s="2"/>
+    </row>
+    <row r="241" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" s="2"/>
+      <c r="R241" s="2"/>
+      <c r="S241" s="2"/>
+      <c r="T241" s="2"/>
+      <c r="U241" s="2"/>
+      <c r="V241" s="2"/>
+      <c r="W241" s="2"/>
+      <c r="X241" s="2"/>
+      <c r="Y241" s="2"/>
+      <c r="Z241" s="2"/>
+    </row>
+    <row r="242" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" s="2"/>
+      <c r="R242" s="2"/>
+      <c r="S242" s="2"/>
+      <c r="T242" s="2"/>
+      <c r="U242" s="2"/>
+      <c r="V242" s="2"/>
+      <c r="W242" s="2"/>
+      <c r="X242" s="2"/>
+      <c r="Y242" s="2"/>
+      <c r="Z242" s="2"/>
+    </row>
+    <row r="243" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="2"/>
+      <c r="M243" s="2"/>
+      <c r="N243" s="2"/>
+      <c r="O243" s="2"/>
+      <c r="P243" s="2"/>
+      <c r="Q243" s="2"/>
+      <c r="R243" s="2"/>
+      <c r="S243" s="2"/>
+      <c r="T243" s="2"/>
+      <c r="U243" s="2"/>
+      <c r="V243" s="2"/>
+      <c r="W243" s="2"/>
+      <c r="X243" s="2"/>
+      <c r="Y243" s="2"/>
+      <c r="Z243" s="2"/>
+    </row>
+    <row r="244" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="2"/>
+      <c r="M244" s="2"/>
+      <c r="N244" s="2"/>
+      <c r="O244" s="2"/>
+      <c r="P244" s="2"/>
+      <c r="Q244" s="2"/>
+      <c r="R244" s="2"/>
+      <c r="S244" s="2"/>
+      <c r="T244" s="2"/>
+      <c r="U244" s="2"/>
+      <c r="V244" s="2"/>
+      <c r="W244" s="2"/>
+      <c r="X244" s="2"/>
+      <c r="Y244" s="2"/>
+      <c r="Z244" s="2"/>
+    </row>
+    <row r="245" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="2"/>
+      <c r="M245" s="2"/>
+      <c r="N245" s="2"/>
+      <c r="O245" s="2"/>
+      <c r="P245" s="2"/>
+      <c r="Q245" s="2"/>
+      <c r="R245" s="2"/>
+      <c r="S245" s="2"/>
+      <c r="T245" s="2"/>
+      <c r="U245" s="2"/>
+      <c r="V245" s="2"/>
+      <c r="W245" s="2"/>
+      <c r="X245" s="2"/>
+      <c r="Y245" s="2"/>
+      <c r="Z245" s="2"/>
+    </row>
+    <row r="246" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+      <c r="L246" s="2"/>
+      <c r="M246" s="2"/>
+      <c r="N246" s="2"/>
+      <c r="O246" s="2"/>
+      <c r="P246" s="2"/>
+      <c r="Q246" s="2"/>
+      <c r="R246" s="2"/>
+      <c r="S246" s="2"/>
+      <c r="T246" s="2"/>
+      <c r="U246" s="2"/>
+      <c r="V246" s="2"/>
+      <c r="W246" s="2"/>
+      <c r="X246" s="2"/>
+      <c r="Y246" s="2"/>
+      <c r="Z246" s="2"/>
+    </row>
+    <row r="247" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+      <c r="L247" s="2"/>
+      <c r="M247" s="2"/>
+      <c r="N247" s="2"/>
+      <c r="O247" s="2"/>
+      <c r="P247" s="2"/>
+      <c r="Q247" s="2"/>
+      <c r="R247" s="2"/>
+      <c r="S247" s="2"/>
+      <c r="T247" s="2"/>
+      <c r="U247" s="2"/>
+      <c r="V247" s="2"/>
+      <c r="W247" s="2"/>
+      <c r="X247" s="2"/>
+      <c r="Y247" s="2"/>
+      <c r="Z247" s="2"/>
+    </row>
+    <row r="248" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="2"/>
+      <c r="J248" s="2"/>
+      <c r="K248" s="2"/>
+      <c r="L248" s="2"/>
+      <c r="M248" s="2"/>
+      <c r="N248" s="2"/>
+      <c r="O248" s="2"/>
+      <c r="P248" s="2"/>
+      <c r="Q248" s="2"/>
+      <c r="R248" s="2"/>
+      <c r="S248" s="2"/>
+      <c r="T248" s="2"/>
+      <c r="U248" s="2"/>
+      <c r="V248" s="2"/>
+      <c r="W248" s="2"/>
+      <c r="X248" s="2"/>
+      <c r="Y248" s="2"/>
+      <c r="Z248" s="2"/>
+    </row>
+    <row r="249" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+      <c r="L249" s="2"/>
+      <c r="M249" s="2"/>
+      <c r="N249" s="2"/>
+      <c r="O249" s="2"/>
+      <c r="P249" s="2"/>
+      <c r="Q249" s="2"/>
+      <c r="R249" s="2"/>
+      <c r="S249" s="2"/>
+      <c r="T249" s="2"/>
+      <c r="U249" s="2"/>
+      <c r="V249" s="2"/>
+      <c r="W249" s="2"/>
+      <c r="X249" s="2"/>
+      <c r="Y249" s="2"/>
+      <c r="Z249" s="2"/>
+    </row>
+    <row r="250" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="251" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="252" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="253" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="254" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="255" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="256" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -9493,102 +10189,84 @@
     <row r="1015" ht="15.75" customHeight="1"/>
     <row r="1016" ht="15.75" customHeight="1"/>
     <row r="1017" ht="15.75" customHeight="1"/>
+    <row r="1018" ht="15.75" customHeight="1"/>
+    <row r="1019" ht="15.75" customHeight="1"/>
+    <row r="1020" ht="15.75" customHeight="1"/>
+    <row r="1021" ht="15.75" customHeight="1"/>
+    <row r="1022" ht="15.75" customHeight="1"/>
+    <row r="1023" ht="15.75" customHeight="1"/>
+    <row r="1024" ht="15.75" customHeight="1"/>
+    <row r="1025" ht="15.75" customHeight="1"/>
+    <row r="1026" ht="15.75" customHeight="1"/>
+    <row r="1027" ht="15.75" customHeight="1"/>
+    <row r="1028" ht="15.75" customHeight="1"/>
+    <row r="1029" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="F31:F32 F36:F50 F2:F4 F6:F29">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+  <conditionalFormatting sqref="F14:F16 F3 F18:F64 F5:F8">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F32 F36:F50 F2:F4 F6:F29">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+  <conditionalFormatting sqref="F14:F16 F3 F18:F64 F5:F8">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F32 F36:F50 F2:F4 F6:F29">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+  <conditionalFormatting sqref="F14:F16 F3 F18:F64 F5:F8">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:L32 L36:L50 L2:L4 L6:L29">
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+  <conditionalFormatting sqref="L14:L16 L3 L5:L8 L18:L75">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:L32 L36:L50 L2:L4 L6:L29">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+  <conditionalFormatting sqref="L14:L16 L3 L5:L8 L18:L75">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:L32 L36:L50 L2:L4 L6:L29">
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+  <conditionalFormatting sqref="L14:L16 L3 L5:L8 L18:L75">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F35">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+  <conditionalFormatting sqref="G66:G75">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F30">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+  <conditionalFormatting sqref="F66:F75">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F30">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+  <conditionalFormatting sqref="F66:F75">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F30">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+  <conditionalFormatting sqref="F66:F75">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28:L30">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
-      <formula>"Siker"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L28:L30">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
-      <formula>"Nem futtatható"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L28:L30">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
-      <formula>"Hiba"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+  <conditionalFormatting sqref="G66:G75">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F35">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+  <conditionalFormatting sqref="G66:G75">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33:L35">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>"Siker"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33:L35">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>"Nem futtatható"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33:L35">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
-      <formula>"Hiba"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="L2:L4 L6:L50" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="L14:L16 L3 L5:L8 L18:L75" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Siker,Nem futtatható,Hiba"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F4 F6:F50" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F14:F16 F3 F5:F8 F18:F64 F66:G75" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Magas,Normál,Alacsony"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test_case_template.xlsx
+++ b/test_case_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyömbér Judit\IdeaProjects\TestingPortioWebpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA3D8B2-4D1F-49CD-AEE5-17A200C8464F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAAC34D-8630-4231-8808-2BB4A87B8607}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="hibák (bug)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$F$57:$F$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$F$56:$F$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="265">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -685,15 +685,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Service linkre kattintás
-5. A slide-ok megszámlálása
-</t>
-  </si>
-  <si>
     <t>számlálással</t>
   </si>
   <si>
@@ -783,9 +774,6 @@
     <t>ProfilePageTest</t>
   </si>
   <si>
-    <t>BaseTest</t>
-  </si>
-  <si>
     <t>Message: Profile edited!</t>
   </si>
   <si>
@@ -837,9 +825,6 @@
     <t>CaseStudyPageTest</t>
   </si>
   <si>
-    <t>??????</t>
-  </si>
-  <si>
     <t>Számlálással</t>
   </si>
   <si>
@@ -870,9 +855,6 @@
     <t>A szakmai ismeretek és mélységüknek párosítása</t>
   </si>
   <si>
-    <t>BlogPageTest</t>
-  </si>
-  <si>
     <t>Home link validálása</t>
   </si>
   <si>
@@ -1024,6 +1006,30 @@
   </si>
   <si>
     <t>TC61</t>
+  </si>
+  <si>
+    <t>Nem futtatható</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Bejelentkezés
+4. Service linkre kattintás
+5. A slide kockák mennyiségének lekérése
+</t>
+  </si>
+  <si>
+    <t>Disabled test case</t>
+  </si>
+  <si>
+    <t>nooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>HomePageTest</t>
+  </si>
+  <si>
+    <t>BlogPage2Test</t>
   </si>
 </sst>
 </file>
@@ -1612,9 +1618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C76" sqref="C76"/>
+      <selection pane="topRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1692,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -1719,39 +1725,41 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
       <c r="A3" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5" t="s">
-        <v>99</v>
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="H3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>183</v>
+      <c r="M3" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1767,26 +1775,42 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+        <v>237</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1801,38 +1825,42 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="3"/>
+      <c r="H5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1847,38 +1875,24 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
-      <c r="A6" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="3"/>
+    <row r="6" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A6" s="18">
+        <v>2</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1893,33 +1907,35 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5" t="s">
-        <v>99</v>
+        <v>239</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>146</v>
+      <c r="H7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>29</v>
@@ -1939,38 +1955,42 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
-        <v>99</v>
+        <v>61</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>161</v>
+      <c r="H8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1985,26 +2005,42 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A9" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+        <v>241</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2019,26 +2055,40 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A10" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+        <v>242</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2053,26 +2103,40 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="25.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A11" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+        <v>243</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -2087,26 +2151,36 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
       <c r="A12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+        <v>244</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="3"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2123,10 +2197,10 @@
     </row>
     <row r="13" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A13" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -2153,42 +2227,26 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>98</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -2203,42 +2261,38 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
-        <v>97</v>
+        <v>150</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="H15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="3"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -2253,42 +2307,38 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
       <c r="A16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
-        <v>97</v>
+        <v>33</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="H16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="3"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -2303,24 +2353,38 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A17" s="18">
-        <v>3</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+    <row r="17" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="3"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -2335,40 +2399,26 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="3"/>
+      <c r="B18" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -2383,42 +2433,26 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="B19" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -2433,42 +2467,26 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="B20" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -2483,40 +2501,24 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>130</v>
-      </c>
+    <row r="21" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A21" s="18">
+        <v>4</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="12"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -2531,39 +2533,39 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
       <c r="A22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9" t="s">
-        <v>131</v>
+        <v>182</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>62</v>
+      <c r="H22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2579,34 +2581,36 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
       <c r="A23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="5" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>54</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I23" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="J23" s="3" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="2"/>
@@ -2623,24 +2627,40 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A24" s="18">
-        <v>4</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="12"/>
+    <row r="24" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
+      <c r="A24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -2655,38 +2675,24 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
-      <c r="A25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="3"/>
+    <row r="25" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A25" s="18">
+        <v>5</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="12"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2701,14 +2707,16 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A26" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="5" t="s">
@@ -2718,23 +2726,19 @@
         <v>54</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>115</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="I26" s="5"/>
       <c r="J26" s="3" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="M26" s="3"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -2749,24 +2753,38 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A27" s="18">
-        <v>5</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="12"/>
+    <row r="27" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
+      <c r="A27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="3"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -2781,37 +2799,23 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="3"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2827,16 +2831,14 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
       <c r="A29" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>190</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="5" t="s">
@@ -2846,19 +2848,23 @@
         <v>54</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="J29" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -2873,12 +2879,12 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:26" ht="25.5" thickTop="1" thickBot="1">
       <c r="A30" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2889,8 +2895,12 @@
       <c r="I30" s="5"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="3"/>
+      <c r="L30" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2905,40 +2915,38 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A31" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>54</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>74</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="I31" s="5"/>
       <c r="J31" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="M31" s="3"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -2953,24 +2961,24 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A32" s="18">
+        <v>6</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="3"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="12"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -2985,37 +2993,23 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="5"/>
       <c r="M33" s="3"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -3031,24 +3025,24 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A34" s="18">
-        <v>6</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="12"/>
+    <row r="34" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="3"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -3063,24 +3057,24 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="3"/>
+    <row r="35" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A35" s="18">
+        <v>7</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="12"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -3095,23 +3089,35 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
       <c r="A36" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="3"/>
+      <c r="F36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="I36" s="5"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="5"/>
+      <c r="J36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3127,24 +3133,36 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A37" s="18">
-        <v>7</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="12"/>
+    <row r="37" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
+      <c r="A37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="3"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -3159,36 +3177,38 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
       <c r="A38" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="5" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>54</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" s="3"/>
+        <v>259</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -3203,36 +3223,24 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
-      <c r="A39" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M39" s="3"/>
+    <row r="39" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A39" s="18">
+        <v>8</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="12"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -3247,15 +3255,15 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
       <c r="A40" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3266,16 +3274,18 @@
         <v>54</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I40" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="3" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="L40" s="5"/>
+        <v>137</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="M40" s="3"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3291,24 +3301,24 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A41" s="18">
-        <v>8</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="12"/>
+    <row r="41" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="3"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -3328,28 +3338,26 @@
         <v>79</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>201</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="5" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>29</v>
@@ -3369,24 +3377,24 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="3"/>
+    <row r="43" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A43" s="18">
+        <v>9</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="12"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -3403,12 +3411,14 @@
     </row>
     <row r="44" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
       <c r="A44" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="5" t="s">
@@ -3418,14 +3428,14 @@
         <v>54</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>29</v>
@@ -3445,24 +3455,36 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A45" s="18">
-        <v>9</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="12"/>
+    <row r="45" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+      <c r="A45" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" s="3"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -3477,12 +3499,12 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
       <c r="A46" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3494,17 +3516,17 @@
         <v>54</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="2"/>
@@ -3521,36 +3543,24 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
-      <c r="A47" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M47" s="3"/>
+    <row r="47" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A47" s="18">
+        <v>10</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="12"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -3565,24 +3575,38 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A48" s="18">
-        <v>10</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="12"/>
+    <row r="48" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+      <c r="A48" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" s="3"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -3597,12 +3621,12 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:26" ht="121.5" thickTop="1" thickBot="1">
       <c r="A49" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>164</v>
@@ -3610,7 +3634,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="5" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>54</v>
@@ -3620,10 +3644,10 @@
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>29</v>
@@ -3648,21 +3672,19 @@
         <v>85</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>165</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="5" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>54</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="3" t="s">
@@ -3694,7 +3716,7 @@
         <v>86</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -3733,12 +3755,12 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="121.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
       <c r="A52" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -3750,14 +3772,14 @@
         <v>54</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>29</v>
@@ -3777,36 +3799,24 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A53" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M53" s="3"/>
+    <row r="53" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A53" s="18">
+        <v>11</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="12"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -3821,24 +3831,26 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A54" s="18">
-        <v>11</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="12"/>
+    <row r="54" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A54" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="3"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3855,12 +3867,14 @@
     </row>
     <row r="55" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A55" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="5"/>
@@ -3887,16 +3901,14 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:26" ht="25.5" thickTop="1" thickBot="1">
       <c r="A56" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" s="3" t="s">
         <v>207</v>
       </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="5"/>
@@ -3923,26 +3935,26 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A57" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="9" t="s">
+    <row r="57" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A57" s="18">
+        <v>12</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="3"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="15"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -3957,26 +3969,28 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A58" s="18">
-        <v>12</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="15"/>
+    <row r="58" spans="1:26" ht="25.5" thickTop="1" thickBot="1">
+      <c r="A58" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -3993,13 +4007,13 @@
     </row>
     <row r="59" spans="1:26" ht="37.5" thickTop="1" thickBot="1">
       <c r="A59" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4029,10 +4043,10 @@
     </row>
     <row r="60" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A60" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -4063,10 +4077,10 @@
     </row>
     <row r="61" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A61" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -4097,10 +4111,10 @@
     </row>
     <row r="62" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A62" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -4131,10 +4145,10 @@
     </row>
     <row r="63" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A63" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -4165,10 +4179,10 @@
     </row>
     <row r="64" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A64" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -4202,7 +4216,7 @@
         <v>13</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="20"/>
@@ -4231,10 +4245,10 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A66" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -4263,10 +4277,10 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A67" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4295,10 +4309,10 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A68" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -4327,10 +4341,10 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4359,10 +4373,10 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A70" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -4391,10 +4405,10 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A71" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -4423,10 +4437,10 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A72" s="8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -4455,10 +4469,10 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A73" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4487,10 +4501,10 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A74" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4519,10 +4533,10 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A75" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -10202,32 +10216,32 @@
     <row r="1028" ht="15.75" customHeight="1"/>
     <row r="1029" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="F14:F16 F3 F18:F64 F5:F8">
+  <conditionalFormatting sqref="F3:F5 F7:F64">
     <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F16 F3 F18:F64 F5:F8">
+  <conditionalFormatting sqref="F3:F5 F7:F64">
     <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F16 F3 F18:F64 F5:F8">
+  <conditionalFormatting sqref="F3:F5 F7:F64">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L16 L3 L5:L8 L18:L75">
+  <conditionalFormatting sqref="L3:L5 L7:L75">
     <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L16 L3 L5:L8 L18:L75">
+  <conditionalFormatting sqref="L3:L5 L7:L75">
     <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L16 L3 L5:L8 L18:L75">
+  <conditionalFormatting sqref="L3:L5 L7:L75">
     <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
@@ -10263,10 +10277,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="L14:L16 L3 L5:L8 L18:L75" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="L3:L5 L7:L75" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Siker,Nem futtatható,Hiba"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F14:F16 F3 F5:F8 F18:F64 F66:G75" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F3:F5 F66:G75 F7:F64" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Magas,Normál,Alacsony"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test_case_template.xlsx
+++ b/test_case_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyömbér Judit\IdeaProjects\TestingPortioWebpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAAC34D-8630-4231-8808-2BB4A87B8607}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD74DE01-AB82-47C5-BC8E-91EE8DE9789C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="266">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -894,9 +894,6 @@
     <t>FooterPageTest</t>
   </si>
   <si>
-    <t>BlogPage2-ra navigálás</t>
-  </si>
-  <si>
     <t>A BlogPag-re navigálás után a See All Posts gombra kattintás</t>
   </si>
   <si>
@@ -1030,6 +1027,12 @@
   </si>
   <si>
     <t>BlogPage2Test</t>
+  </si>
+  <si>
+    <t>BlogPage2-re navigálás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooltip elérése </t>
   </si>
 </sst>
 </file>
@@ -1618,9 +1621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="3" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
       <c r="A3" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>59</v>
@@ -1777,7 +1780,7 @@
     </row>
     <row r="4" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>77</v>
@@ -1827,7 +1830,7 @@
     </row>
     <row r="5" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>89</v>
@@ -1909,7 +1912,7 @@
     </row>
     <row r="7" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>93</v>
@@ -1957,7 +1960,7 @@
     </row>
     <row r="8" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>61</v>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="9" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A9" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>90</v>
@@ -2057,7 +2060,7 @@
     </row>
     <row r="10" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A10" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>64</v>
@@ -2105,7 +2108,7 @@
     </row>
     <row r="11" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A11" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>116</v>
@@ -2153,7 +2156,7 @@
     </row>
     <row r="12" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
       <c r="A12" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>66</v>
@@ -2200,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -2886,7 +2889,9 @@
       <c r="B30" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="5"/>
@@ -2896,10 +2901,10 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3030,7 +3035,7 @@
         <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3194,7 +3199,7 @@
         <v>54</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="3" t="s">
@@ -3204,10 +3209,10 @@
         <v>154</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3414,10 +3419,10 @@
         <v>80</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3940,7 +3945,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -3974,14 +3979,14 @@
         <v>217</v>
       </c>
       <c r="B58" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
@@ -4077,7 +4082,7 @@
     </row>
     <row r="61" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A61" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>211</v>
@@ -4111,7 +4116,7 @@
     </row>
     <row r="62" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A62" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>212</v>
@@ -4145,7 +4150,7 @@
     </row>
     <row r="63" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A63" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>213</v>
@@ -4179,7 +4184,7 @@
     </row>
     <row r="64" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A64" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>214</v>
@@ -4245,10 +4250,10 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A66" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -4277,10 +4282,10 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A67" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4309,10 +4314,10 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A68" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -4341,10 +4346,10 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4373,10 +4378,10 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A70" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -4405,10 +4410,10 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A71" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -4437,10 +4442,10 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A72" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -4469,10 +4474,10 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A73" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4501,10 +4506,10 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A74" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4533,10 +4538,10 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A75" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>

--- a/test_case_template.xlsx
+++ b/test_case_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyömbér Judit\IdeaProjects\TestingPortioWebpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD74DE01-AB82-47C5-BC8E-91EE8DE9789C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A988BD5-210D-4025-9FD8-C3078B28CA27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="hibák (bug)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$F$56:$F$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$G$50:$G$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="183">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -186,12 +186,6 @@
     <t>TC30</t>
   </si>
   <si>
-    <t>TC31</t>
-  </si>
-  <si>
-    <t>TC32</t>
-  </si>
-  <si>
     <t>GyJ</t>
   </si>
   <si>
@@ -202,11 +196,6 @@
   </si>
   <si>
     <t>Hiba</t>
-  </si>
-  <si>
-    <t>Felhasználónév: teszteszter
-Jelszó: teszt
-Email: teszteszter5@gmail.com</t>
   </si>
   <si>
     <t>Regisztráció</t>
@@ -243,15 +232,6 @@
 +36205556677</t>
   </si>
   <si>
-    <t>A Contact oldalra navigálás</t>
-  </si>
-  <si>
-    <t>A Főoldalra  navigálás</t>
-  </si>
-  <si>
-    <t>Kilépés</t>
-  </si>
-  <si>
     <t>Üzenet:
 Oops! There was a problem.</t>
   </si>
@@ -274,30 +254,6 @@
   </si>
   <si>
     <t>hiányzó jelszó</t>
-  </si>
-  <si>
-    <t>TC33</t>
-  </si>
-  <si>
-    <t>TC34</t>
-  </si>
-  <si>
-    <t>TC35</t>
-  </si>
-  <si>
-    <t>TC36</t>
-  </si>
-  <si>
-    <t>TC37</t>
-  </si>
-  <si>
-    <t>TC38</t>
-  </si>
-  <si>
-    <t>TC39</t>
-  </si>
-  <si>
-    <t>TC40</t>
   </si>
   <si>
     <t>hiányzó felhasználónév</t>
@@ -351,9 +307,6 @@
     <t>Normál</t>
   </si>
   <si>
-    <t>Hire Me Now gomb validálása</t>
-  </si>
-  <si>
     <t xml:space="preserve">Felhasználónév: lovasia
 Jelszó: kispal123
 </t>
@@ -388,18 +341,6 @@
 4. Jelszó megadása
 5. Enter lenyomása
 </t>
-  </si>
-  <si>
-    <t>Contact oldalról a HomePage-re navigálás</t>
-  </si>
-  <si>
-    <t>Home linkre kattintással</t>
-  </si>
-  <si>
-    <t>TC41</t>
-  </si>
-  <si>
-    <t>TC42</t>
   </si>
   <si>
     <t xml:space="preserve">Sikeres mentés
@@ -471,31 +412,6 @@
 2. Feltételek elfogadása
 3. Bejelentkezés
 4. Hire Me Now gombra kattintás
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Contact Me gombra kattintás
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Contact Me gombra kattintás
-5. Home linkre kattintás
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Hire Me Now gombra kattintás
 5. Contact Form megkeresése
 6. Név megadása
 7. Email megadása
@@ -533,181 +449,13 @@
     <t>Alacsony</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Work linkre kattintás
-</t>
-  </si>
-  <si>
-    <t>WorkPage-re navigálás</t>
-  </si>
-  <si>
-    <t>Work linkre kattintással</t>
-  </si>
-  <si>
-    <t>A portfólió mennyisége</t>
-  </si>
-  <si>
-    <t>A portfólió tartalma</t>
-  </si>
-  <si>
-    <t>4 db munka van a portfólióban</t>
-  </si>
-  <si>
-    <t>A 4 munka megnevezésének helyes felsorolása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Work linkre kattintás
-5.A portfólió tartalmának megszámolása
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Work linkre kattintás
-5. A portfólió munkadarabjai elnevezésének kigyűjtése
-</t>
-  </si>
-  <si>
-    <t>Végiglapoz a munkákon, az utolsó munka oldalán áll meg - Recipe App Ux StudyPage</t>
-  </si>
-  <si>
-    <t>A nyíl nem kattintható</t>
-  </si>
-  <si>
-    <t>A nyílra kattitntva lapoz a munkák közt</t>
-  </si>
-  <si>
-    <t>A munkák közti navigálás a nextCase nyílra kattintással</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Work linkre kattintás
-5. A CaseStudyOne linkre kattintás
-</t>
-  </si>
-  <si>
-    <t>A CaseStudyOne oldalra navigálás</t>
-  </si>
-  <si>
-    <t>A munkák közti navigálás - a NextCase alatti linkre kattintással</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Work linkre kattintás
-5. A CaseStudyOne linkre kattintás
-6. NextCase nyílra kattintás
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Work linkre kattintás
-5. A CaseStudyOne linkre kattintás
-6. NextCase nyíl alatti linkre kattintás, míg az utolsó oldalra érünk
-</t>
-  </si>
-  <si>
-    <t>ServicePage-re navigálás</t>
-  </si>
-  <si>
-    <t>A Service linkre kattintással</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Service linkre kattintás
-</t>
-  </si>
-  <si>
-    <t>A slide-ok mennyisége</t>
-  </si>
-  <si>
-    <t>6 db slide van a sliderben</t>
-  </si>
-  <si>
-    <t>Az utolsó slide-ig elhúni a slidert</t>
-  </si>
-  <si>
-    <t>A slider mozgatása jobbra nyíllal</t>
-  </si>
-  <si>
-    <t>A slider mozgatása drag&amp;droppal</t>
-  </si>
-  <si>
-    <t>Az utolsó slide-ig lépkedni a nyíllal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Service linkre kattintás
-5. Az első slide-ról indulva a jobbra nyíl lenyomása, míg az utolsó slide-ra ér
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Service linkre kattintás
-5. Az első slide-ot megfogva az utolsó slide-ig elhúzni a sildert
-</t>
-  </si>
-  <si>
-    <t>ResumePage-re navigálás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Resume linkre kattintás
-</t>
-  </si>
-  <si>
-    <t>számlálással</t>
-  </si>
-  <si>
     <t>méret lekérdezésével</t>
   </si>
   <si>
     <t>A cégek, ahol tapasztalatszerzés történt</t>
   </si>
   <si>
-    <t>A tapasztalatszerzés ideje</t>
-  </si>
-  <si>
     <t>Tapasztalatok mennyisége</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Resume linkre kattintás
-5. Experiences gombra kattintás
-6. Experiences megszámlálása
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -749,297 +497,302 @@
 </t>
   </si>
   <si>
-    <t>A tanulmányok éve és típusa</t>
+    <t>RegisterPageTest</t>
+  </si>
+  <si>
+    <t>LoginPageTest</t>
+  </si>
+  <si>
+    <t>ProfilePageTest</t>
+  </si>
+  <si>
+    <t>Message: Profile edited!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profil beállítás mentése </t>
+  </si>
+  <si>
+    <t>Contact Form üzenet küldése a checkbox bepipálása nélkül</t>
+  </si>
+  <si>
+    <t>ContactPageTest</t>
+  </si>
+  <si>
+    <t>AboutPageTest</t>
+  </si>
+  <si>
+    <t>ResumePageTest</t>
+  </si>
+  <si>
+    <t>SkillsPageTest</t>
+  </si>
+  <si>
+    <t>A szakmai ismeretek és mélységüknek párosítása</t>
+  </si>
+  <si>
+    <t>Blogok száma összesen</t>
+  </si>
+  <si>
+    <t>Kép mentése meglévő fájlba</t>
+  </si>
+  <si>
+    <t>Kép mentése fájl létrehozásával</t>
+  </si>
+  <si>
+    <t>Blogok címének fájlba írása</t>
+  </si>
+  <si>
+    <t>Download gomb validálása</t>
+  </si>
+  <si>
+    <t>Privacy and policy link validálása</t>
+  </si>
+  <si>
+    <t>Facebook link validálása</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>Nem futtatható</t>
+  </si>
+  <si>
+    <t>Disabled test case</t>
+  </si>
+  <si>
+    <t>HomePageTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooltip elérése </t>
+  </si>
+  <si>
+    <t>Adatkezelési nyilatkozat elfogadása</t>
+  </si>
+  <si>
+    <t>Adatkezelési nyilatkozat elutasítása</t>
+  </si>
+  <si>
+    <t>Tesztelt funkciók</t>
+  </si>
+  <si>
+    <t>Adatkezelési nyilatkozat használata</t>
+  </si>
+  <si>
+    <t>Bejelentkezés sorozatos adatbevitellel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Felhasználónév: teszteszter
+Jelszó: teszt
+Email: teszteszter5@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Gyömbér Judit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A LoginPage sikeres megnyitása  </t>
+  </si>
+  <si>
+    <t>Figyelmeztető üzenet a      nyilatkozat elfogadására
+A Loginage-re navigálás sikertelen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve felugró ablakban megjelenik az adatkezelési nyilatkozat, melyet a jobb felső sarokban lévő CloseIcon-ra kattintva elutasít a felhasználó
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve felugró ablakban megjelenik az adatkezelési nyilatkozat, melyet az OK gombra kattintva el kell fogadni.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Új adat bevitel</t>
+  </si>
+  <si>
+    <t>Meglévő adat módosítása</t>
+  </si>
+  <si>
+    <t>Adatok törlése</t>
+  </si>
+  <si>
+    <t>Sorozatos adatbevitel adatforrásból</t>
+  </si>
+  <si>
+    <t>Contact információk validálása JSON fájllal</t>
+  </si>
+  <si>
+    <t>Adatok listázása</t>
+  </si>
+  <si>
+    <t>A tapasztalatszerzés évei</t>
+  </si>
+  <si>
+    <t>Fájl kezelés</t>
+  </si>
+  <si>
+    <t>BlogPageTest</t>
+  </si>
+  <si>
+    <t>Több oldalas lista bejárása</t>
+  </si>
+  <si>
+    <t>BlogImageSaveTest</t>
+  </si>
+  <si>
+    <t>NavigationTest</t>
+  </si>
+  <si>
+    <t>A 'Hire Me Now' gomb validálása</t>
+  </si>
+  <si>
+    <t>Adatok lementése felületről</t>
+  </si>
+  <si>
+    <t>Ablakok kezelése</t>
+  </si>
+  <si>
+    <t>Navigáció</t>
   </si>
   <si>
     <t xml:space="preserve">
 1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Resume linkre kattintás
-5. Education gombra kattintás
-6. Tanulmányok évének és típusának lekérdezése
+2. A felugró ablak megjelenésének ellenőrzése
+3. Feltételek elfogadása
+4. A LoginPage-re érkezés ellenőrzése
 </t>
-  </si>
-  <si>
-    <t>Helyes adatok: 2008-2010, Master in Arts</t>
-  </si>
-  <si>
-    <t>RegisterPageTest</t>
-  </si>
-  <si>
-    <t>LoginPageTest</t>
-  </si>
-  <si>
-    <t>ProfilePageTest</t>
-  </si>
-  <si>
-    <t>Message: Profile edited!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profil beállítás mentése </t>
-  </si>
-  <si>
-    <t>AboutPage-re navigálás</t>
-  </si>
-  <si>
-    <t>SkillsPage-re navigálás</t>
-  </si>
-  <si>
-    <t>BlogPage-re navigálás</t>
-  </si>
-  <si>
-    <t>Footer-re navigálás</t>
-  </si>
-  <si>
-    <t>Contact me gomb validálása</t>
-  </si>
-  <si>
-    <t>Navigálás a HomePage-ről a  ContactPage-re a Contact me gombra kattintással</t>
-  </si>
-  <si>
-    <t>Navigálás a HomePage-ről a  ContactPage-re a Hire Me Now gombra kattintással</t>
-  </si>
-  <si>
-    <t>Contact információk validálása</t>
-  </si>
-  <si>
-    <t>Contact Form üzenet küldése a checkbox bepipálása nélkül</t>
-  </si>
-  <si>
-    <t>ContactPageTest</t>
-  </si>
-  <si>
-    <t>AboutPageTest</t>
-  </si>
-  <si>
-    <t>ServicePageTest</t>
-  </si>
-  <si>
-    <t>WorkPageTest</t>
-  </si>
-  <si>
-    <t>ResumePageTest</t>
-  </si>
-  <si>
-    <t>CaseStudyPageTest</t>
-  </si>
-  <si>
-    <t>Számlálással</t>
-  </si>
-  <si>
-    <t>Resume linkre kattintással</t>
-  </si>
-  <si>
-    <t>About linkre kattintással</t>
-  </si>
-  <si>
-    <t>Skills linkre kattintással</t>
-  </si>
-  <si>
-    <t>Blog linkre kattintással</t>
-  </si>
-  <si>
-    <t>SkillsPageTest</t>
-  </si>
-  <si>
-    <t>százalékosan</t>
-  </si>
-  <si>
-    <t>Szakmai ismeretek</t>
-  </si>
-  <si>
-    <t>Szakmai ismeretek mélysége</t>
-  </si>
-  <si>
-    <t>A szakmai ismeretek és mélységüknek párosítása</t>
-  </si>
-  <si>
-    <t>Home link validálása</t>
-  </si>
-  <si>
-    <t>A Home linkkel vissza lehet-e jutni a HomePage-re a BlogPage-ről?</t>
-  </si>
-  <si>
-    <t>Blogok száma összesen</t>
-  </si>
-  <si>
-    <t>A blogok címének és tag-jeinek párosítása</t>
-  </si>
-  <si>
-    <t>Kép mentése meglévő fájlba</t>
-  </si>
-  <si>
-    <t>Kép mentése fájl létrehozásával</t>
-  </si>
-  <si>
-    <t>Blogok címének fájlba írása</t>
-  </si>
-  <si>
-    <t>TC43</t>
-  </si>
-  <si>
-    <t>TC44</t>
-  </si>
-  <si>
-    <t>TC45</t>
-  </si>
-  <si>
-    <t>TC46</t>
-  </si>
-  <si>
-    <t>TC47</t>
-  </si>
-  <si>
-    <t>FooterPageTest</t>
-  </si>
-  <si>
-    <t>A BlogPag-re navigálás után a See All Posts gombra kattintás</t>
-  </si>
-  <si>
-    <t>A WorkPage-re navigálás után a CsaeStudyOne linkre kattintás</t>
-  </si>
-  <si>
-    <t>CaseStudyPage-re navigálás</t>
-  </si>
-  <si>
-    <t>Download gomb validálása</t>
-  </si>
-  <si>
-    <t>Get in touch gomb validálása</t>
-  </si>
-  <si>
-    <t>About Me link validálása</t>
-  </si>
-  <si>
-    <t>FAQ link validálása</t>
-  </si>
-  <si>
-    <t>Privacy and policy link validálása</t>
-  </si>
-  <si>
-    <t>Latest Article link validálása</t>
-  </si>
-  <si>
-    <t>Terms and Conditions link validálása</t>
-  </si>
-  <si>
-    <t>Facebook link validálása</t>
-  </si>
-  <si>
-    <t>Linkedin link validálása</t>
-  </si>
-  <si>
-    <t>Pinterest link validálása</t>
-  </si>
-  <si>
-    <t>Twitter link validálása</t>
-  </si>
-  <si>
-    <t>TC1</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>TC48</t>
-  </si>
-  <si>
-    <t>TC49</t>
-  </si>
-  <si>
-    <t>TC50</t>
-  </si>
-  <si>
-    <t>TC51</t>
-  </si>
-  <si>
-    <t>TC52</t>
-  </si>
-  <si>
-    <t>TC53</t>
-  </si>
-  <si>
-    <t>TC54</t>
-  </si>
-  <si>
-    <t>TC55</t>
-  </si>
-  <si>
-    <t>TC56</t>
-  </si>
-  <si>
-    <t>TC57</t>
-  </si>
-  <si>
-    <t>TC58</t>
-  </si>
-  <si>
-    <t>TC59</t>
-  </si>
-  <si>
-    <t>TC60</t>
-  </si>
-  <si>
-    <t>TC61</t>
-  </si>
-  <si>
-    <t>Nem futtatható</t>
   </si>
   <si>
     <t xml:space="preserve">
 1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Service linkre kattintás
-5. A slide kockák mennyiségének lekérése
+2. A felugró ablak megjelenésének ellenőrzése
+3. Kattintás a Close Icon-ra
+4. Annak ellenőrzése, hogy nem érkeztünk meg a LoginPage-re
 </t>
   </si>
   <si>
-    <t>Disabled test case</t>
-  </si>
-  <si>
-    <t>nooooooooooooooooooooooooooo</t>
-  </si>
-  <si>
-    <t>HomePageTest</t>
-  </si>
-  <si>
-    <t>BlogPage2Test</t>
-  </si>
-  <si>
-    <t>BlogPage2-re navigálás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tooltip elérése </t>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,6 +831,22 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1124,7 +893,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1147,12 +916,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1170,17 +989,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1197,9 +1010,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1210,6 +1020,48 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1331,6 +1183,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
         </patternFill>
@@ -1341,14 +1201,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFE598"/>
           <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1619,70 +1471,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1029"/>
+  <dimension ref="A1:AA1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="5" width="36.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="6" width="36.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="48.75" thickTop="1" thickBot="1">
+    <row r="1" spans="1:27" ht="48.75" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -1695,26 +1550,27 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1727,44 +1583,45 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A3" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>54</v>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" ht="136.5" thickTop="1" thickBot="1">
+      <c r="A3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1777,44 +1634,43 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A4" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>54</v>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" ht="151.5" thickTop="1" thickBot="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1827,44 +1683,25 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A5" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" s="2"/>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1877,26 +1714,47 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="18">
-        <v>2</v>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" ht="136.5" thickTop="1" thickBot="1">
+      <c r="A6" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1909,42 +1767,45 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A7" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="1:27" ht="109.5" thickTop="1" thickBot="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="2"/>
+      <c r="L7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1957,44 +1818,45 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A8" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" ht="109.5" thickTop="1" thickBot="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="2"/>
+      <c r="L8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -2007,44 +1869,27 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A9" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" s="2"/>
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A9" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2057,42 +1902,45 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A10" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>54</v>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" ht="85.5" thickTop="1" thickBot="1">
+      <c r="A10" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>105</v>
+        <v>52</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="N10" s="2"/>
+      <c r="L10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="3"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -2105,42 +1953,45 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A11" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>54</v>
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" ht="85.5" thickTop="1" thickBot="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>117</v>
+        <v>52</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="J11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -2153,38 +2004,45 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
-      <c r="A12" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" ht="85.5" thickTop="1" thickBot="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -2197,26 +2055,43 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A13" s="17">
-        <v>3</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="2"/>
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" ht="85.5" thickTop="1" thickBot="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -2229,28 +2104,43 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="8" t="s">
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" ht="85.5" thickTop="1" thickBot="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>183</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -2263,40 +2153,23 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
-      <c r="A15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="2"/>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -2309,40 +2182,43 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
-      <c r="A16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>133</v>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" ht="121.5" thickTop="1" thickBot="1">
+      <c r="A16" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>133</v>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="L16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -2355,40 +2231,39 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
-      <c r="A17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>161</v>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="1:27" ht="121.5" thickTop="1" thickBot="1">
+      <c r="A17" s="24"/>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>161</v>
+      <c r="F17" s="3"/>
+      <c r="G17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="L17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="2"/>
+      <c r="N17" s="3"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2401,28 +2276,39 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>184</v>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="1:27" ht="121.5" thickTop="1" thickBot="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="3"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2435,28 +2321,23 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="2"/>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="3"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2469,28 +2350,23 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="2"/>
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2503,26 +2379,23 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A21" s="18">
-        <v>4</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="2"/>
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2535,42 +2408,23 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
-      <c r="A22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N22" s="2"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2583,40 +2437,23 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
-      <c r="A23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="2"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2629,42 +2466,23 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
-      <c r="A24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N24" s="2"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2677,26 +2495,23 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A25" s="18">
-        <v>5</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="2"/>
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="3"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2709,40 +2524,23 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="2"/>
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2755,40 +2553,23 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
-      <c r="A27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="2"/>
+      <c r="AA26" s="2"/>
+    </row>
+    <row r="27" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="3"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -2801,26 +2582,23 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="2"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="3"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -2833,42 +2611,23 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
-      <c r="A29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="AA28" s="2"/>
+    </row>
+    <row r="29" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" s="2"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="3"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -2881,32 +2640,23 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-    </row>
-    <row r="30" spans="1:26" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="N30" s="2"/>
+      <c r="AA29" s="2"/>
+    </row>
+    <row r="30" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="3"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2919,40 +2669,23 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
-    </row>
-    <row r="31" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A31" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="2"/>
+      <c r="AA30" s="2"/>
+    </row>
+    <row r="31" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="3"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -2965,26 +2698,29 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-    </row>
-    <row r="32" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A32" s="18">
-        <v>6</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="2"/>
+      <c r="AA31" s="2"/>
+    </row>
+    <row r="32" spans="1:27" ht="25.5" thickTop="1" thickBot="1">
+      <c r="A32" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="3"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -2997,26 +2733,27 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-    </row>
-    <row r="33" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="2"/>
+      <c r="AA32" s="2"/>
+    </row>
+    <row r="33" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="14">
+        <v>3</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -3029,26 +2766,41 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
-    </row>
-    <row r="34" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C34" s="3"/>
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="1:27" ht="73.5" thickTop="1" thickBot="1">
+      <c r="A34" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="3"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -3061,26 +2813,27 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
-    </row>
-    <row r="35" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A35" s="18">
-        <v>7</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
+      <c r="AA34" s="2"/>
+    </row>
+    <row r="35" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A35" s="16"/>
+      <c r="B35" s="15">
+        <v>4</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="2"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="10"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -3093,38 +2846,45 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
-    </row>
-    <row r="36" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A36" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="3"/>
+      <c r="AA35" s="2"/>
+    </row>
+    <row r="36" spans="1:27" ht="133.5" thickTop="1" thickBot="1">
+      <c r="A36" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>158</v>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="L36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="2"/>
+      <c r="N36" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -3137,38 +2897,43 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
-    </row>
-    <row r="37" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
-      <c r="A37" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="3"/>
+      <c r="AA36" s="2"/>
+    </row>
+    <row r="37" spans="1:27" ht="157.5" thickTop="1" thickBot="1">
+      <c r="A37" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>155</v>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N37" s="3"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -3181,40 +2946,45 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
-    </row>
-    <row r="38" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
-      <c r="A38" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="3"/>
+      <c r="AA37" s="2"/>
+    </row>
+    <row r="38" spans="1:27" ht="169.5" thickTop="1" thickBot="1">
+      <c r="A38" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>154</v>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -3227,26 +2997,27 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
-    </row>
-    <row r="39" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A39" s="18">
-        <v>8</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
+      <c r="AA38" s="2"/>
+    </row>
+    <row r="39" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A39" s="16"/>
+      <c r="B39" s="15">
+        <v>5</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="2"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="10"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -3259,40 +3030,29 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
-    </row>
-    <row r="40" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
-      <c r="A40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>135</v>
+      <c r="AA39" s="2"/>
+    </row>
+    <row r="40" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="3"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -3305,26 +3065,45 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-    </row>
-    <row r="41" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="3"/>
+      <c r="AA40" s="2"/>
+    </row>
+    <row r="41" spans="1:27" ht="157.5" thickTop="1" thickBot="1">
+      <c r="A41" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -3337,38 +3116,35 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
-    </row>
-    <row r="42" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
-      <c r="A42" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="AA41" s="2"/>
+    </row>
+    <row r="42" spans="1:27" ht="25.5" thickTop="1" thickBot="1">
+      <c r="A42" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -3381,26 +3157,27 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
-    </row>
-    <row r="43" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A43" s="18">
-        <v>9</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="15">
+        <v>6</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="12"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="2"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="10"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -3413,40 +3190,29 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
-    </row>
-    <row r="44" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
-      <c r="A44" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>223</v>
+      <c r="AA43" s="2"/>
+    </row>
+    <row r="44" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="2"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="3"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -3459,38 +3225,27 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
-    </row>
-    <row r="45" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A45" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="2"/>
+      <c r="AA44" s="2"/>
+    </row>
+    <row r="45" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A45" s="16"/>
+      <c r="B45" s="15">
+        <v>7</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="10"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3503,38 +3258,9 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
-    </row>
-    <row r="46" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
-      <c r="A46" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="2"/>
+      <c r="AA45" s="2"/>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" thickTop="1">
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3547,26 +3273,9 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
-    </row>
-    <row r="47" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A47" s="18">
-        <v>10</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="2"/>
+      <c r="AA46" s="2"/>
+    </row>
+    <row r="47" spans="1:27">
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -3579,40 +3288,9 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
-    </row>
-    <row r="48" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A48" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="2"/>
+      <c r="AA47" s="2"/>
+    </row>
+    <row r="48" spans="1:27" ht="15.75" thickBot="1">
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -3625,40 +3303,27 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
-    </row>
-    <row r="49" spans="1:26" ht="121.5" thickTop="1" thickBot="1">
-      <c r="A49" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="2"/>
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A49" s="16"/>
+      <c r="B49" s="15">
+        <v>8</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="10"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -3671,38 +3336,31 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
-    </row>
-    <row r="50" spans="1:26" ht="121.5" thickTop="1" thickBot="1">
-      <c r="A50" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" s="3"/>
+      <c r="AA49" s="2"/>
+    </row>
+    <row r="50" spans="1:27" ht="25.5" thickTop="1" thickBot="1">
+      <c r="A50" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="2"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="3"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -3715,38 +3373,29 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
-    </row>
-    <row r="51" spans="1:26" ht="121.5" thickTop="1" thickBot="1">
-      <c r="A51" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="2"/>
+      <c r="AA50" s="2"/>
+    </row>
+    <row r="51" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A51" s="16"/>
+      <c r="B51" s="15">
+        <v>9</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="13"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -3759,38 +3408,31 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
-    </row>
-    <row r="52" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A52" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C52" s="3"/>
+      <c r="AA51" s="2"/>
+    </row>
+    <row r="52" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A52" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="3"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -3803,26 +3445,29 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
-    </row>
-    <row r="53" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A53" s="18">
-        <v>11</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="2"/>
+      <c r="AA52" s="2"/>
+    </row>
+    <row r="53" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A53" s="25"/>
+      <c r="B53" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="3"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -3835,28 +3480,27 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
-    </row>
-    <row r="54" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="2"/>
+      <c r="AA53" s="2"/>
+    </row>
+    <row r="54" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A54" s="19"/>
+      <c r="B54" s="15">
+        <v>10</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="10"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -3869,30 +3513,31 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
-    </row>
-    <row r="55" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>206</v>
+      <c r="AA54" s="2"/>
+    </row>
+    <row r="55" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A55" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="2"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="3"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -3905,28 +3550,29 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
-    </row>
-    <row r="56" spans="1:26" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A56" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C56" s="3"/>
+      <c r="AA55" s="2"/>
+    </row>
+    <row r="56" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A56" s="25"/>
+      <c r="B56" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="2"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="3"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -3939,28 +3585,27 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
-    </row>
-    <row r="57" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A57" s="18">
-        <v>12</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="2"/>
+      <c r="AA56" s="2"/>
+    </row>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A57" s="16"/>
+      <c r="B57" s="15">
+        <v>11</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="10"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -3973,30 +3618,29 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
-    </row>
-    <row r="58" spans="1:26" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A58" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>264</v>
+      <c r="AA57" s="2"/>
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A58" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="3"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -4009,30 +3653,27 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
-    </row>
-    <row r="59" spans="1:26" ht="37.5" thickTop="1" thickBot="1">
-      <c r="A59" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>208</v>
+      <c r="AA58" s="2"/>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A59" s="25"/>
+      <c r="B59" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="2"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="3"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
@@ -4045,28 +3686,29 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
-    </row>
-    <row r="60" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="3"/>
+      <c r="AA59" s="2"/>
+    </row>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A60" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="2"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="3"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -4079,27 +3721,21 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
-    </row>
-    <row r="61" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="3"/>
+      <c r="AA60" s="2"/>
+    </row>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -4113,27 +3749,21 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-    </row>
-    <row r="62" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="3"/>
+      <c r="AA61" s="2"/>
+    </row>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -4147,27 +3777,21 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
-    </row>
-    <row r="63" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="3"/>
+      <c r="AA62" s="2"/>
+    </row>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -4181,27 +3805,21 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
-    </row>
-    <row r="64" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="3"/>
+      <c r="AA63" s="2"/>
+    </row>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -4215,25 +3833,21 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
-    </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A65" s="18">
-        <v>13</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="12"/>
+      <c r="AA64" s="2"/>
+    </row>
+    <row r="65" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -4247,25 +3861,21 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A66" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="3"/>
+      <c r="AA65" s="2"/>
+    </row>
+    <row r="66" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -4279,25 +3889,21 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
-    </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A67" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="3"/>
+      <c r="AA66" s="2"/>
+    </row>
+    <row r="67" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -4311,25 +3917,21 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A68" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="3"/>
+      <c r="AA67" s="2"/>
+    </row>
+    <row r="68" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -4343,25 +3945,21 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A69" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="3"/>
+      <c r="AA68" s="2"/>
+    </row>
+    <row r="69" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -4375,25 +3973,21 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
-    </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A70" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="3"/>
+      <c r="AA69" s="2"/>
+    </row>
+    <row r="70" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -4407,25 +4001,21 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
-    </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A71" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="3"/>
+      <c r="AA70" s="2"/>
+    </row>
+    <row r="71" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -4439,25 +4029,21 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
-    </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A72" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="3"/>
+      <c r="AA71" s="2"/>
+    </row>
+    <row r="72" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -4471,25 +4057,21 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
-    </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A73" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="3"/>
+      <c r="AA72" s="2"/>
+    </row>
+    <row r="73" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -4503,25 +4085,21 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
-    </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="3"/>
+      <c r="AA73" s="2"/>
+    </row>
+    <row r="74" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -4535,25 +4113,21 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
-    </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A75" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="3"/>
+      <c r="AA74" s="2"/>
+    </row>
+    <row r="75" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -4567,9 +4141,9 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
-    </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A76" s="2"/>
+      <c r="AA75" s="2"/>
+    </row>
+    <row r="76" spans="2:27" ht="15.75" customHeight="1">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -4595,9 +4169,9 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
-    </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A77" s="2"/>
+      <c r="AA76" s="2"/>
+    </row>
+    <row r="77" spans="2:27" ht="15.75" customHeight="1">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -4623,9 +4197,9 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
-    </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A78" s="2"/>
+      <c r="AA77" s="2"/>
+    </row>
+    <row r="78" spans="2:27" ht="15.75" customHeight="1">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -4651,9 +4225,9 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
-    </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A79" s="2"/>
+      <c r="AA78" s="2"/>
+    </row>
+    <row r="79" spans="2:27" ht="15.75" customHeight="1">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -4679,9 +4253,9 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
-    </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A80" s="2"/>
+      <c r="AA79" s="2"/>
+    </row>
+    <row r="80" spans="2:27" ht="15.75" customHeight="1">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -4707,9 +4281,9 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
-    </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A81" s="2"/>
+      <c r="AA80" s="2"/>
+    </row>
+    <row r="81" spans="2:27" ht="15.75" customHeight="1">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -4735,9 +4309,9 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
-    </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A82" s="2"/>
+      <c r="AA81" s="2"/>
+    </row>
+    <row r="82" spans="2:27" ht="15.75" customHeight="1">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -4763,9 +4337,9 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
-    </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A83" s="2"/>
+      <c r="AA82" s="2"/>
+    </row>
+    <row r="83" spans="2:27" ht="15.75" customHeight="1">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -4791,9 +4365,9 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
-    </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A84" s="2"/>
+      <c r="AA83" s="2"/>
+    </row>
+    <row r="84" spans="2:27" ht="15.75" customHeight="1">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -4819,9 +4393,9 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
-    </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A85" s="2"/>
+      <c r="AA84" s="2"/>
+    </row>
+    <row r="85" spans="2:27" ht="15.75" customHeight="1">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -4847,9 +4421,9 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
-    </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A86" s="2"/>
+      <c r="AA85" s="2"/>
+    </row>
+    <row r="86" spans="2:27" ht="15.75" customHeight="1">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -4875,9 +4449,9 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
-    </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A87" s="2"/>
+      <c r="AA86" s="2"/>
+    </row>
+    <row r="87" spans="2:27" ht="15.75" customHeight="1">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -4903,9 +4477,9 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
-    </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A88" s="2"/>
+      <c r="AA87" s="2"/>
+    </row>
+    <row r="88" spans="2:27" ht="15.75" customHeight="1">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -4931,9 +4505,9 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
-    </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A89" s="2"/>
+      <c r="AA88" s="2"/>
+    </row>
+    <row r="89" spans="2:27" ht="15.75" customHeight="1">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -4959,9 +4533,9 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
-    </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A90" s="2"/>
+      <c r="AA89" s="2"/>
+    </row>
+    <row r="90" spans="2:27" ht="15.75" customHeight="1">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -4987,9 +4561,9 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
-    </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A91" s="2"/>
+      <c r="AA90" s="2"/>
+    </row>
+    <row r="91" spans="2:27" ht="15.75" customHeight="1">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -5015,9 +4589,9 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
-    </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A92" s="2"/>
+      <c r="AA91" s="2"/>
+    </row>
+    <row r="92" spans="2:27" ht="15.75" customHeight="1">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -5043,9 +4617,9 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
-    </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A93" s="2"/>
+      <c r="AA92" s="2"/>
+    </row>
+    <row r="93" spans="2:27" ht="15.75" customHeight="1">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -5071,9 +4645,9 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
-    </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A94" s="2"/>
+      <c r="AA93" s="2"/>
+    </row>
+    <row r="94" spans="2:27" ht="15.75" customHeight="1">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -5099,9 +4673,9 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
-    </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A95" s="2"/>
+      <c r="AA94" s="2"/>
+    </row>
+    <row r="95" spans="2:27" ht="15.75" customHeight="1">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -5127,9 +4701,9 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
-    </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A96" s="2"/>
+      <c r="AA95" s="2"/>
+    </row>
+    <row r="96" spans="2:27" ht="15.75" customHeight="1">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -5155,9 +4729,9 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
-    </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A97" s="2"/>
+      <c r="AA96" s="2"/>
+    </row>
+    <row r="97" spans="2:27" ht="15.75" customHeight="1">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -5183,9 +4757,9 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
-    </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A98" s="2"/>
+      <c r="AA97" s="2"/>
+    </row>
+    <row r="98" spans="2:27" ht="15.75" customHeight="1">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -5211,9 +4785,9 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
-    </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A99" s="2"/>
+      <c r="AA98" s="2"/>
+    </row>
+    <row r="99" spans="2:27" ht="15.75" customHeight="1">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -5239,9 +4813,9 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
-    </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A100" s="2"/>
+      <c r="AA99" s="2"/>
+    </row>
+    <row r="100" spans="2:27" ht="15.75" customHeight="1">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -5267,9 +4841,9 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
-    </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A101" s="2"/>
+      <c r="AA100" s="2"/>
+    </row>
+    <row r="101" spans="2:27" ht="15.75" customHeight="1">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -5295,9 +4869,9 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
-    </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A102" s="2"/>
+      <c r="AA101" s="2"/>
+    </row>
+    <row r="102" spans="2:27" ht="15.75" customHeight="1">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -5323,9 +4897,9 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
-    </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A103" s="2"/>
+      <c r="AA102" s="2"/>
+    </row>
+    <row r="103" spans="2:27" ht="15.75" customHeight="1">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -5351,9 +4925,9 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
-    </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A104" s="2"/>
+      <c r="AA103" s="2"/>
+    </row>
+    <row r="104" spans="2:27" ht="15.75" customHeight="1">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -5379,9 +4953,9 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
-    </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A105" s="2"/>
+      <c r="AA104" s="2"/>
+    </row>
+    <row r="105" spans="2:27" ht="15.75" customHeight="1">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -5407,9 +4981,9 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
-    </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A106" s="2"/>
+      <c r="AA105" s="2"/>
+    </row>
+    <row r="106" spans="2:27" ht="15.75" customHeight="1">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -5435,9 +5009,9 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
-    </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A107" s="2"/>
+      <c r="AA106" s="2"/>
+    </row>
+    <row r="107" spans="2:27" ht="15.75" customHeight="1">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -5463,9 +5037,9 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
-    </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A108" s="2"/>
+      <c r="AA107" s="2"/>
+    </row>
+    <row r="108" spans="2:27" ht="15.75" customHeight="1">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -5491,9 +5065,9 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
-    </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A109" s="2"/>
+      <c r="AA108" s="2"/>
+    </row>
+    <row r="109" spans="2:27" ht="15.75" customHeight="1">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -5519,9 +5093,9 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
-    </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A110" s="2"/>
+      <c r="AA109" s="2"/>
+    </row>
+    <row r="110" spans="2:27" ht="15.75" customHeight="1">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -5547,9 +5121,9 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
-    </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A111" s="2"/>
+      <c r="AA110" s="2"/>
+    </row>
+    <row r="111" spans="2:27" ht="15.75" customHeight="1">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -5575,9 +5149,9 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
-    </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A112" s="2"/>
+      <c r="AA111" s="2"/>
+    </row>
+    <row r="112" spans="2:27" ht="15.75" customHeight="1">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -5603,9 +5177,9 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
-    </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A113" s="2"/>
+      <c r="AA112" s="2"/>
+    </row>
+    <row r="113" spans="2:27" ht="15.75" customHeight="1">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -5631,9 +5205,9 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
-    </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A114" s="2"/>
+      <c r="AA113" s="2"/>
+    </row>
+    <row r="114" spans="2:27" ht="15.75" customHeight="1">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -5659,9 +5233,9 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
-    </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A115" s="2"/>
+      <c r="AA114" s="2"/>
+    </row>
+    <row r="115" spans="2:27" ht="15.75" customHeight="1">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -5687,9 +5261,9 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
-    </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A116" s="2"/>
+      <c r="AA115" s="2"/>
+    </row>
+    <row r="116" spans="2:27" ht="15.75" customHeight="1">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -5715,9 +5289,9 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
-    </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A117" s="2"/>
+      <c r="AA116" s="2"/>
+    </row>
+    <row r="117" spans="2:27" ht="15.75" customHeight="1">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -5743,9 +5317,9 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
-    </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A118" s="2"/>
+      <c r="AA117" s="2"/>
+    </row>
+    <row r="118" spans="2:27" ht="15.75" customHeight="1">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -5771,9 +5345,9 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
-    </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A119" s="2"/>
+      <c r="AA118" s="2"/>
+    </row>
+    <row r="119" spans="2:27" ht="15.75" customHeight="1">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -5799,9 +5373,9 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
-    </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A120" s="2"/>
+      <c r="AA119" s="2"/>
+    </row>
+    <row r="120" spans="2:27" ht="15.75" customHeight="1">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -5827,9 +5401,9 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
-    </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A121" s="2"/>
+      <c r="AA120" s="2"/>
+    </row>
+    <row r="121" spans="2:27" ht="15.75" customHeight="1">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -5855,9 +5429,9 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
-    </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A122" s="2"/>
+      <c r="AA121" s="2"/>
+    </row>
+    <row r="122" spans="2:27" ht="15.75" customHeight="1">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -5883,9 +5457,9 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
-    </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A123" s="2"/>
+      <c r="AA122" s="2"/>
+    </row>
+    <row r="123" spans="2:27" ht="15.75" customHeight="1">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -5911,9 +5485,9 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
-    </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A124" s="2"/>
+      <c r="AA123" s="2"/>
+    </row>
+    <row r="124" spans="2:27" ht="15.75" customHeight="1">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -5939,9 +5513,9 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
-    </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A125" s="2"/>
+      <c r="AA124" s="2"/>
+    </row>
+    <row r="125" spans="2:27" ht="15.75" customHeight="1">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -5967,9 +5541,9 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
-    </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A126" s="2"/>
+      <c r="AA125" s="2"/>
+    </row>
+    <row r="126" spans="2:27" ht="15.75" customHeight="1">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5995,9 +5569,9 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
-    </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A127" s="2"/>
+      <c r="AA126" s="2"/>
+    </row>
+    <row r="127" spans="2:27" ht="15.75" customHeight="1">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -6023,9 +5597,9 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
-    </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A128" s="2"/>
+      <c r="AA127" s="2"/>
+    </row>
+    <row r="128" spans="2:27" ht="15.75" customHeight="1">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -6051,9 +5625,9 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
-    </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A129" s="2"/>
+      <c r="AA128" s="2"/>
+    </row>
+    <row r="129" spans="2:27" ht="15.75" customHeight="1">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -6079,9 +5653,9 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
-    </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A130" s="2"/>
+      <c r="AA129" s="2"/>
+    </row>
+    <row r="130" spans="2:27" ht="15.75" customHeight="1">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -6107,9 +5681,9 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
-    </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A131" s="2"/>
+      <c r="AA130" s="2"/>
+    </row>
+    <row r="131" spans="2:27" ht="15.75" customHeight="1">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -6135,9 +5709,9 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
-    </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A132" s="2"/>
+      <c r="AA131" s="2"/>
+    </row>
+    <row r="132" spans="2:27" ht="15.75" customHeight="1">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -6163,9 +5737,9 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
-    </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A133" s="2"/>
+      <c r="AA132" s="2"/>
+    </row>
+    <row r="133" spans="2:27" ht="15.75" customHeight="1">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -6191,9 +5765,9 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
-    </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A134" s="2"/>
+      <c r="AA133" s="2"/>
+    </row>
+    <row r="134" spans="2:27" ht="15.75" customHeight="1">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -6219,9 +5793,9 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
-    </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A135" s="2"/>
+      <c r="AA134" s="2"/>
+    </row>
+    <row r="135" spans="2:27" ht="15.75" customHeight="1">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -6247,9 +5821,9 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
-    </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A136" s="2"/>
+      <c r="AA135" s="2"/>
+    </row>
+    <row r="136" spans="2:27" ht="15.75" customHeight="1">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -6275,9 +5849,9 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
-    </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A137" s="2"/>
+      <c r="AA136" s="2"/>
+    </row>
+    <row r="137" spans="2:27" ht="15.75" customHeight="1">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -6303,9 +5877,9 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
-    </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A138" s="2"/>
+      <c r="AA137" s="2"/>
+    </row>
+    <row r="138" spans="2:27" ht="15.75" customHeight="1">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -6331,9 +5905,9 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
-    </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A139" s="2"/>
+      <c r="AA138" s="2"/>
+    </row>
+    <row r="139" spans="2:27" ht="15.75" customHeight="1">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -6359,9 +5933,9 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
-    </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A140" s="2"/>
+      <c r="AA139" s="2"/>
+    </row>
+    <row r="140" spans="2:27" ht="15.75" customHeight="1">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -6387,9 +5961,9 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
-    </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A141" s="2"/>
+      <c r="AA140" s="2"/>
+    </row>
+    <row r="141" spans="2:27" ht="15.75" customHeight="1">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -6415,9 +5989,9 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
-    </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A142" s="2"/>
+      <c r="AA141" s="2"/>
+    </row>
+    <row r="142" spans="2:27" ht="15.75" customHeight="1">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -6443,9 +6017,9 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
-    </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A143" s="2"/>
+      <c r="AA142" s="2"/>
+    </row>
+    <row r="143" spans="2:27" ht="15.75" customHeight="1">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -6471,9 +6045,9 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
-    </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A144" s="2"/>
+      <c r="AA143" s="2"/>
+    </row>
+    <row r="144" spans="2:27" ht="15.75" customHeight="1">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -6499,9 +6073,9 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
-    </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A145" s="2"/>
+      <c r="AA144" s="2"/>
+    </row>
+    <row r="145" spans="2:27" ht="15.75" customHeight="1">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -6527,9 +6101,9 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
-    </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A146" s="2"/>
+      <c r="AA145" s="2"/>
+    </row>
+    <row r="146" spans="2:27" ht="15.75" customHeight="1">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -6555,9 +6129,9 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
-    </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A147" s="2"/>
+      <c r="AA146" s="2"/>
+    </row>
+    <row r="147" spans="2:27" ht="15.75" customHeight="1">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -6583,9 +6157,9 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
-    </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A148" s="2"/>
+      <c r="AA147" s="2"/>
+    </row>
+    <row r="148" spans="2:27" ht="15.75" customHeight="1">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -6611,9 +6185,9 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A149" s="2"/>
+      <c r="AA148" s="2"/>
+    </row>
+    <row r="149" spans="2:27" ht="15.75" customHeight="1">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -6639,9 +6213,9 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
-    </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A150" s="2"/>
+      <c r="AA149" s="2"/>
+    </row>
+    <row r="150" spans="2:27" ht="15.75" customHeight="1">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -6667,9 +6241,9 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
-    </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A151" s="2"/>
+      <c r="AA150" s="2"/>
+    </row>
+    <row r="151" spans="2:27" ht="15.75" customHeight="1">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -6695,9 +6269,9 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
-    </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A152" s="2"/>
+      <c r="AA151" s="2"/>
+    </row>
+    <row r="152" spans="2:27" ht="15.75" customHeight="1">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -6723,9 +6297,9 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
-    </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A153" s="2"/>
+      <c r="AA152" s="2"/>
+    </row>
+    <row r="153" spans="2:27" ht="15.75" customHeight="1">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -6751,9 +6325,9 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A154" s="2"/>
+      <c r="AA153" s="2"/>
+    </row>
+    <row r="154" spans="2:27" ht="15.75" customHeight="1">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6779,9 +6353,9 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
-    </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A155" s="2"/>
+      <c r="AA154" s="2"/>
+    </row>
+    <row r="155" spans="2:27" ht="15.75" customHeight="1">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6807,9 +6381,9 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
-    </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A156" s="2"/>
+      <c r="AA155" s="2"/>
+    </row>
+    <row r="156" spans="2:27" ht="15.75" customHeight="1">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6835,9 +6409,9 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
-    </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A157" s="2"/>
+      <c r="AA156" s="2"/>
+    </row>
+    <row r="157" spans="2:27" ht="15.75" customHeight="1">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6863,9 +6437,9 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
-    </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A158" s="2"/>
+      <c r="AA157" s="2"/>
+    </row>
+    <row r="158" spans="2:27" ht="15.75" customHeight="1">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6891,9 +6465,9 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
-    </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A159" s="2"/>
+      <c r="AA158" s="2"/>
+    </row>
+    <row r="159" spans="2:27" ht="15.75" customHeight="1">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6919,9 +6493,9 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
-    </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A160" s="2"/>
+      <c r="AA159" s="2"/>
+    </row>
+    <row r="160" spans="2:27" ht="15.75" customHeight="1">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6947,9 +6521,9 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
-    </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A161" s="2"/>
+      <c r="AA160" s="2"/>
+    </row>
+    <row r="161" spans="2:27" ht="15.75" customHeight="1">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6975,9 +6549,9 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
-    </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A162" s="2"/>
+      <c r="AA161" s="2"/>
+    </row>
+    <row r="162" spans="2:27" ht="15.75" customHeight="1">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -7003,9 +6577,9 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
-    </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A163" s="2"/>
+      <c r="AA162" s="2"/>
+    </row>
+    <row r="163" spans="2:27" ht="15.75" customHeight="1">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -7031,9 +6605,9 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
-    </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A164" s="2"/>
+      <c r="AA163" s="2"/>
+    </row>
+    <row r="164" spans="2:27" ht="15.75" customHeight="1">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -7059,9 +6633,9 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
-    </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A165" s="2"/>
+      <c r="AA164" s="2"/>
+    </row>
+    <row r="165" spans="2:27" ht="15.75" customHeight="1">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -7087,9 +6661,9 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
-    </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A166" s="2"/>
+      <c r="AA165" s="2"/>
+    </row>
+    <row r="166" spans="2:27" ht="15.75" customHeight="1">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -7115,9 +6689,9 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
-    </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A167" s="2"/>
+      <c r="AA166" s="2"/>
+    </row>
+    <row r="167" spans="2:27" ht="15.75" customHeight="1">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -7143,9 +6717,9 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
-    </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A168" s="2"/>
+      <c r="AA167" s="2"/>
+    </row>
+    <row r="168" spans="2:27" ht="15.75" customHeight="1">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -7171,9 +6745,9 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
-    </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A169" s="2"/>
+      <c r="AA168" s="2"/>
+    </row>
+    <row r="169" spans="2:27" ht="15.75" customHeight="1">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -7199,9 +6773,9 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
-    </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A170" s="2"/>
+      <c r="AA169" s="2"/>
+    </row>
+    <row r="170" spans="2:27" ht="15.75" customHeight="1">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -7227,9 +6801,9 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
-    </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A171" s="2"/>
+      <c r="AA170" s="2"/>
+    </row>
+    <row r="171" spans="2:27" ht="15.75" customHeight="1">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -7255,9 +6829,9 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
-    </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A172" s="2"/>
+      <c r="AA171" s="2"/>
+    </row>
+    <row r="172" spans="2:27" ht="15.75" customHeight="1">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -7283,9 +6857,9 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
-    </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A173" s="2"/>
+      <c r="AA172" s="2"/>
+    </row>
+    <row r="173" spans="2:27" ht="15.75" customHeight="1">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -7311,9 +6885,9 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
-    </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A174" s="2"/>
+      <c r="AA173" s="2"/>
+    </row>
+    <row r="174" spans="2:27" ht="15.75" customHeight="1">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -7339,9 +6913,9 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
-    </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A175" s="2"/>
+      <c r="AA174" s="2"/>
+    </row>
+    <row r="175" spans="2:27" ht="15.75" customHeight="1">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -7367,9 +6941,9 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
-    </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A176" s="2"/>
+      <c r="AA175" s="2"/>
+    </row>
+    <row r="176" spans="2:27" ht="15.75" customHeight="1">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -7395,9 +6969,9 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
-    </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A177" s="2"/>
+      <c r="AA176" s="2"/>
+    </row>
+    <row r="177" spans="2:27" ht="15.75" customHeight="1">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -7423,9 +6997,9 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
-    </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A178" s="2"/>
+      <c r="AA177" s="2"/>
+    </row>
+    <row r="178" spans="2:27" ht="15.75" customHeight="1">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -7451,9 +7025,9 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
-    </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A179" s="2"/>
+      <c r="AA178" s="2"/>
+    </row>
+    <row r="179" spans="2:27" ht="15.75" customHeight="1">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -7479,9 +7053,9 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
-    </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A180" s="2"/>
+      <c r="AA179" s="2"/>
+    </row>
+    <row r="180" spans="2:27" ht="15.75" customHeight="1">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -7507,9 +7081,9 @@
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
-    </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A181" s="2"/>
+      <c r="AA180" s="2"/>
+    </row>
+    <row r="181" spans="2:27" ht="15.75" customHeight="1">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -7535,9 +7109,9 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
-    </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A182" s="2"/>
+      <c r="AA181" s="2"/>
+    </row>
+    <row r="182" spans="2:27" ht="15.75" customHeight="1">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -7563,9 +7137,9 @@
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
-    </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A183" s="2"/>
+      <c r="AA182" s="2"/>
+    </row>
+    <row r="183" spans="2:27" ht="15.75" customHeight="1">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -7591,9 +7165,9 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
-    </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A184" s="2"/>
+      <c r="AA183" s="2"/>
+    </row>
+    <row r="184" spans="2:27" ht="15.75" customHeight="1">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -7619,9 +7193,9 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
-    </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A185" s="2"/>
+      <c r="AA184" s="2"/>
+    </row>
+    <row r="185" spans="2:27" ht="15.75" customHeight="1">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -7647,9 +7221,9 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
-    </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A186" s="2"/>
+      <c r="AA185" s="2"/>
+    </row>
+    <row r="186" spans="2:27" ht="15.75" customHeight="1">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -7675,9 +7249,9 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
-    </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A187" s="2"/>
+      <c r="AA186" s="2"/>
+    </row>
+    <row r="187" spans="2:27" ht="15.75" customHeight="1">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -7703,9 +7277,9 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
-    </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A188" s="2"/>
+      <c r="AA187" s="2"/>
+    </row>
+    <row r="188" spans="2:27" ht="15.75" customHeight="1">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -7731,9 +7305,9 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
-    </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A189" s="2"/>
+      <c r="AA188" s="2"/>
+    </row>
+    <row r="189" spans="2:27" ht="15.75" customHeight="1">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -7759,9 +7333,9 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
-    </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A190" s="2"/>
+      <c r="AA189" s="2"/>
+    </row>
+    <row r="190" spans="2:27" ht="15.75" customHeight="1">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -7787,9 +7361,9 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
-    </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A191" s="2"/>
+      <c r="AA190" s="2"/>
+    </row>
+    <row r="191" spans="2:27" ht="15.75" customHeight="1">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -7815,9 +7389,9 @@
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
-    </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A192" s="2"/>
+      <c r="AA191" s="2"/>
+    </row>
+    <row r="192" spans="2:27" ht="15.75" customHeight="1">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -7843,9 +7417,9 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
-    </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A193" s="2"/>
+      <c r="AA192" s="2"/>
+    </row>
+    <row r="193" spans="2:27" ht="15.75" customHeight="1">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -7871,9 +7445,9 @@
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
-    </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A194" s="2"/>
+      <c r="AA193" s="2"/>
+    </row>
+    <row r="194" spans="2:27" ht="15.75" customHeight="1">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -7899,9 +7473,9 @@
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
-    </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A195" s="2"/>
+      <c r="AA194" s="2"/>
+    </row>
+    <row r="195" spans="2:27" ht="15.75" customHeight="1">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -7927,9 +7501,9 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
-    </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A196" s="2"/>
+      <c r="AA195" s="2"/>
+    </row>
+    <row r="196" spans="2:27" ht="15.75" customHeight="1">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -7955,9 +7529,9 @@
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
-    </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A197" s="2"/>
+      <c r="AA196" s="2"/>
+    </row>
+    <row r="197" spans="2:27" ht="15.75" customHeight="1">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -7983,9 +7557,9 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
-    </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A198" s="2"/>
+      <c r="AA197" s="2"/>
+    </row>
+    <row r="198" spans="2:27" ht="15.75" customHeight="1">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -8011,9 +7585,9 @@
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
-    </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A199" s="2"/>
+      <c r="AA198" s="2"/>
+    </row>
+    <row r="199" spans="2:27" ht="15.75" customHeight="1">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -8039,9 +7613,9 @@
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
-    </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A200" s="2"/>
+      <c r="AA199" s="2"/>
+    </row>
+    <row r="200" spans="2:27" ht="15.75" customHeight="1">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -8067,9 +7641,9 @@
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
-    </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A201" s="2"/>
+      <c r="AA200" s="2"/>
+    </row>
+    <row r="201" spans="2:27" ht="15.75" customHeight="1">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -8095,9 +7669,9 @@
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
-    </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A202" s="2"/>
+      <c r="AA201" s="2"/>
+    </row>
+    <row r="202" spans="2:27" ht="15.75" customHeight="1">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -8123,9 +7697,9 @@
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
-    </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A203" s="2"/>
+      <c r="AA202" s="2"/>
+    </row>
+    <row r="203" spans="2:27" ht="15.75" customHeight="1">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -8151,9 +7725,9 @@
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
-    </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A204" s="2"/>
+      <c r="AA203" s="2"/>
+    </row>
+    <row r="204" spans="2:27" ht="15.75" customHeight="1">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -8179,9 +7753,9 @@
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
-    </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A205" s="2"/>
+      <c r="AA204" s="2"/>
+    </row>
+    <row r="205" spans="2:27" ht="15.75" customHeight="1">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -8207,9 +7781,9 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
-    </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A206" s="2"/>
+      <c r="AA205" s="2"/>
+    </row>
+    <row r="206" spans="2:27" ht="15.75" customHeight="1">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -8235,9 +7809,9 @@
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
-    </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A207" s="2"/>
+      <c r="AA206" s="2"/>
+    </row>
+    <row r="207" spans="2:27" ht="15.75" customHeight="1">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -8263,9 +7837,9 @@
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
-    </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A208" s="2"/>
+      <c r="AA207" s="2"/>
+    </row>
+    <row r="208" spans="2:27" ht="15.75" customHeight="1">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -8291,9 +7865,9 @@
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
-    </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A209" s="2"/>
+      <c r="AA208" s="2"/>
+    </row>
+    <row r="209" spans="2:27" ht="15.75" customHeight="1">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -8319,9 +7893,9 @@
       <c r="X209" s="2"/>
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
-    </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A210" s="2"/>
+      <c r="AA209" s="2"/>
+    </row>
+    <row r="210" spans="2:27" ht="15.75" customHeight="1">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -8347,9 +7921,9 @@
       <c r="X210" s="2"/>
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
-    </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A211" s="2"/>
+      <c r="AA210" s="2"/>
+    </row>
+    <row r="211" spans="2:27" ht="15.75" customHeight="1">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -8375,9 +7949,9 @@
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
-    </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A212" s="2"/>
+      <c r="AA211" s="2"/>
+    </row>
+    <row r="212" spans="2:27" ht="15.75" customHeight="1">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -8403,9 +7977,9 @@
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
-    </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A213" s="2"/>
+      <c r="AA212" s="2"/>
+    </row>
+    <row r="213" spans="2:27" ht="15.75" customHeight="1">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -8431,9 +8005,9 @@
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
-    </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A214" s="2"/>
+      <c r="AA213" s="2"/>
+    </row>
+    <row r="214" spans="2:27" ht="15.75" customHeight="1">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -8459,9 +8033,9 @@
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
-    </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A215" s="2"/>
+      <c r="AA214" s="2"/>
+    </row>
+    <row r="215" spans="2:27" ht="15.75" customHeight="1">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -8487,9 +8061,9 @@
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
-    </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A216" s="2"/>
+      <c r="AA215" s="2"/>
+    </row>
+    <row r="216" spans="2:27" ht="15.75" customHeight="1">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -8515,9 +8089,9 @@
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
-    </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A217" s="2"/>
+      <c r="AA216" s="2"/>
+    </row>
+    <row r="217" spans="2:27" ht="15.75" customHeight="1">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -8543,9 +8117,9 @@
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
-    </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A218" s="2"/>
+      <c r="AA217" s="2"/>
+    </row>
+    <row r="218" spans="2:27" ht="15.75" customHeight="1">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -8571,9 +8145,9 @@
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
-    </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A219" s="2"/>
+      <c r="AA218" s="2"/>
+    </row>
+    <row r="219" spans="2:27" ht="15.75" customHeight="1">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -8599,9 +8173,9 @@
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
-    </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A220" s="2"/>
+      <c r="AA219" s="2"/>
+    </row>
+    <row r="220" spans="2:27" ht="15.75" customHeight="1">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -8627,9 +8201,9 @@
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
-    </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A221" s="2"/>
+      <c r="AA220" s="2"/>
+    </row>
+    <row r="221" spans="2:27" ht="15.75" customHeight="1">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -8655,9 +8229,9 @@
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
-    </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A222" s="2"/>
+      <c r="AA221" s="2"/>
+    </row>
+    <row r="222" spans="2:27" ht="15.75" customHeight="1">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -8683,9 +8257,9 @@
       <c r="X222" s="2"/>
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
-    </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A223" s="2"/>
+      <c r="AA222" s="2"/>
+    </row>
+    <row r="223" spans="2:27" ht="15.75" customHeight="1">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -8711,9 +8285,9 @@
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
-    </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A224" s="2"/>
+      <c r="AA223" s="2"/>
+    </row>
+    <row r="224" spans="2:27" ht="15.75" customHeight="1">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -8739,9 +8313,9 @@
       <c r="X224" s="2"/>
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
-    </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A225" s="2"/>
+      <c r="AA224" s="2"/>
+    </row>
+    <row r="225" spans="2:27" ht="15.75" customHeight="1">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -8767,9 +8341,9 @@
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
-    </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A226" s="2"/>
+      <c r="AA225" s="2"/>
+    </row>
+    <row r="226" spans="2:27" ht="15.75" customHeight="1">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -8795,9 +8369,9 @@
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
-    </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A227" s="2"/>
+      <c r="AA226" s="2"/>
+    </row>
+    <row r="227" spans="2:27" ht="15.75" customHeight="1">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -8823,9 +8397,9 @@
       <c r="X227" s="2"/>
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
-    </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A228" s="2"/>
+      <c r="AA227" s="2"/>
+    </row>
+    <row r="228" spans="2:27" ht="15.75" customHeight="1">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -8851,9 +8425,9 @@
       <c r="X228" s="2"/>
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
-    </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A229" s="2"/>
+      <c r="AA228" s="2"/>
+    </row>
+    <row r="229" spans="2:27" ht="15.75" customHeight="1">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -8879,9 +8453,9 @@
       <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
-    </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A230" s="2"/>
+      <c r="AA229" s="2"/>
+    </row>
+    <row r="230" spans="2:27" ht="15.75" customHeight="1">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -8907,9 +8481,9 @@
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
-    </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A231" s="2"/>
+      <c r="AA230" s="2"/>
+    </row>
+    <row r="231" spans="2:27" ht="15.75" customHeight="1">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -8935,518 +8509,33 @@
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
-    </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
-      <c r="N232" s="2"/>
-      <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
-      <c r="Q232" s="2"/>
-      <c r="R232" s="2"/>
-      <c r="S232" s="2"/>
-      <c r="T232" s="2"/>
-      <c r="U232" s="2"/>
-      <c r="V232" s="2"/>
-      <c r="W232" s="2"/>
-      <c r="X232" s="2"/>
-      <c r="Y232" s="2"/>
-      <c r="Z232" s="2"/>
-    </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="M233" s="2"/>
-      <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
-      <c r="Q233" s="2"/>
-      <c r="R233" s="2"/>
-      <c r="S233" s="2"/>
-      <c r="T233" s="2"/>
-      <c r="U233" s="2"/>
-      <c r="V233" s="2"/>
-      <c r="W233" s="2"/>
-      <c r="X233" s="2"/>
-      <c r="Y233" s="2"/>
-      <c r="Z233" s="2"/>
-    </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
-      <c r="O234" s="2"/>
-      <c r="P234" s="2"/>
-      <c r="Q234" s="2"/>
-      <c r="R234" s="2"/>
-      <c r="S234" s="2"/>
-      <c r="T234" s="2"/>
-      <c r="U234" s="2"/>
-      <c r="V234" s="2"/>
-      <c r="W234" s="2"/>
-      <c r="X234" s="2"/>
-      <c r="Y234" s="2"/>
-      <c r="Z234" s="2"/>
-    </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="M235" s="2"/>
-      <c r="N235" s="2"/>
-      <c r="O235" s="2"/>
-      <c r="P235" s="2"/>
-      <c r="Q235" s="2"/>
-      <c r="R235" s="2"/>
-      <c r="S235" s="2"/>
-      <c r="T235" s="2"/>
-      <c r="U235" s="2"/>
-      <c r="V235" s="2"/>
-      <c r="W235" s="2"/>
-      <c r="X235" s="2"/>
-      <c r="Y235" s="2"/>
-      <c r="Z235" s="2"/>
-    </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
-      <c r="J236" s="2"/>
-      <c r="K236" s="2"/>
-      <c r="L236" s="2"/>
-      <c r="M236" s="2"/>
-      <c r="N236" s="2"/>
-      <c r="O236" s="2"/>
-      <c r="P236" s="2"/>
-      <c r="Q236" s="2"/>
-      <c r="R236" s="2"/>
-      <c r="S236" s="2"/>
-      <c r="T236" s="2"/>
-      <c r="U236" s="2"/>
-      <c r="V236" s="2"/>
-      <c r="W236" s="2"/>
-      <c r="X236" s="2"/>
-      <c r="Y236" s="2"/>
-      <c r="Z236" s="2"/>
-    </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2"/>
-      <c r="K237" s="2"/>
-      <c r="L237" s="2"/>
-      <c r="M237" s="2"/>
-      <c r="N237" s="2"/>
-      <c r="O237" s="2"/>
-      <c r="P237" s="2"/>
-      <c r="Q237" s="2"/>
-      <c r="R237" s="2"/>
-      <c r="S237" s="2"/>
-      <c r="T237" s="2"/>
-      <c r="U237" s="2"/>
-      <c r="V237" s="2"/>
-      <c r="W237" s="2"/>
-      <c r="X237" s="2"/>
-      <c r="Y237" s="2"/>
-      <c r="Z237" s="2"/>
-    </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2"/>
-      <c r="K238" s="2"/>
-      <c r="L238" s="2"/>
-      <c r="M238" s="2"/>
-      <c r="N238" s="2"/>
-      <c r="O238" s="2"/>
-      <c r="P238" s="2"/>
-      <c r="Q238" s="2"/>
-      <c r="R238" s="2"/>
-      <c r="S238" s="2"/>
-      <c r="T238" s="2"/>
-      <c r="U238" s="2"/>
-      <c r="V238" s="2"/>
-      <c r="W238" s="2"/>
-      <c r="X238" s="2"/>
-      <c r="Y238" s="2"/>
-      <c r="Z238" s="2"/>
-    </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="2"/>
-      <c r="N239" s="2"/>
-      <c r="O239" s="2"/>
-      <c r="P239" s="2"/>
-      <c r="Q239" s="2"/>
-      <c r="R239" s="2"/>
-      <c r="S239" s="2"/>
-      <c r="T239" s="2"/>
-      <c r="U239" s="2"/>
-      <c r="V239" s="2"/>
-      <c r="W239" s="2"/>
-      <c r="X239" s="2"/>
-      <c r="Y239" s="2"/>
-      <c r="Z239" s="2"/>
-    </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2"/>
-      <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
-      <c r="M240" s="2"/>
-      <c r="N240" s="2"/>
-      <c r="O240" s="2"/>
-      <c r="P240" s="2"/>
-      <c r="Q240" s="2"/>
-      <c r="R240" s="2"/>
-      <c r="S240" s="2"/>
-      <c r="T240" s="2"/>
-      <c r="U240" s="2"/>
-      <c r="V240" s="2"/>
-      <c r="W240" s="2"/>
-      <c r="X240" s="2"/>
-      <c r="Y240" s="2"/>
-      <c r="Z240" s="2"/>
-    </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2"/>
-      <c r="K241" s="2"/>
-      <c r="L241" s="2"/>
-      <c r="M241" s="2"/>
-      <c r="N241" s="2"/>
-      <c r="O241" s="2"/>
-      <c r="P241" s="2"/>
-      <c r="Q241" s="2"/>
-      <c r="R241" s="2"/>
-      <c r="S241" s="2"/>
-      <c r="T241" s="2"/>
-      <c r="U241" s="2"/>
-      <c r="V241" s="2"/>
-      <c r="W241" s="2"/>
-      <c r="X241" s="2"/>
-      <c r="Y241" s="2"/>
-      <c r="Z241" s="2"/>
-    </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="2"/>
-      <c r="K242" s="2"/>
-      <c r="L242" s="2"/>
-      <c r="M242" s="2"/>
-      <c r="N242" s="2"/>
-      <c r="O242" s="2"/>
-      <c r="P242" s="2"/>
-      <c r="Q242" s="2"/>
-      <c r="R242" s="2"/>
-      <c r="S242" s="2"/>
-      <c r="T242" s="2"/>
-      <c r="U242" s="2"/>
-      <c r="V242" s="2"/>
-      <c r="W242" s="2"/>
-      <c r="X242" s="2"/>
-      <c r="Y242" s="2"/>
-      <c r="Z242" s="2"/>
-    </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="2"/>
-      <c r="K243" s="2"/>
-      <c r="L243" s="2"/>
-      <c r="M243" s="2"/>
-      <c r="N243" s="2"/>
-      <c r="O243" s="2"/>
-      <c r="P243" s="2"/>
-      <c r="Q243" s="2"/>
-      <c r="R243" s="2"/>
-      <c r="S243" s="2"/>
-      <c r="T243" s="2"/>
-      <c r="U243" s="2"/>
-      <c r="V243" s="2"/>
-      <c r="W243" s="2"/>
-      <c r="X243" s="2"/>
-      <c r="Y243" s="2"/>
-      <c r="Z243" s="2"/>
-    </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="2"/>
-      <c r="J244" s="2"/>
-      <c r="K244" s="2"/>
-      <c r="L244" s="2"/>
-      <c r="M244" s="2"/>
-      <c r="N244" s="2"/>
-      <c r="O244" s="2"/>
-      <c r="P244" s="2"/>
-      <c r="Q244" s="2"/>
-      <c r="R244" s="2"/>
-      <c r="S244" s="2"/>
-      <c r="T244" s="2"/>
-      <c r="U244" s="2"/>
-      <c r="V244" s="2"/>
-      <c r="W244" s="2"/>
-      <c r="X244" s="2"/>
-      <c r="Y244" s="2"/>
-      <c r="Z244" s="2"/>
-    </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2"/>
-      <c r="K245" s="2"/>
-      <c r="L245" s="2"/>
-      <c r="M245" s="2"/>
-      <c r="N245" s="2"/>
-      <c r="O245" s="2"/>
-      <c r="P245" s="2"/>
-      <c r="Q245" s="2"/>
-      <c r="R245" s="2"/>
-      <c r="S245" s="2"/>
-      <c r="T245" s="2"/>
-      <c r="U245" s="2"/>
-      <c r="V245" s="2"/>
-      <c r="W245" s="2"/>
-      <c r="X245" s="2"/>
-      <c r="Y245" s="2"/>
-      <c r="Z245" s="2"/>
-    </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2"/>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
-      <c r="O246" s="2"/>
-      <c r="P246" s="2"/>
-      <c r="Q246" s="2"/>
-      <c r="R246" s="2"/>
-      <c r="S246" s="2"/>
-      <c r="T246" s="2"/>
-      <c r="U246" s="2"/>
-      <c r="V246" s="2"/>
-      <c r="W246" s="2"/>
-      <c r="X246" s="2"/>
-      <c r="Y246" s="2"/>
-      <c r="Z246" s="2"/>
-    </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="2"/>
-      <c r="J247" s="2"/>
-      <c r="K247" s="2"/>
-      <c r="L247" s="2"/>
-      <c r="M247" s="2"/>
-      <c r="N247" s="2"/>
-      <c r="O247" s="2"/>
-      <c r="P247" s="2"/>
-      <c r="Q247" s="2"/>
-      <c r="R247" s="2"/>
-      <c r="S247" s="2"/>
-      <c r="T247" s="2"/>
-      <c r="U247" s="2"/>
-      <c r="V247" s="2"/>
-      <c r="W247" s="2"/>
-      <c r="X247" s="2"/>
-      <c r="Y247" s="2"/>
-      <c r="Z247" s="2"/>
-    </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2"/>
-      <c r="I248" s="2"/>
-      <c r="J248" s="2"/>
-      <c r="K248" s="2"/>
-      <c r="L248" s="2"/>
-      <c r="M248" s="2"/>
-      <c r="N248" s="2"/>
-      <c r="O248" s="2"/>
-      <c r="P248" s="2"/>
-      <c r="Q248" s="2"/>
-      <c r="R248" s="2"/>
-      <c r="S248" s="2"/>
-      <c r="T248" s="2"/>
-      <c r="U248" s="2"/>
-      <c r="V248" s="2"/>
-      <c r="W248" s="2"/>
-      <c r="X248" s="2"/>
-      <c r="Y248" s="2"/>
-      <c r="Z248" s="2"/>
-    </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="2"/>
-      <c r="J249" s="2"/>
-      <c r="K249" s="2"/>
-      <c r="L249" s="2"/>
-      <c r="M249" s="2"/>
-      <c r="N249" s="2"/>
-      <c r="O249" s="2"/>
-      <c r="P249" s="2"/>
-      <c r="Q249" s="2"/>
-      <c r="R249" s="2"/>
-      <c r="S249" s="2"/>
-      <c r="T249" s="2"/>
-      <c r="U249" s="2"/>
-      <c r="V249" s="2"/>
-      <c r="W249" s="2"/>
-      <c r="X249" s="2"/>
-      <c r="Y249" s="2"/>
-      <c r="Z249" s="2"/>
-    </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1"/>
+      <c r="AA231" s="2"/>
+    </row>
+    <row r="232" spans="2:27" ht="15.75" customHeight="1"/>
+    <row r="233" spans="2:27" ht="15.75" customHeight="1"/>
+    <row r="234" spans="2:27" ht="15.75" customHeight="1"/>
+    <row r="235" spans="2:27" ht="15.75" customHeight="1"/>
+    <row r="236" spans="2:27" ht="15.75" customHeight="1"/>
+    <row r="237" spans="2:27" ht="15.75" customHeight="1"/>
+    <row r="238" spans="2:27" ht="15.75" customHeight="1"/>
+    <row r="239" spans="2:27" ht="15.75" customHeight="1"/>
+    <row r="240" spans="2:27" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -10202,95 +9291,93 @@
     <row r="1009" ht="15.75" customHeight="1"/>
     <row r="1010" ht="15.75" customHeight="1"/>
     <row r="1011" ht="15.75" customHeight="1"/>
-    <row r="1012" ht="15.75" customHeight="1"/>
-    <row r="1013" ht="15.75" customHeight="1"/>
-    <row r="1014" ht="15.75" customHeight="1"/>
-    <row r="1015" ht="15.75" customHeight="1"/>
-    <row r="1016" ht="15.75" customHeight="1"/>
-    <row r="1017" ht="15.75" customHeight="1"/>
-    <row r="1018" ht="15.75" customHeight="1"/>
-    <row r="1019" ht="15.75" customHeight="1"/>
-    <row r="1020" ht="15.75" customHeight="1"/>
-    <row r="1021" ht="15.75" customHeight="1"/>
-    <row r="1022" ht="15.75" customHeight="1"/>
-    <row r="1023" ht="15.75" customHeight="1"/>
-    <row r="1024" ht="15.75" customHeight="1"/>
-    <row r="1025" ht="15.75" customHeight="1"/>
-    <row r="1026" ht="15.75" customHeight="1"/>
-    <row r="1027" ht="15.75" customHeight="1"/>
-    <row r="1028" ht="15.75" customHeight="1"/>
-    <row r="1029" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="F3:F5 F7:F64">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+  <mergeCells count="7">
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A52:A53"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G6:G8 G58:H60 G49:G56 G10:G45">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F5 F7:F64">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+  <conditionalFormatting sqref="G6:G8 G58:H60 G49:G56 G10:G45">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F5 F7:F64">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+  <conditionalFormatting sqref="G6:G8 G58:H60 G49:G56 G10:G45">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L5 L7:L75">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+  <conditionalFormatting sqref="M6:M8 M49:M60 M10:M45">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L5 L7:L75">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+  <conditionalFormatting sqref="M6:M8 M49:M60 M10:M45">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L5 L7:L75">
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+  <conditionalFormatting sqref="M6:M8 M49:M60 M10:M45">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:G75">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+  <conditionalFormatting sqref="G3:G5">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66:F75">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
-      <formula>"Alacsony"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66:F75">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+  <conditionalFormatting sqref="G3:G5">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66:F75">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+  <conditionalFormatting sqref="G3:G5">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:G75">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
-      <formula>"Normál"</formula>
+  <conditionalFormatting sqref="M3:M5">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:G75">
+  <conditionalFormatting sqref="M3:M5">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"Nem futtatható"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M5">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
-      <formula>"Magas"</formula>
+      <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="L3:L5 L7:L75" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="M3:M8 M49:M60 M10:M45" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Siker,Nem futtatható,Hiba"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F3:F5 F66:G75 F7:F64" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G3:G8 G58:H60 G49:G56 G10:G45" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Magas,Normál,Alacsony"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" display="https://lennertamas.github.io/portio/" xr:uid="{46623CFE-7227-403A-85AE-432EFE56097D}"/>
+    <hyperlink ref="J4" r:id="rId2" display="https://lennertamas.github.io/portio/" xr:uid="{7C729CB5-3417-4AA5-919D-1CC54037F6E7}"/>
+    <hyperlink ref="J6" r:id="rId3" display="https://lennertamas.github.io/portio/" xr:uid="{09131808-2F2E-4FA0-8472-A5A6B406E0F9}"/>
+    <hyperlink ref="D4" r:id="rId4" display="https://lennertamas.github.io/portio/" xr:uid="{472F43C2-BAB8-444F-8287-3B2876DBC7C5}"/>
+    <hyperlink ref="D3" r:id="rId5" display="https://lennertamas.github.io/portio/" xr:uid="{D7BBECD2-AEA0-4A4D-8F26-9BD0F6E609AC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/test_case_template.xlsx
+++ b/test_case_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyömbér Judit\IdeaProjects\TestingPortioWebpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A988BD5-210D-4025-9FD8-C3078B28CA27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8FE160-DCF2-4A38-A4F2-4C9FDFAF53B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="hibák (bug)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$G$50:$G$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$F$16:$F$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="230">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Siker</t>
   </si>
   <si>
-    <t>Assumption</t>
-  </si>
-  <si>
     <t>TC10</t>
   </si>
   <si>
@@ -174,24 +171,6 @@
     <t>TC26</t>
   </si>
   <si>
-    <t>TC27</t>
-  </si>
-  <si>
-    <t>TC28</t>
-  </si>
-  <si>
-    <t>TC29</t>
-  </si>
-  <si>
-    <t>TC30</t>
-  </si>
-  <si>
-    <t>GyJ</t>
-  </si>
-  <si>
-    <t>Sikeres regisztráció</t>
-  </si>
-  <si>
     <t>Sikertelen regisztráció</t>
   </si>
   <si>
@@ -201,103 +180,34 @@
     <t>Regisztráció</t>
   </si>
   <si>
-    <t>Sikeres bejelentkezés</t>
-  </si>
-  <si>
     <t>Bejelentkezés hiányos adatokkal</t>
-  </si>
-  <si>
-    <t>Sikertelen bejelentkezés</t>
   </si>
   <si>
     <t>Warning message: Username or Password
 is not correct!</t>
   </si>
   <si>
-    <t>Bejelentkezés enter lenyomásával</t>
-  </si>
-  <si>
     <t>No warning message</t>
   </si>
   <si>
     <t>Kijelentkezés</t>
   </si>
   <si>
-    <t>Sikeres kijelentkezés</t>
-  </si>
-  <si>
-    <t>Név: Teszt Eszter
-Nem: nő
-Phone Number
-+36205556677</t>
-  </si>
-  <si>
-    <t>Üzenet:
-Oops! There was a problem.</t>
-  </si>
-  <si>
     <t>Contact Form üzenet küldése</t>
   </si>
   <si>
-    <t>Név: Teszt Eszter
-Email: teszteszter5@gmail.com
-Üzenet: Let's start a project together</t>
-  </si>
-  <si>
-    <t>Sikeres üzenetküldés</t>
-  </si>
-  <si>
-    <t>Sikertelen üzenetküldés</t>
-  </si>
-  <si>
     <t>Regisztráció hiányos adatokkal</t>
   </si>
   <si>
-    <t>hiányzó jelszó</t>
-  </si>
-  <si>
-    <t>hiányzó felhasználónév</t>
-  </si>
-  <si>
-    <t>hibás email cím</t>
-  </si>
-  <si>
     <t>Regisztráció helytelen adatokkal</t>
   </si>
   <si>
     <t>Bejelentkezés helytelen adatokkal</t>
   </si>
   <si>
-    <t>hibás jelszó</t>
-  </si>
-  <si>
-    <t>helyes adatok</t>
-  </si>
-  <si>
     <t>Bejelentkezés</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Register gombra kattintás
-4. Felhasználónév megadása
-5. Jelszó megadása
-6. Email megadása
-7. Register gombra kattintás
-</t>
-  </si>
-  <si>
-    <t>Felhasználónév: teszteszter
-Jelszó: ""
-Email: teszteszter5@gmail.com</t>
-  </si>
-  <si>
-    <t>Felhasználónév: teszteszter
-Jelszó: teszt
-Email: tesztesztergmail</t>
-  </si>
-  <si>
     <t>Magas</t>
   </si>
   <si>
@@ -307,90 +217,7 @@
     <t>Normál</t>
   </si>
   <si>
-    <t xml:space="preserve">Felhasználónév: lovasia
-Jelszó: kispal123
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Üres felhasználónév: ""
-Jelszó: kispal123
-</t>
-  </si>
-  <si>
-    <t>Felhasználónév: lovasia
-Jelszó: kispal</t>
-  </si>
-  <si>
-    <t>Felhasználónév: lovasia
-Jelszó: kispal123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Enter lenyomása
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sikeres mentés
-</t>
-  </si>
-  <si>
     <t>Felhasználói fiók törlése</t>
-  </si>
-  <si>
-    <t>Warning message: I am sure! Delete my account
-Message: Username or Password is not correct</t>
-  </si>
-  <si>
-    <t>Sikeres törlés</t>
-  </si>
-  <si>
-    <t>Felhasználónév: teszteszter
-Jelszó: teszt</t>
-  </si>
-  <si>
-    <t>Bejelentkezés regisztráció nélkül</t>
-  </si>
-  <si>
-    <t>Felhasználónév: tesztelek
-Jelszó: teszt</t>
-  </si>
-  <si>
-    <t>Message: Username or Password
-is not correct!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4.Logout gombra kattintás
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Regisztráció
-4. Bejelentkezés
-5. Profil gombra kattintás
-6. Név megadása
-7. Nem megadása
-8. Telefonszám megadása
-9. Save Profile gombra kettintás
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -407,129 +234,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Hire Me Now gombra kattintás
-5. Contact Form megkeresése
-6. Név megadása
-7. Email megadása
-8. Üzenet írása
-9. Adatnyilatkozat elfogadása
-10. Send Message gombra kattintás</t>
-  </si>
-  <si>
     <t>Profil beállítás láthatósága</t>
   </si>
   <si>
-    <t>Felhasználónév megjelenése a profilon</t>
-  </si>
-  <si>
-    <t>Nem jelenik meg a felhasználónév a profilon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Profil gombra kattintás
-5. Név megadása
-6. Nem megadása
-7. Telefonszám megadása
-8. Save Profile gombra kettintás
-9. HomePage-re navigálás
-10. Felhasználónév megtekintése
-</t>
-  </si>
-  <si>
-    <t>!!!!!!!! Automata tesztnél sikeres</t>
-  </si>
-  <si>
     <t>Alacsony</t>
   </si>
   <si>
-    <t>méret lekérdezésével</t>
-  </si>
-  <si>
     <t>A cégek, ahol tapasztalatszerzés történt</t>
   </si>
   <si>
     <t>Tapasztalatok mennyisége</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Resume linkre kattintás
-5. Experiences gombra kattintás
-6. Experiences méretének lekérdezése
-</t>
-  </si>
-  <si>
-    <t>4 db tapasztalat van a felsorolásban</t>
-  </si>
-  <si>
-    <t>Az időtartamok helyes felsorolása: 2016-Present, 2010-2016, 2005-2010, 2001-2005.</t>
-  </si>
-  <si>
-    <t>A cégek helyes felsorolása: Umbrella co., Aperture Science, ACME Inc., LexCorp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Resume linkre kattintás
-5. Experiences gombra kattintás
-6. Experiences éveinek lekérdezése
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Bejelentkezés
-4. Resume linkre kattintás
-5. Experiences gombra kattintás
-6. Experiences helyszíneinek lekérdezése
-</t>
-  </si>
-  <si>
-    <t>RegisterPageTest</t>
-  </si>
-  <si>
-    <t>LoginPageTest</t>
-  </si>
-  <si>
-    <t>ProfilePageTest</t>
-  </si>
-  <si>
-    <t>Message: Profile edited!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profil beállítás mentése </t>
-  </si>
-  <si>
-    <t>Contact Form üzenet küldése a checkbox bepipálása nélkül</t>
-  </si>
-  <si>
-    <t>ContactPageTest</t>
-  </si>
-  <si>
-    <t>AboutPageTest</t>
-  </si>
-  <si>
-    <t>ResumePageTest</t>
-  </si>
-  <si>
-    <t>SkillsPageTest</t>
-  </si>
-  <si>
-    <t>A szakmai ismeretek és mélységüknek párosítása</t>
-  </si>
-  <si>
     <t>Blogok száma összesen</t>
   </si>
   <si>
@@ -578,18 +294,6 @@
     <t>TC9</t>
   </si>
   <si>
-    <t>Nem futtatható</t>
-  </si>
-  <si>
-    <t>Disabled test case</t>
-  </si>
-  <si>
-    <t>HomePageTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tooltip elérése </t>
-  </si>
-  <si>
     <t>Adatkezelési nyilatkozat elfogadása</t>
   </si>
   <si>
@@ -605,96 +309,7 @@
     <t>Bejelentkezés sorozatos adatbevitellel</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Felhasználónév: teszteszter
-Jelszó: teszt
-Email: teszteszter5@gmail.com</t>
-    </r>
-  </si>
-  <si>
     <t>Gyömbér Judit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A LoginPage sikeres megnyitása  </t>
-  </si>
-  <si>
-    <t>Figyelmeztető üzenet a      nyilatkozat elfogadására
-A Loginage-re navigálás sikertelen</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Az oldalra érkeve felugró ablakban megjelenik az adatkezelési nyilatkozat, melyet a jobb felső sarokban lévő CloseIcon-ra kattintva elutasít a felhasználó
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -733,21 +348,9 @@
     <t>Adatok listázása</t>
   </si>
   <si>
-    <t>A tapasztalatszerzés évei</t>
-  </si>
-  <si>
-    <t>Fájl kezelés</t>
-  </si>
-  <si>
-    <t>BlogPageTest</t>
-  </si>
-  <si>
     <t>Több oldalas lista bejárása</t>
   </si>
   <si>
-    <t>BlogImageSaveTest</t>
-  </si>
-  <si>
     <t>NavigationTest</t>
   </si>
   <si>
@@ -757,42 +360,2232 @@
     <t>Adatok lementése felületről</t>
   </si>
   <si>
-    <t>Ablakok kezelése</t>
-  </si>
-  <si>
     <t>Navigáció</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>TermsAndConditionsTest</t>
+  </si>
+  <si>
+    <t>RegistrationTest</t>
+  </si>
+  <si>
+    <t>LoginTest</t>
+  </si>
+  <si>
+    <t>DataListingTest</t>
+  </si>
+  <si>
+    <t>ListTraversalTest</t>
+  </si>
+  <si>
+    <t>DataInputTest</t>
+  </si>
+  <si>
+    <t>SequentialDataInputTest</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>LogoutTest</t>
+  </si>
+  <si>
+    <t>A szakmai ismeretek és mélységük</t>
+  </si>
+  <si>
+    <t>DataModificationTest</t>
+  </si>
+  <si>
+    <t>DataDeletionTest</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>DataSavingTest</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve felugró ablakban megjelenik az adatkezelési nyilatkozat, melyet a jobb felső sarokban lévő CloseIcon-ra kattintva elutasít a felhasználó.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Profil beállítás</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az adatkezelési nyilatkozat elfogadása után, a regisztráció oldalra navigálva </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regisztrálás hiányzó jelszóval.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az adatkezelési nyilatkozat elfogadása után, a regisztráció oldalra navigálva </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regisztrálás helytelen email címmel.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az adatkezelési nyilatkozat elfogadása után, a regisztráció oldalra navigálva </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regisztrálás helyes adatokkal.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az adatkezelési nyilatkozat elfogadása után, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bejelentkezés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> már előzetesen regisztrált </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>helyes adatokkal.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Működő internetkapcsolat
+Google Chrome böngésző </t>
+  </si>
+  <si>
+    <t>Message:
+Oops! There was a problem.</t>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezések</t>
+  </si>
+  <si>
+    <t>Sikeres mentés</t>
+  </si>
+  <si>
+    <t>Sikeres letöltés</t>
+  </si>
+  <si>
+    <t>Sikertelen letöltés</t>
+  </si>
+  <si>
+    <t>Sikeres navigáció</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Felhasználónév: teszteszter
+Jelszó: teszt
+Email: teszteszter5@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Felhasználónév: teszteszter
+Jelszó: " "
+Email: teszteszter5@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Felhasználónév: teszteszter
+Jelszó: teszt
+Email: teszteszter5gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Felhasználónév: lovasia
+Jelszó: kispal123
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Felhasználónév: " "
+Jelszó: kispal123
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Felhasználónév: lovasia
+Jelszó: kispal
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Felhasználónév: lovasia
+Jelszó: kispal123
+Fájlnév: firms.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Felhasználónév: lovasia
+Jelszó: kispal123
+Fájlnév: blogTitles.txt</t>
+    </r>
+  </si>
+  <si>
+    <t>A profil szerkesztéséhez saját regisztráció szükséges
+Message: Profile edited!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Felhasználónév: teszteszter
+Jelszó: teszt
+Email: teszteszter5@gmail.com
+Név: Teszt Eszti
+Nem: female
+Phone Number
++36205556677</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Felhasználónév: lovasia
+Jelszó: kispal123</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Név: Kis Pal
+Email: kispal@gmail.com 
+Üzenet: Let's work together</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Felhasználónév: lovasia
+Jelszó: kispal123
+Fájl név: CV.pdf
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Felhasználónév: lovasia
+Jelszó: kispal123
+Fájl név:image.jpg
+Letöltött fájl: download.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>xpath: //*[@class="row"]/div[2]//img
+Url:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://lennertamas.github.io/portio/images/allpost/allPost-2.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Formátum: jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Felhasználónév: lovasia
+Jelszó: kispal123
+Fájl név:image2.jpg
+Letöltött fájl: download2.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>xpath: //*[@class="row"]/div[3]//img
+Url:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://lennertamas.github.io/portio/images/allpost/allPost-7.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Formátum: jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az adatkezelési nyilatkozat elfogadása után, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bejelentkezés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> már előzetesen regisztrált adatokkal, de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiányzó felhasználónévvel.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az adatkezelési nyilatkozat elfogadása után, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bejelentkezé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s már előzetesen regisztrált adatokkal, de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hibás jelszóval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">
 1. Adott oldalra navigálás
-2. A felugró ablak megjelenésének ellenőrzése
-3. Feltételek elfogadása
-4. A LoginPage-re érkezés ellenőrzése
+2. Feltételek elfogadása
+3. Register gombra kattintás
+4. Felhasználónév megadása
+5. Jelszó megadása
+6. Email megadása
+7. Register gombra kattintás
+8. Sikeres regisztráció  
+    ellenőrzése
+9. A várt üzenet ellenőrzése
 </t>
   </si>
   <si>
     <t xml:space="preserve">
 1. Adott oldalra navigálás
-2. A felugró ablak megjelenésének ellenőrzése
+2. A felugró ablak
+    megjelenésének ellenőrzése
 3. Kattintás a Close Icon-ra
-4. Annak ellenőrzése, hogy nem érkeztünk meg a LoginPage-re
+4. Annak ellenőrzése, hogy nem
+    érkeztünk meg a LoginPage-re
 </t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. A felugró ablak
+    megjelenésének ellenőrzése
+3. Feltételek elfogadása
+4. A LoginPage-re érkezés
+    ellenőrzése
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Felhasználónév: teszteszter
+Jelszó: teszt
+Email: teszteszter5@gmail.com
+Várt üzenet: User registered!</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Register gombra kattintás
+4. Felhasználónév megadása
+5. Jelszó megadása
+6. Email megadása
+7. Register2 gombra kattintás
+8. Feltételezzük, hogy sikertelen 
+    a regisztráció
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Az elvárt URL-t összehasonlítjuk
+    az aktuális URL-lel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy még mindig
+    az adott URL érvényes
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Experiences gombhoz görgetés
+8. Experiences gombra kattintás
+9. Experiences mennyiségének 
+    ellenőrzése 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a munkatapasztalatok </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mennyiségének</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ellenőrzése.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a munkatapasztalatok </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>helyszínének</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ellenőrzése.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Felhasználónév: lovasia
+Jelszó: kispal123
+Fájlnév: contactInfo.json
+Keys: title
+Values: data </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Skills linkre kattintás
+9. Az adott HashMap adatainak és
+   a weboldalon látható értékeknek
+   az összehasonlítása
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után, a weboldalon látható ismeretek és azok mélységének összehasonlítása az adott HasMap tartalmával 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után, a ContactPage-re navigálva az ott lévő contact infót összehasonlítjuk az adott fájl tartalmával.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Hire Me Now gombra kattintás
+8. Sikeres ContactPage-re  
+     navigálás ellenőrzése
+9. Az ott látható Contact info
+    összehasonlítása a HashMap-be
+    parsolt JSON fájl tartalmával
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Blog linkre kattintás
+8. See All Posts gombra kattintás
+9. BlogPage-re érkezés ellenőrzése
+10. A blogok számának
+      összeszámolása 
+11. A lapozás során a BlogPage2-ra
+      érkezés ellenőrzése
+12. A blogok számának ellenőrzése
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után,  a blogok számának összeszámlálása, lapozva a BlogPage-eken.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után, a blogok címeinek fájlba írása a BlogPage-eken lapzva és a címek összehasonlítása a a honlapon táthatóval.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Blog linkre kattintás
+8. See All Posts gombra kattintás
+9. BlogPage-re érkezés ellenőrzése
+10. A blogok címeinek az adott fájlba
+      írása
+11. A lapozás során a BlogPage2-ra
+      érkezés ellenőrzése
+12. A fájl tartalmának ellenőrzése
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása, regisztráció és bejelentkezés után a ProfilePage-re navigálva a profil adatok megadása és elmentése.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után, a ContactPage-re navigálva üzenet küldése a Contact Form-mal
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Regisztráció gombra kattintás
+4. Felhasználónév megadása
+5. Jelszó megadása
+6. Email cím megadása
+7. Regisztrácó2 gombra kattintás
+8. Sikeres regisztráció ellenőrzése
+9. Login gombra kattintás
+10. Felhasználónév megadása
+11. Jelszó megadása
+12. Login gombra kattintás
+13. Sikeres bejelentkezés
+      ellenőrzése
+14. Profil gombra kattintás
+15. Név megadása
+16. Nem megadása
+17. Telefonszám megadása
+18. Save Profile gombra kettintás
+19. A várt üzenet összehasonlítása
+     az aktuálissal
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikeres regisztráció
+Sikeres belépés
+A profil adatok sikeres mentése
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Contact Me gombra kattintás
+8. Név megadása
+9. Email megadása
+10. Üzenet írása
+11. Checkbox bepipálása
+12. Send Message gombra kattintás
+13. Az üzenet küldés sikerességének
+      ellenőrzése</t>
+  </si>
+  <si>
+    <t>Sikeres belépés
+Sikeres üzenetküldés</t>
+  </si>
+  <si>
+    <t>Sikeres belépés
+Sikertelen üzenetküldés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felugróablak megjelenése
+A LoginPage sikeres megnyitása  </t>
+  </si>
+  <si>
+    <t>Felugróablak megjelenése
+Figyelmeztető üzenet a      nyilatkozat elfogadására
+A Loginage-re navigálás sikertelen</t>
+  </si>
+  <si>
+    <t>Sikeres regisztráció
+Üzenet: User registered!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Felhasználónév: lovasia
+Jelszó: kispal123</t>
+    </r>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés
+4 db tapasztalat van a felsorolásban</t>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés
+A cégek megnevezése: 
+Umbrella co.
+Aperture Science 
+ACME Inc. 
+LexCorp.</t>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés
+A kulcs - érték párok megegyeznek
+HTML - 69 
+CSS - 60
+  Javascript - 85</t>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés
+A kulcs - érték párok megegyeznek
+HTML - 69 
+CSS - 60
+  Javascript - 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikeres bejelentkezés
+A kulcs-érték párok megegyeznek
+Office Address - 23 Khan Niketon, Grand Street, NYK
+Phone &amp; Email - +(448) 833 5272 332
+hello@example.com
+Working Hours - Open from 10am to 6pm (close at 5pm Sundays)
+</t>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés
+Sikeres navigálás a BlogPage-re
+Sikeres navigálás a BlogPage2-re
+9 db blog van</t>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés
+Sikeres navigálás a BlogPage-re
+Sikeres navigálás a BlogPage2-re
+A 9 blog címe:
+Markdown Formatting Demo 
+Designer Conference at Florida 2020
+Benjamin Franklins thoughts about new designers 
+Designers thoughts about mobile UI How to become acreative designer
+  New designers limitations
+  Things you must know as a designer
+World's Most Famous App Developers and Designers
+You must know this before becoming a designer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása után sorozatos, ismételt bejelentkezés JSON fájlban megadott adatokkal.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Fájlnév: users.json
+Felhasználónév 1: lovasia
+Jelszó 1: kispal123
+Felhasználónév 2: kisst
+Jelszó 2: quimby123 
+Felhasználónév 3: beckz
+Jelszó 3: 30y123</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév 1 megadása
+4. Jelszó 1 megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. LoginPage-re navigálás
+8. Felhasználónév 2 megadása
+9. Jelszó 2 megadása
+10. Login gombra kattintás
+11. Feltételezzük, hogy sikeres a
+    bejelentkezés
+12. LoginPage-re navigálás
+13. Felhasználónév 3 megadása
+14. Jelszó 3 megadása
+15. Login gombra kattintás
+16. Feltételezzük, hogy sikeres a
+    bejelentkezés
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Regisztráció gombra kattintás
+4. Felhasználónév megadása
+5. Jelszó megadása
+6. Email cím megadása
+7. Regisztrácó2 gombra kattintás
+8. Sikeres regisztráció ellenőrzése
+9. Login gombra kattintás
+10. Felhasználónév megadása
+11. Jelszó megadása
+12. Login gombra kattintás
+13. Sikeres bejelentkezés
+      ellenőrzése
+14. Profil gombra kattintás
+15. Név megadása
+16. Nem megadása
+17. Telefonszám megadása
+18. Save Profile gombra kettintás
+19. A várt üzenet összehasonlítása
+     az aktuálissal
+20. HomePage-re navigálás
+21. Felhasználónév megtekintése és
+      összehasonlítása a megadott
+      névvel.
+</t>
+  </si>
+  <si>
+    <t>Sikeres regisztráció
+Sikeres belépés
+A profil adatok sikeres mentése
+Felhasználónév megjelenése a profilon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sikeres regisztráció
+Sikeres belépés
+A profil adatok sikeres mentése
+Nem jelenik meg a felhasználónév a profilon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása, regisztráció, bejelentkezés és a profil adatok mentése után a pfrofilnév változásának ellenőrzése.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Sikeres regisztráció
+Sikeres belépés
+Törléskor megerősítés kérése
+Sikeres törlés</t>
+  </si>
+  <si>
+    <t>A fiók törléséhez saját regisztráció szükséges
+Warning message: I am sure! Delete my account
+Message: Username or Password is not correct</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása, regisztráció és bejelentkezés után a ProfilePage-re navigálva a felhasználó fiókjának törlése.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása, bejelentkezés és a blog linkre kattintás után az egyik blog fotójának lementése meglévő fájlba.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása, bejelentkezés és a blog linkre kattintás után az egyik blog fotójának lementése fájlba a fájl egyidejű létrehozásával. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Download CV gombra kattintva a fájl letöltésének ellenőrzése.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Logout gombra kattintás
+8. Sikeres kijelentkezés ellenőrzése
+9. A várt LogoutPage url
+    összehasonlítása az aktuális url-lel
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres kijelentkezés
+Elvárt URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/index.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres kijelentkezés
+Aktuális URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/index.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres bejelentkezés
+a LandingPage-re
+Elvárt URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/landing.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres bejelentkezés
+a LandingPage-re
+Aktuális URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/landing.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikertelen bejelentkezés
+Elvárt URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikertelen bejelentkezés
+Aktuális URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után kijelentkezés az oldalról.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Hire Me gombra kattintással navigálás a ContactPage oldalra.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Privay and Policy linkre kattintással navigálás a dokumentumhoz.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Facebook linkre kattintással navigálás a Facebbok oldalára.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Blog linkre kattintás
+8. A második kép lementése meglévő
+    fájlba
+9. A kép letöltése a netről az
+    összehasonlításhoz
+10. A 2 kép összehasonlítása </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Blog linkre kattintás
+8. A harmadik kép lementése
+    fájl készítésével együtt
+9. A kép letöltése a netről az
+    összehasonlításhoz
+10. A 2 kép összehasonlítása </t>
+  </si>
+  <si>
+    <t>Ismételt teszteset, az első tesztnél elkészíti a fájlt, a másodiknál törli.</t>
+  </si>
+  <si>
+    <t>1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. About linkre kattintás
+8. Vagy legörgetés a Download
+    gombhoz (mikor melyik működik)
+9. Download gomra kattintás
+10. Sikeres letöltés ellenőrzése</t>
+  </si>
+  <si>
+    <t>1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Hire Me Now gombra kattintás
+8. A ContactPage oldalra való sikeres
+    navigálás ellenőrzése</t>
+  </si>
+  <si>
+    <t>1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Legörgetés a footerben lévő Privacy
+    and Policy linkhez
+8. A Privacy and Policy linkre kattintás
+9. Feltételezzük, hogy nem dobott ki
+    az oldal és elérjük a dokumentumot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Legörgetés a footerben lévő
+    Facebbok ikonhoz
+8. A Facebook ikonra kattintás
+9. A Facebook oldalára való sikeres
+    navigálás ellenőrzése
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Experiences gombhoz görgetés
+8. Experiences gombra kattintás
+9. Az adott fájl tartalmának és a
+   weboldalon látható
+   cégneveknek az összehasonlítása
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres navigáció
+Elvárt URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/contact/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres navigáció
+Aktuális URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/contact/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikertelen navigáció
+Az aktuális URL a LoginPage:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres navigáció
+Elvárt URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.facebook.com/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres navigáció
+Aktuális URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.facebook.com/</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +2641,42 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -870,26 +2699,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF8496B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor rgb="FF8496B0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FF8496B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -971,7 +2800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -996,70 +2825,93 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1471,33 +3323,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1011"/>
+  <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A15" sqref="A15:N15"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="6" width="36.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="48.75" thickTop="1" thickBot="1">
+    <row r="1" spans="1:26" ht="48.75" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1512,32 +3362,30 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -1550,27 +3398,26 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A2" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+    </row>
+    <row r="2" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A2" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1583,45 +3430,46 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" ht="136.5" thickTop="1" thickBot="1">
-      <c r="A3" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+    </row>
+    <row r="3" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
+      <c r="A3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="G3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1634,43 +3482,44 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="1:27" ht="151.5" thickTop="1" thickBot="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+    </row>
+    <row r="4" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="G4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="16"/>
+      <c r="I4" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1683,25 +3532,26 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-    </row>
-    <row r="5" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="29"/>
+    </row>
+    <row r="5" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1714,47 +3564,48 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-    </row>
-    <row r="6" spans="1:27" ht="136.5" thickTop="1" thickBot="1">
-      <c r="A6" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>139</v>
+    </row>
+    <row r="6" spans="1:26" ht="145.5" thickTop="1" thickBot="1">
+      <c r="A6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="G6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>156</v>
       </c>
+      <c r="I6" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="K6" s="8" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>84</v>
-      </c>
+      <c r="M6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1767,45 +3618,46 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-    </row>
-    <row r="7" spans="1:27" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="18" t="s">
-        <v>140</v>
+    </row>
+    <row r="7" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="G7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1818,45 +3670,46 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-    </row>
-    <row r="8" spans="1:27" ht="109.5" thickTop="1" thickBot="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="18" t="s">
-        <v>141</v>
+    </row>
+    <row r="8" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="G8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1869,27 +3722,26 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-    </row>
-    <row r="9" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A9" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+    </row>
+    <row r="9" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A9" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1902,45 +3754,46 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-    </row>
-    <row r="10" spans="1:27" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A10" s="22" t="s">
-        <v>79</v>
+    </row>
+    <row r="10" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
+      <c r="A10" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="G10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1953,45 +3806,46 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-    </row>
-    <row r="11" spans="1:27" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A11" s="24"/>
+    </row>
+    <row r="11" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
+      <c r="A11" s="15"/>
       <c r="B11" s="8" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="G11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -2004,45 +3858,46 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-    </row>
-    <row r="12" spans="1:27" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A12" s="24"/>
+    </row>
+    <row r="12" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
+      <c r="A12" s="15"/>
       <c r="B12" s="8" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="G12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="5" t="s">
+      <c r="H12" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="M12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -2055,43 +3910,26 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>108</v>
-      </c>
+    </row>
+    <row r="13" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A13" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -2104,43 +3942,46 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-    </row>
-    <row r="14" spans="1:27" ht="85.5" thickTop="1" thickBot="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+    </row>
+    <row r="14" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
+      <c r="A14" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="G14" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -2153,23 +3994,44 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="10"/>
+    </row>
+    <row r="15" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -2182,43 +4044,44 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" ht="121.5" thickTop="1" thickBot="1">
-      <c r="A16" s="22" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="181.5" thickTop="1" thickBot="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="5"/>
+      <c r="I16" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="K16" s="5" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="M16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -2231,39 +4094,44 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="1:27" ht="121.5" thickTop="1" thickBot="1">
-      <c r="A17" s="24"/>
+    </row>
+    <row r="17" spans="1:26" ht="193.5" thickTop="1" thickBot="1">
+      <c r="A17" s="16"/>
       <c r="B17" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="K17" s="5" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2276,39 +4144,26 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-    </row>
-    <row r="18" spans="1:27" ht="121.5" thickTop="1" thickBot="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="3"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A18" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2321,23 +4176,46 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-    </row>
-    <row r="19" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="3"/>
+    </row>
+    <row r="19" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
+      <c r="A19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2350,23 +4228,44 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-    </row>
-    <row r="20" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="3"/>
+    </row>
+    <row r="20" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2379,23 +4278,26 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-    </row>
-    <row r="21" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="3"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A21" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2408,23 +4310,48 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-    </row>
-    <row r="22" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="3"/>
+    </row>
+    <row r="22" spans="1:26" ht="277.5" thickTop="1" thickBot="1">
+      <c r="A22" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2437,23 +4364,46 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-    </row>
-    <row r="23" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="3"/>
+    </row>
+    <row r="23" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2466,23 +4416,26 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-    </row>
-    <row r="24" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="3"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A24" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2495,23 +4448,46 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-    </row>
-    <row r="25" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="3"/>
+    </row>
+    <row r="25" spans="1:26" ht="253.5" thickTop="1" thickBot="1">
+      <c r="A25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2524,23 +4500,26 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-    </row>
-    <row r="26" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="3"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A26" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2553,23 +4532,48 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-    </row>
-    <row r="27" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="3"/>
+    </row>
+    <row r="27" spans="1:26" ht="325.5" thickTop="1" thickBot="1">
+      <c r="A27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -2582,23 +4586,26 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-    </row>
-    <row r="28" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A28" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -2611,23 +4618,48 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-    </row>
-    <row r="29" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="3"/>
+    </row>
+    <row r="29" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
+      <c r="A29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -2640,23 +4672,26 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-    </row>
-    <row r="30" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="3"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A30" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2669,23 +4704,46 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-    </row>
-    <row r="31" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="3"/>
+    </row>
+    <row r="31" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
+      <c r="A31" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -2698,29 +4756,46 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-    </row>
-    <row r="32" spans="1:27" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A32" s="19" t="s">
-        <v>165</v>
-      </c>
+    </row>
+    <row r="32" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
+      <c r="A32" s="15"/>
       <c r="B32" s="8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -2733,27 +4808,44 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-    </row>
-    <row r="33" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+    </row>
+    <row r="33" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="14">
-        <v>3</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
+      <c r="B33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -2766,41 +4858,26 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-    </row>
-    <row r="34" spans="1:27" ht="73.5" thickTop="1" thickBot="1">
-      <c r="A34" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" s="3"/>
+    </row>
+    <row r="34" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A34" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -2813,27 +4890,46 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-    </row>
-    <row r="35" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="15">
-        <v>4</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="10"/>
+    </row>
+    <row r="35" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
+      <c r="A35" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -2846,45 +4942,44 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-    </row>
-    <row r="36" spans="1:27" ht="133.5" thickTop="1" thickBot="1">
-      <c r="A36" s="18" t="s">
-        <v>162</v>
-      </c>
+    </row>
+    <row r="36" spans="1:26" ht="181.5" thickTop="1" thickBot="1">
+      <c r="A36" s="15"/>
       <c r="B36" s="8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="G36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>143</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>92</v>
+        <v>138</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -2897,43 +4992,44 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-    </row>
-    <row r="37" spans="1:27" ht="157.5" thickTop="1" thickBot="1">
-      <c r="A37" s="18" t="s">
-        <v>163</v>
-      </c>
+    </row>
+    <row r="37" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
+      <c r="A37" s="16"/>
       <c r="B37" s="8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="G37" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>105</v>
+        <v>89</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I37" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N37" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -2946,45 +5042,26 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-    </row>
-    <row r="38" spans="1:27" ht="169.5" thickTop="1" thickBot="1">
-      <c r="A38" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>94</v>
-      </c>
+    </row>
+    <row r="38" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A38" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -2997,27 +5074,46 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-    </row>
-    <row r="39" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="15">
-        <v>5</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="10"/>
+    </row>
+    <row r="39" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
+      <c r="A39" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -3030,29 +5126,22 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-    </row>
-    <row r="40" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="3"/>
+    </row>
+    <row r="40" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -3065,45 +5154,9 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-    </row>
-    <row r="41" spans="1:27" ht="157.5" thickTop="1" thickBot="1">
-      <c r="A41" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>66</v>
-      </c>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -3116,35 +5169,21 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-    </row>
-    <row r="42" spans="1:27" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A42" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>147</v>
-      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -3157,27 +5196,21 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-    </row>
-    <row r="43" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="15">
-        <v>6</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="10"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -3190,29 +5223,21 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-    </row>
-    <row r="44" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="3"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -3225,27 +5250,21 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-    </row>
-    <row r="45" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="15">
-        <v>7</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="10"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3258,9 +5277,21 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" thickTop="1">
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3273,9 +5304,21 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-    </row>
-    <row r="47" spans="1:27">
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -3288,9 +5331,21 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" thickBot="1">
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -3303,27 +5358,21 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-    </row>
-    <row r="49" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="15">
-        <v>8</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="10"/>
+    </row>
+    <row r="49" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -3336,31 +5385,21 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-    </row>
-    <row r="50" spans="1:27" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A50" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="3"/>
+    </row>
+    <row r="50" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -3373,29 +5412,21 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-    </row>
-    <row r="51" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A51" s="16"/>
-      <c r="B51" s="15">
-        <v>9</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="10"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="13"/>
+    </row>
+    <row r="51" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -3408,31 +5439,21 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-    </row>
-    <row r="52" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="3"/>
+    </row>
+    <row r="52" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -3445,29 +5466,21 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-    </row>
-    <row r="53" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="3"/>
+    </row>
+    <row r="53" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -3480,27 +5493,21 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-    </row>
-    <row r="54" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A54" s="19"/>
-      <c r="B54" s="15">
-        <v>10</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="10"/>
+    </row>
+    <row r="54" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -3513,31 +5520,21 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-    </row>
-    <row r="55" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="3"/>
+    </row>
+    <row r="55" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -3550,29 +5547,21 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-    </row>
-    <row r="56" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="3"/>
+    </row>
+    <row r="56" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -3585,27 +5574,21 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
-      <c r="AA56" s="2"/>
-    </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A57" s="16"/>
-      <c r="B57" s="15">
-        <v>11</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="10"/>
+    </row>
+    <row r="57" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -3618,29 +5601,21 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-    </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="3"/>
+    </row>
+    <row r="58" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -3653,27 +5628,21 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-    </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="3"/>
+    </row>
+    <row r="59" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
@@ -3686,29 +5655,21 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
-    </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A60" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="3"/>
+    </row>
+    <row r="60" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -3721,9 +5682,8 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
-    </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" thickTop="1">
+    </row>
+    <row r="61" spans="2:26" ht="15.75" customHeight="1">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3749,9 +5709,8 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-    </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="62" spans="2:26" ht="15.75" customHeight="1">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3777,9 +5736,8 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-    </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="63" spans="2:26" ht="15.75" customHeight="1">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3805,9 +5763,8 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
-    </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="64" spans="2:26" ht="15.75" customHeight="1">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3833,9 +5790,8 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
-    </row>
-    <row r="65" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="65" spans="2:26" ht="15.75" customHeight="1">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3861,9 +5817,8 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-    </row>
-    <row r="66" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="66" spans="2:26" ht="15.75" customHeight="1">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3889,9 +5844,8 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-    </row>
-    <row r="67" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="67" spans="2:26" ht="15.75" customHeight="1">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3917,9 +5871,8 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
-    </row>
-    <row r="68" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="68" spans="2:26" ht="15.75" customHeight="1">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3945,9 +5898,8 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-    </row>
-    <row r="69" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="69" spans="2:26" ht="15.75" customHeight="1">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3973,9 +5925,8 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-    </row>
-    <row r="70" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="70" spans="2:26" ht="15.75" customHeight="1">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -4001,9 +5952,8 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
-      <c r="AA70" s="2"/>
-    </row>
-    <row r="71" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="71" spans="2:26" ht="15.75" customHeight="1">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -4029,9 +5979,8 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
-    </row>
-    <row r="72" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="72" spans="2:26" ht="15.75" customHeight="1">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -4057,9 +6006,8 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
-    </row>
-    <row r="73" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="73" spans="2:26" ht="15.75" customHeight="1">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -4085,9 +6033,8 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
-      <c r="AA73" s="2"/>
-    </row>
-    <row r="74" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="74" spans="2:26" ht="15.75" customHeight="1">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -4113,9 +6060,8 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
-      <c r="AA74" s="2"/>
-    </row>
-    <row r="75" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="75" spans="2:26" ht="15.75" customHeight="1">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -4141,9 +6087,8 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
-    </row>
-    <row r="76" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="76" spans="2:26" ht="15.75" customHeight="1">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -4169,9 +6114,8 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
-    </row>
-    <row r="77" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="77" spans="2:26" ht="15.75" customHeight="1">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -4197,9 +6141,8 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-    </row>
-    <row r="78" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="78" spans="2:26" ht="15.75" customHeight="1">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -4225,9 +6168,8 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-    </row>
-    <row r="79" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="79" spans="2:26" ht="15.75" customHeight="1">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -4253,9 +6195,8 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
-      <c r="AA79" s="2"/>
-    </row>
-    <row r="80" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="80" spans="2:26" ht="15.75" customHeight="1">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -4281,9 +6222,8 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
-      <c r="AA80" s="2"/>
-    </row>
-    <row r="81" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="81" spans="2:26" ht="15.75" customHeight="1">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -4309,9 +6249,8 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
-      <c r="AA81" s="2"/>
-    </row>
-    <row r="82" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="82" spans="2:26" ht="15.75" customHeight="1">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -4337,9 +6276,8 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
-      <c r="AA82" s="2"/>
-    </row>
-    <row r="83" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="83" spans="2:26" ht="15.75" customHeight="1">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -4365,9 +6303,8 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
-      <c r="AA83" s="2"/>
-    </row>
-    <row r="84" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="84" spans="2:26" ht="15.75" customHeight="1">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -4393,9 +6330,8 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
-      <c r="AA84" s="2"/>
-    </row>
-    <row r="85" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="85" spans="2:26" ht="15.75" customHeight="1">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -4421,9 +6357,8 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
-      <c r="AA85" s="2"/>
-    </row>
-    <row r="86" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="86" spans="2:26" ht="15.75" customHeight="1">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -4449,9 +6384,8 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
-      <c r="AA86" s="2"/>
-    </row>
-    <row r="87" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="87" spans="2:26" ht="15.75" customHeight="1">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -4477,9 +6411,8 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
-      <c r="AA87" s="2"/>
-    </row>
-    <row r="88" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="88" spans="2:26" ht="15.75" customHeight="1">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -4505,9 +6438,8 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
-      <c r="AA88" s="2"/>
-    </row>
-    <row r="89" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="89" spans="2:26" ht="15.75" customHeight="1">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -4533,9 +6465,8 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
-      <c r="AA89" s="2"/>
-    </row>
-    <row r="90" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="90" spans="2:26" ht="15.75" customHeight="1">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -4561,9 +6492,8 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
-      <c r="AA90" s="2"/>
-    </row>
-    <row r="91" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="91" spans="2:26" ht="15.75" customHeight="1">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4589,9 +6519,8 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
-      <c r="AA91" s="2"/>
-    </row>
-    <row r="92" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="92" spans="2:26" ht="15.75" customHeight="1">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4617,9 +6546,8 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
-      <c r="AA92" s="2"/>
-    </row>
-    <row r="93" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="93" spans="2:26" ht="15.75" customHeight="1">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4645,9 +6573,8 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
-      <c r="AA93" s="2"/>
-    </row>
-    <row r="94" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="94" spans="2:26" ht="15.75" customHeight="1">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4673,9 +6600,8 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
-      <c r="AA94" s="2"/>
-    </row>
-    <row r="95" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="95" spans="2:26" ht="15.75" customHeight="1">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4701,9 +6627,8 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
-      <c r="AA95" s="2"/>
-    </row>
-    <row r="96" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="96" spans="2:26" ht="15.75" customHeight="1">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4729,9 +6654,8 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
-      <c r="AA96" s="2"/>
-    </row>
-    <row r="97" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="97" spans="2:26" ht="15.75" customHeight="1">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4757,9 +6681,8 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
-      <c r="AA97" s="2"/>
-    </row>
-    <row r="98" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="98" spans="2:26" ht="15.75" customHeight="1">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4785,9 +6708,8 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
-      <c r="AA98" s="2"/>
-    </row>
-    <row r="99" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="99" spans="2:26" ht="15.75" customHeight="1">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4813,9 +6735,8 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
-      <c r="AA99" s="2"/>
-    </row>
-    <row r="100" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="100" spans="2:26" ht="15.75" customHeight="1">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4841,9 +6762,8 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
-      <c r="AA100" s="2"/>
-    </row>
-    <row r="101" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="101" spans="2:26" ht="15.75" customHeight="1">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4869,9 +6789,8 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
-      <c r="AA101" s="2"/>
-    </row>
-    <row r="102" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="102" spans="2:26" ht="15.75" customHeight="1">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4897,9 +6816,8 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
-      <c r="AA102" s="2"/>
-    </row>
-    <row r="103" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="103" spans="2:26" ht="15.75" customHeight="1">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4925,9 +6843,8 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
-      <c r="AA103" s="2"/>
-    </row>
-    <row r="104" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="104" spans="2:26" ht="15.75" customHeight="1">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4953,9 +6870,8 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
-      <c r="AA104" s="2"/>
-    </row>
-    <row r="105" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="105" spans="2:26" ht="15.75" customHeight="1">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4981,9 +6897,8 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
-      <c r="AA105" s="2"/>
-    </row>
-    <row r="106" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="106" spans="2:26" ht="15.75" customHeight="1">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -5009,9 +6924,8 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
-      <c r="AA106" s="2"/>
-    </row>
-    <row r="107" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="107" spans="2:26" ht="15.75" customHeight="1">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -5037,9 +6951,8 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
-      <c r="AA107" s="2"/>
-    </row>
-    <row r="108" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="108" spans="2:26" ht="15.75" customHeight="1">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -5065,9 +6978,8 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
-      <c r="AA108" s="2"/>
-    </row>
-    <row r="109" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="109" spans="2:26" ht="15.75" customHeight="1">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -5093,9 +7005,8 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
-      <c r="AA109" s="2"/>
-    </row>
-    <row r="110" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="110" spans="2:26" ht="15.75" customHeight="1">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -5121,9 +7032,8 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
-      <c r="AA110" s="2"/>
-    </row>
-    <row r="111" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="111" spans="2:26" ht="15.75" customHeight="1">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -5149,9 +7059,8 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
-      <c r="AA111" s="2"/>
-    </row>
-    <row r="112" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="112" spans="2:26" ht="15.75" customHeight="1">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -5177,9 +7086,8 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
-      <c r="AA112" s="2"/>
-    </row>
-    <row r="113" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="113" spans="2:26" ht="15.75" customHeight="1">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -5205,9 +7113,8 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
-      <c r="AA113" s="2"/>
-    </row>
-    <row r="114" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="114" spans="2:26" ht="15.75" customHeight="1">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -5233,9 +7140,8 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
-      <c r="AA114" s="2"/>
-    </row>
-    <row r="115" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="115" spans="2:26" ht="15.75" customHeight="1">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -5261,9 +7167,8 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
-      <c r="AA115" s="2"/>
-    </row>
-    <row r="116" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="116" spans="2:26" ht="15.75" customHeight="1">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -5289,9 +7194,8 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
-      <c r="AA116" s="2"/>
-    </row>
-    <row r="117" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="117" spans="2:26" ht="15.75" customHeight="1">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -5317,9 +7221,8 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
-      <c r="AA117" s="2"/>
-    </row>
-    <row r="118" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="118" spans="2:26" ht="15.75" customHeight="1">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -5345,9 +7248,8 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
-      <c r="AA118" s="2"/>
-    </row>
-    <row r="119" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="119" spans="2:26" ht="15.75" customHeight="1">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -5373,9 +7275,8 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
-      <c r="AA119" s="2"/>
-    </row>
-    <row r="120" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="120" spans="2:26" ht="15.75" customHeight="1">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -5401,9 +7302,8 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
-      <c r="AA120" s="2"/>
-    </row>
-    <row r="121" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="121" spans="2:26" ht="15.75" customHeight="1">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -5429,9 +7329,8 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
-      <c r="AA121" s="2"/>
-    </row>
-    <row r="122" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="122" spans="2:26" ht="15.75" customHeight="1">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -5457,9 +7356,8 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
-      <c r="AA122" s="2"/>
-    </row>
-    <row r="123" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="123" spans="2:26" ht="15.75" customHeight="1">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -5485,9 +7383,8 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
-      <c r="AA123" s="2"/>
-    </row>
-    <row r="124" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="124" spans="2:26" ht="15.75" customHeight="1">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -5513,9 +7410,8 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
-      <c r="AA124" s="2"/>
-    </row>
-    <row r="125" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="125" spans="2:26" ht="15.75" customHeight="1">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -5541,9 +7437,8 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
-      <c r="AA125" s="2"/>
-    </row>
-    <row r="126" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="126" spans="2:26" ht="15.75" customHeight="1">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5569,9 +7464,8 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
-      <c r="AA126" s="2"/>
-    </row>
-    <row r="127" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="127" spans="2:26" ht="15.75" customHeight="1">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5597,9 +7491,8 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
-      <c r="AA127" s="2"/>
-    </row>
-    <row r="128" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="128" spans="2:26" ht="15.75" customHeight="1">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5625,9 +7518,8 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
-      <c r="AA128" s="2"/>
-    </row>
-    <row r="129" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="129" spans="2:26" ht="15.75" customHeight="1">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5653,9 +7545,8 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
-      <c r="AA129" s="2"/>
-    </row>
-    <row r="130" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="130" spans="2:26" ht="15.75" customHeight="1">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5681,9 +7572,8 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
-      <c r="AA130" s="2"/>
-    </row>
-    <row r="131" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="131" spans="2:26" ht="15.75" customHeight="1">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5709,9 +7599,8 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
-      <c r="AA131" s="2"/>
-    </row>
-    <row r="132" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="132" spans="2:26" ht="15.75" customHeight="1">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5737,9 +7626,8 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
-      <c r="AA132" s="2"/>
-    </row>
-    <row r="133" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="133" spans="2:26" ht="15.75" customHeight="1">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5765,9 +7653,8 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
-      <c r="AA133" s="2"/>
-    </row>
-    <row r="134" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="134" spans="2:26" ht="15.75" customHeight="1">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5793,9 +7680,8 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
-      <c r="AA134" s="2"/>
-    </row>
-    <row r="135" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="135" spans="2:26" ht="15.75" customHeight="1">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5821,9 +7707,8 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
-      <c r="AA135" s="2"/>
-    </row>
-    <row r="136" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="136" spans="2:26" ht="15.75" customHeight="1">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5849,9 +7734,8 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
-      <c r="AA136" s="2"/>
-    </row>
-    <row r="137" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="137" spans="2:26" ht="15.75" customHeight="1">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5877,9 +7761,8 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
-      <c r="AA137" s="2"/>
-    </row>
-    <row r="138" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="138" spans="2:26" ht="15.75" customHeight="1">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5905,9 +7788,8 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
-      <c r="AA138" s="2"/>
-    </row>
-    <row r="139" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="139" spans="2:26" ht="15.75" customHeight="1">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5933,9 +7815,8 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
-      <c r="AA139" s="2"/>
-    </row>
-    <row r="140" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="140" spans="2:26" ht="15.75" customHeight="1">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5961,9 +7842,8 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
-      <c r="AA140" s="2"/>
-    </row>
-    <row r="141" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="141" spans="2:26" ht="15.75" customHeight="1">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -5989,9 +7869,8 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
-      <c r="AA141" s="2"/>
-    </row>
-    <row r="142" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="142" spans="2:26" ht="15.75" customHeight="1">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -6017,9 +7896,8 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
-      <c r="AA142" s="2"/>
-    </row>
-    <row r="143" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="143" spans="2:26" ht="15.75" customHeight="1">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -6045,9 +7923,8 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
-      <c r="AA143" s="2"/>
-    </row>
-    <row r="144" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="144" spans="2:26" ht="15.75" customHeight="1">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -6073,9 +7950,8 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
-      <c r="AA144" s="2"/>
-    </row>
-    <row r="145" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="145" spans="2:26" ht="15.75" customHeight="1">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -6101,9 +7977,8 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
-      <c r="AA145" s="2"/>
-    </row>
-    <row r="146" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="146" spans="2:26" ht="15.75" customHeight="1">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -6129,9 +8004,8 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
-      <c r="AA146" s="2"/>
-    </row>
-    <row r="147" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="147" spans="2:26" ht="15.75" customHeight="1">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -6157,9 +8031,8 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
-      <c r="AA147" s="2"/>
-    </row>
-    <row r="148" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="148" spans="2:26" ht="15.75" customHeight="1">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -6185,9 +8058,8 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
-      <c r="AA148" s="2"/>
-    </row>
-    <row r="149" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="149" spans="2:26" ht="15.75" customHeight="1">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -6213,9 +8085,8 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
-      <c r="AA149" s="2"/>
-    </row>
-    <row r="150" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="150" spans="2:26" ht="15.75" customHeight="1">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -6241,9 +8112,8 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
-      <c r="AA150" s="2"/>
-    </row>
-    <row r="151" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="151" spans="2:26" ht="15.75" customHeight="1">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -6269,9 +8139,8 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
-      <c r="AA151" s="2"/>
-    </row>
-    <row r="152" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="152" spans="2:26" ht="15.75" customHeight="1">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -6297,9 +8166,8 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
-      <c r="AA152" s="2"/>
-    </row>
-    <row r="153" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="153" spans="2:26" ht="15.75" customHeight="1">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -6325,9 +8193,8 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
-      <c r="AA153" s="2"/>
-    </row>
-    <row r="154" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="154" spans="2:26" ht="15.75" customHeight="1">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6353,9 +8220,8 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
-      <c r="AA154" s="2"/>
-    </row>
-    <row r="155" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="155" spans="2:26" ht="15.75" customHeight="1">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6381,9 +8247,8 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
-      <c r="AA155" s="2"/>
-    </row>
-    <row r="156" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="156" spans="2:26" ht="15.75" customHeight="1">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6409,9 +8274,8 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
-      <c r="AA156" s="2"/>
-    </row>
-    <row r="157" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="157" spans="2:26" ht="15.75" customHeight="1">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6437,9 +8301,8 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
-      <c r="AA157" s="2"/>
-    </row>
-    <row r="158" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="158" spans="2:26" ht="15.75" customHeight="1">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6465,9 +8328,8 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
-      <c r="AA158" s="2"/>
-    </row>
-    <row r="159" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="159" spans="2:26" ht="15.75" customHeight="1">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6493,9 +8355,8 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
-      <c r="AA159" s="2"/>
-    </row>
-    <row r="160" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="160" spans="2:26" ht="15.75" customHeight="1">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6521,9 +8382,8 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
-      <c r="AA160" s="2"/>
-    </row>
-    <row r="161" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="161" spans="2:26" ht="15.75" customHeight="1">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6549,9 +8409,8 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
-      <c r="AA161" s="2"/>
-    </row>
-    <row r="162" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="162" spans="2:26" ht="15.75" customHeight="1">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6577,9 +8436,8 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
-      <c r="AA162" s="2"/>
-    </row>
-    <row r="163" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="163" spans="2:26" ht="15.75" customHeight="1">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6605,9 +8463,8 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
-      <c r="AA163" s="2"/>
-    </row>
-    <row r="164" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="164" spans="2:26" ht="15.75" customHeight="1">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -6633,9 +8490,8 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
-      <c r="AA164" s="2"/>
-    </row>
-    <row r="165" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="165" spans="2:26" ht="15.75" customHeight="1">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -6661,9 +8517,8 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
-      <c r="AA165" s="2"/>
-    </row>
-    <row r="166" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="166" spans="2:26" ht="15.75" customHeight="1">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -6689,9 +8544,8 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
-      <c r="AA166" s="2"/>
-    </row>
-    <row r="167" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="167" spans="2:26" ht="15.75" customHeight="1">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -6717,9 +8571,8 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
-      <c r="AA167" s="2"/>
-    </row>
-    <row r="168" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="168" spans="2:26" ht="15.75" customHeight="1">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -6745,9 +8598,8 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
-      <c r="AA168" s="2"/>
-    </row>
-    <row r="169" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="169" spans="2:26" ht="15.75" customHeight="1">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -6773,9 +8625,8 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
-      <c r="AA169" s="2"/>
-    </row>
-    <row r="170" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="170" spans="2:26" ht="15.75" customHeight="1">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -6801,9 +8652,8 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
-      <c r="AA170" s="2"/>
-    </row>
-    <row r="171" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="171" spans="2:26" ht="15.75" customHeight="1">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -6829,9 +8679,8 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
-      <c r="AA171" s="2"/>
-    </row>
-    <row r="172" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="172" spans="2:26" ht="15.75" customHeight="1">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -6857,9 +8706,8 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
-      <c r="AA172" s="2"/>
-    </row>
-    <row r="173" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="173" spans="2:26" ht="15.75" customHeight="1">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -6885,9 +8733,8 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
-      <c r="AA173" s="2"/>
-    </row>
-    <row r="174" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="174" spans="2:26" ht="15.75" customHeight="1">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -6913,9 +8760,8 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
-      <c r="AA174" s="2"/>
-    </row>
-    <row r="175" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="175" spans="2:26" ht="15.75" customHeight="1">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -6941,9 +8787,8 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
-      <c r="AA175" s="2"/>
-    </row>
-    <row r="176" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="176" spans="2:26" ht="15.75" customHeight="1">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -6969,9 +8814,8 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
-      <c r="AA176" s="2"/>
-    </row>
-    <row r="177" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="177" spans="2:26" ht="15.75" customHeight="1">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -6997,9 +8841,8 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
-      <c r="AA177" s="2"/>
-    </row>
-    <row r="178" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="178" spans="2:26" ht="15.75" customHeight="1">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -7025,9 +8868,8 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
-      <c r="AA178" s="2"/>
-    </row>
-    <row r="179" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="179" spans="2:26" ht="15.75" customHeight="1">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -7053,9 +8895,8 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
-      <c r="AA179" s="2"/>
-    </row>
-    <row r="180" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="180" spans="2:26" ht="15.75" customHeight="1">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -7081,9 +8922,8 @@
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
-      <c r="AA180" s="2"/>
-    </row>
-    <row r="181" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="181" spans="2:26" ht="15.75" customHeight="1">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -7109,9 +8949,8 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
-      <c r="AA181" s="2"/>
-    </row>
-    <row r="182" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="182" spans="2:26" ht="15.75" customHeight="1">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -7137,9 +8976,8 @@
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
-      <c r="AA182" s="2"/>
-    </row>
-    <row r="183" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="183" spans="2:26" ht="15.75" customHeight="1">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -7165,9 +9003,8 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
-      <c r="AA183" s="2"/>
-    </row>
-    <row r="184" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="184" spans="2:26" ht="15.75" customHeight="1">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -7193,9 +9030,8 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
-      <c r="AA184" s="2"/>
-    </row>
-    <row r="185" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="185" spans="2:26" ht="15.75" customHeight="1">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -7221,9 +9057,8 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
-      <c r="AA185" s="2"/>
-    </row>
-    <row r="186" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="186" spans="2:26" ht="15.75" customHeight="1">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -7249,9 +9084,8 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
-      <c r="AA186" s="2"/>
-    </row>
-    <row r="187" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="187" spans="2:26" ht="15.75" customHeight="1">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -7277,9 +9111,8 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
-      <c r="AA187" s="2"/>
-    </row>
-    <row r="188" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="188" spans="2:26" ht="15.75" customHeight="1">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -7305,9 +9138,8 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
-      <c r="AA188" s="2"/>
-    </row>
-    <row r="189" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="189" spans="2:26" ht="15.75" customHeight="1">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -7333,9 +9165,8 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
-      <c r="AA189" s="2"/>
-    </row>
-    <row r="190" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="190" spans="2:26" ht="15.75" customHeight="1">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -7361,9 +9192,8 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
-      <c r="AA190" s="2"/>
-    </row>
-    <row r="191" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="191" spans="2:26" ht="15.75" customHeight="1">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -7389,9 +9219,8 @@
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
-      <c r="AA191" s="2"/>
-    </row>
-    <row r="192" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="192" spans="2:26" ht="15.75" customHeight="1">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -7417,9 +9246,8 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
-      <c r="AA192" s="2"/>
-    </row>
-    <row r="193" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="193" spans="2:26" ht="15.75" customHeight="1">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -7445,9 +9273,8 @@
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
-      <c r="AA193" s="2"/>
-    </row>
-    <row r="194" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="194" spans="2:26" ht="15.75" customHeight="1">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -7473,9 +9300,8 @@
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
-      <c r="AA194" s="2"/>
-    </row>
-    <row r="195" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="195" spans="2:26" ht="15.75" customHeight="1">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -7501,9 +9327,8 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
-      <c r="AA195" s="2"/>
-    </row>
-    <row r="196" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="196" spans="2:26" ht="15.75" customHeight="1">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -7529,9 +9354,8 @@
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
-      <c r="AA196" s="2"/>
-    </row>
-    <row r="197" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="197" spans="2:26" ht="15.75" customHeight="1">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -7557,9 +9381,8 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
-      <c r="AA197" s="2"/>
-    </row>
-    <row r="198" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="198" spans="2:26" ht="15.75" customHeight="1">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -7585,9 +9408,8 @@
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
-      <c r="AA198" s="2"/>
-    </row>
-    <row r="199" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="199" spans="2:26" ht="15.75" customHeight="1">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -7613,9 +9435,8 @@
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
-      <c r="AA199" s="2"/>
-    </row>
-    <row r="200" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="200" spans="2:26" ht="15.75" customHeight="1">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -7641,9 +9462,8 @@
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
-      <c r="AA200" s="2"/>
-    </row>
-    <row r="201" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="201" spans="2:26" ht="15.75" customHeight="1">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -7669,9 +9489,8 @@
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
-      <c r="AA201" s="2"/>
-    </row>
-    <row r="202" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="202" spans="2:26" ht="15.75" customHeight="1">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -7697,9 +9516,8 @@
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
-      <c r="AA202" s="2"/>
-    </row>
-    <row r="203" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="203" spans="2:26" ht="15.75" customHeight="1">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -7725,9 +9543,8 @@
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
-      <c r="AA203" s="2"/>
-    </row>
-    <row r="204" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="204" spans="2:26" ht="15.75" customHeight="1">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -7753,9 +9570,8 @@
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
-      <c r="AA204" s="2"/>
-    </row>
-    <row r="205" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="205" spans="2:26" ht="15.75" customHeight="1">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -7781,9 +9597,8 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
-      <c r="AA205" s="2"/>
-    </row>
-    <row r="206" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="206" spans="2:26" ht="15.75" customHeight="1">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -7809,9 +9624,8 @@
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
-      <c r="AA206" s="2"/>
-    </row>
-    <row r="207" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="207" spans="2:26" ht="15.75" customHeight="1">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -7837,9 +9651,8 @@
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
-      <c r="AA207" s="2"/>
-    </row>
-    <row r="208" spans="2:27" ht="15.75" customHeight="1">
+    </row>
+    <row r="208" spans="2:26" ht="15.75" customHeight="1">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -7865,661 +9678,39 @@
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
-      <c r="AA208" s="2"/>
-    </row>
-    <row r="209" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
-      <c r="Q209" s="2"/>
-      <c r="R209" s="2"/>
-      <c r="S209" s="2"/>
-      <c r="T209" s="2"/>
-      <c r="U209" s="2"/>
-      <c r="V209" s="2"/>
-      <c r="W209" s="2"/>
-      <c r="X209" s="2"/>
-      <c r="Y209" s="2"/>
-      <c r="Z209" s="2"/>
-      <c r="AA209" s="2"/>
-    </row>
-    <row r="210" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2"/>
-      <c r="V210" s="2"/>
-      <c r="W210" s="2"/>
-      <c r="X210" s="2"/>
-      <c r="Y210" s="2"/>
-      <c r="Z210" s="2"/>
-      <c r="AA210" s="2"/>
-    </row>
-    <row r="211" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
-      <c r="R211" s="2"/>
-      <c r="S211" s="2"/>
-      <c r="T211" s="2"/>
-      <c r="U211" s="2"/>
-      <c r="V211" s="2"/>
-      <c r="W211" s="2"/>
-      <c r="X211" s="2"/>
-      <c r="Y211" s="2"/>
-      <c r="Z211" s="2"/>
-      <c r="AA211" s="2"/>
-    </row>
-    <row r="212" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
-      <c r="R212" s="2"/>
-      <c r="S212" s="2"/>
-      <c r="T212" s="2"/>
-      <c r="U212" s="2"/>
-      <c r="V212" s="2"/>
-      <c r="W212" s="2"/>
-      <c r="X212" s="2"/>
-      <c r="Y212" s="2"/>
-      <c r="Z212" s="2"/>
-      <c r="AA212" s="2"/>
-    </row>
-    <row r="213" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="2"/>
-      <c r="U213" s="2"/>
-      <c r="V213" s="2"/>
-      <c r="W213" s="2"/>
-      <c r="X213" s="2"/>
-      <c r="Y213" s="2"/>
-      <c r="Z213" s="2"/>
-      <c r="AA213" s="2"/>
-    </row>
-    <row r="214" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
-      <c r="P214" s="2"/>
-      <c r="Q214" s="2"/>
-      <c r="R214" s="2"/>
-      <c r="S214" s="2"/>
-      <c r="T214" s="2"/>
-      <c r="U214" s="2"/>
-      <c r="V214" s="2"/>
-      <c r="W214" s="2"/>
-      <c r="X214" s="2"/>
-      <c r="Y214" s="2"/>
-      <c r="Z214" s="2"/>
-      <c r="AA214" s="2"/>
-    </row>
-    <row r="215" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
-      <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
-      <c r="Q215" s="2"/>
-      <c r="R215" s="2"/>
-      <c r="S215" s="2"/>
-      <c r="T215" s="2"/>
-      <c r="U215" s="2"/>
-      <c r="V215" s="2"/>
-      <c r="W215" s="2"/>
-      <c r="X215" s="2"/>
-      <c r="Y215" s="2"/>
-      <c r="Z215" s="2"/>
-      <c r="AA215" s="2"/>
-    </row>
-    <row r="216" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
-      <c r="P216" s="2"/>
-      <c r="Q216" s="2"/>
-      <c r="R216" s="2"/>
-      <c r="S216" s="2"/>
-      <c r="T216" s="2"/>
-      <c r="U216" s="2"/>
-      <c r="V216" s="2"/>
-      <c r="W216" s="2"/>
-      <c r="X216" s="2"/>
-      <c r="Y216" s="2"/>
-      <c r="Z216" s="2"/>
-      <c r="AA216" s="2"/>
-    </row>
-    <row r="217" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
-      <c r="Q217" s="2"/>
-      <c r="R217" s="2"/>
-      <c r="S217" s="2"/>
-      <c r="T217" s="2"/>
-      <c r="U217" s="2"/>
-      <c r="V217" s="2"/>
-      <c r="W217" s="2"/>
-      <c r="X217" s="2"/>
-      <c r="Y217" s="2"/>
-      <c r="Z217" s="2"/>
-      <c r="AA217" s="2"/>
-    </row>
-    <row r="218" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
-      <c r="O218" s="2"/>
-      <c r="P218" s="2"/>
-      <c r="Q218" s="2"/>
-      <c r="R218" s="2"/>
-      <c r="S218" s="2"/>
-      <c r="T218" s="2"/>
-      <c r="U218" s="2"/>
-      <c r="V218" s="2"/>
-      <c r="W218" s="2"/>
-      <c r="X218" s="2"/>
-      <c r="Y218" s="2"/>
-      <c r="Z218" s="2"/>
-      <c r="AA218" s="2"/>
-    </row>
-    <row r="219" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
-      <c r="N219" s="2"/>
-      <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
-      <c r="Q219" s="2"/>
-      <c r="R219" s="2"/>
-      <c r="S219" s="2"/>
-      <c r="T219" s="2"/>
-      <c r="U219" s="2"/>
-      <c r="V219" s="2"/>
-      <c r="W219" s="2"/>
-      <c r="X219" s="2"/>
-      <c r="Y219" s="2"/>
-      <c r="Z219" s="2"/>
-      <c r="AA219" s="2"/>
-    </row>
-    <row r="220" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
-      <c r="Q220" s="2"/>
-      <c r="R220" s="2"/>
-      <c r="S220" s="2"/>
-      <c r="T220" s="2"/>
-      <c r="U220" s="2"/>
-      <c r="V220" s="2"/>
-      <c r="W220" s="2"/>
-      <c r="X220" s="2"/>
-      <c r="Y220" s="2"/>
-      <c r="Z220" s="2"/>
-      <c r="AA220" s="2"/>
-    </row>
-    <row r="221" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
-      <c r="Q221" s="2"/>
-      <c r="R221" s="2"/>
-      <c r="S221" s="2"/>
-      <c r="T221" s="2"/>
-      <c r="U221" s="2"/>
-      <c r="V221" s="2"/>
-      <c r="W221" s="2"/>
-      <c r="X221" s="2"/>
-      <c r="Y221" s="2"/>
-      <c r="Z221" s="2"/>
-      <c r="AA221" s="2"/>
-    </row>
-    <row r="222" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
-      <c r="O222" s="2"/>
-      <c r="P222" s="2"/>
-      <c r="Q222" s="2"/>
-      <c r="R222" s="2"/>
-      <c r="S222" s="2"/>
-      <c r="T222" s="2"/>
-      <c r="U222" s="2"/>
-      <c r="V222" s="2"/>
-      <c r="W222" s="2"/>
-      <c r="X222" s="2"/>
-      <c r="Y222" s="2"/>
-      <c r="Z222" s="2"/>
-      <c r="AA222" s="2"/>
-    </row>
-    <row r="223" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
-      <c r="P223" s="2"/>
-      <c r="Q223" s="2"/>
-      <c r="R223" s="2"/>
-      <c r="S223" s="2"/>
-      <c r="T223" s="2"/>
-      <c r="U223" s="2"/>
-      <c r="V223" s="2"/>
-      <c r="W223" s="2"/>
-      <c r="X223" s="2"/>
-      <c r="Y223" s="2"/>
-      <c r="Z223" s="2"/>
-      <c r="AA223" s="2"/>
-    </row>
-    <row r="224" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
-      <c r="Q224" s="2"/>
-      <c r="R224" s="2"/>
-      <c r="S224" s="2"/>
-      <c r="T224" s="2"/>
-      <c r="U224" s="2"/>
-      <c r="V224" s="2"/>
-      <c r="W224" s="2"/>
-      <c r="X224" s="2"/>
-      <c r="Y224" s="2"/>
-      <c r="Z224" s="2"/>
-      <c r="AA224" s="2"/>
-    </row>
-    <row r="225" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
-      <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
-      <c r="Q225" s="2"/>
-      <c r="R225" s="2"/>
-      <c r="S225" s="2"/>
-      <c r="T225" s="2"/>
-      <c r="U225" s="2"/>
-      <c r="V225" s="2"/>
-      <c r="W225" s="2"/>
-      <c r="X225" s="2"/>
-      <c r="Y225" s="2"/>
-      <c r="Z225" s="2"/>
-      <c r="AA225" s="2"/>
-    </row>
-    <row r="226" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="2"/>
-      <c r="N226" s="2"/>
-      <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
-      <c r="Q226" s="2"/>
-      <c r="R226" s="2"/>
-      <c r="S226" s="2"/>
-      <c r="T226" s="2"/>
-      <c r="U226" s="2"/>
-      <c r="V226" s="2"/>
-      <c r="W226" s="2"/>
-      <c r="X226" s="2"/>
-      <c r="Y226" s="2"/>
-      <c r="Z226" s="2"/>
-      <c r="AA226" s="2"/>
-    </row>
-    <row r="227" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
-      <c r="Q227" s="2"/>
-      <c r="R227" s="2"/>
-      <c r="S227" s="2"/>
-      <c r="T227" s="2"/>
-      <c r="U227" s="2"/>
-      <c r="V227" s="2"/>
-      <c r="W227" s="2"/>
-      <c r="X227" s="2"/>
-      <c r="Y227" s="2"/>
-      <c r="Z227" s="2"/>
-      <c r="AA227" s="2"/>
-    </row>
-    <row r="228" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
-      <c r="M228" s="2"/>
-      <c r="N228" s="2"/>
-      <c r="O228" s="2"/>
-      <c r="P228" s="2"/>
-      <c r="Q228" s="2"/>
-      <c r="R228" s="2"/>
-      <c r="S228" s="2"/>
-      <c r="T228" s="2"/>
-      <c r="U228" s="2"/>
-      <c r="V228" s="2"/>
-      <c r="W228" s="2"/>
-      <c r="X228" s="2"/>
-      <c r="Y228" s="2"/>
-      <c r="Z228" s="2"/>
-      <c r="AA228" s="2"/>
-    </row>
-    <row r="229" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
-      <c r="M229" s="2"/>
-      <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
-      <c r="P229" s="2"/>
-      <c r="Q229" s="2"/>
-      <c r="R229" s="2"/>
-      <c r="S229" s="2"/>
-      <c r="T229" s="2"/>
-      <c r="U229" s="2"/>
-      <c r="V229" s="2"/>
-      <c r="W229" s="2"/>
-      <c r="X229" s="2"/>
-      <c r="Y229" s="2"/>
-      <c r="Z229" s="2"/>
-      <c r="AA229" s="2"/>
-    </row>
-    <row r="230" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="2"/>
-      <c r="N230" s="2"/>
-      <c r="O230" s="2"/>
-      <c r="P230" s="2"/>
-      <c r="Q230" s="2"/>
-      <c r="R230" s="2"/>
-      <c r="S230" s="2"/>
-      <c r="T230" s="2"/>
-      <c r="U230" s="2"/>
-      <c r="V230" s="2"/>
-      <c r="W230" s="2"/>
-      <c r="X230" s="2"/>
-      <c r="Y230" s="2"/>
-      <c r="Z230" s="2"/>
-      <c r="AA230" s="2"/>
-    </row>
-    <row r="231" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="M231" s="2"/>
-      <c r="N231" s="2"/>
-      <c r="O231" s="2"/>
-      <c r="P231" s="2"/>
-      <c r="Q231" s="2"/>
-      <c r="R231" s="2"/>
-      <c r="S231" s="2"/>
-      <c r="T231" s="2"/>
-      <c r="U231" s="2"/>
-      <c r="V231" s="2"/>
-      <c r="W231" s="2"/>
-      <c r="X231" s="2"/>
-      <c r="Y231" s="2"/>
-      <c r="Z231" s="2"/>
-      <c r="AA231" s="2"/>
-    </row>
-    <row r="232" spans="2:27" ht="15.75" customHeight="1"/>
-    <row r="233" spans="2:27" ht="15.75" customHeight="1"/>
-    <row r="234" spans="2:27" ht="15.75" customHeight="1"/>
-    <row r="235" spans="2:27" ht="15.75" customHeight="1"/>
-    <row r="236" spans="2:27" ht="15.75" customHeight="1"/>
-    <row r="237" spans="2:27" ht="15.75" customHeight="1"/>
-    <row r="238" spans="2:27" ht="15.75" customHeight="1"/>
-    <row r="239" spans="2:27" ht="15.75" customHeight="1"/>
-    <row r="240" spans="2:27" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -9268,116 +10459,153 @@
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
     <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A58:A59"/>
+  <mergeCells count="8">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G8 G58:H60 G49:G56 G10:G45">
+  <conditionalFormatting sqref="F6:F8 F35:G37 F10:F40">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8 G58:H60 G49:G56 G10:G45">
+  <conditionalFormatting sqref="F6:F8 F35:G37 F10:F40">
     <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8 G58:H60 G49:G56 G10:G45">
+  <conditionalFormatting sqref="F6:F8 F35:G37 F10:F40">
     <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M8 M49:M60 M10:M45">
+  <conditionalFormatting sqref="L6:L8 L10:L40">
     <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M8 M49:M60 M10:M45">
+  <conditionalFormatting sqref="L6:L8 L10:L40">
     <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M8 M49:M60 M10:M45">
+  <conditionalFormatting sqref="L6:L8 L10:L40">
     <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G5">
+  <conditionalFormatting sqref="F3:F5">
     <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G5">
+  <conditionalFormatting sqref="F3:F5">
     <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G5">
+  <conditionalFormatting sqref="F3:F5">
     <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M5">
+  <conditionalFormatting sqref="L3:L5">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M5">
+  <conditionalFormatting sqref="L3:L5">
     <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M5">
+  <conditionalFormatting sqref="L3:L5">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="M3:M8 M49:M60 M10:M45" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="L3:L8 L10:L40" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Siker,Nem futtatható,Hiba"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G3:G8 G58:H60 G49:G56 G10:G45" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F3:F8 F35:G37 F10:F40" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Magas,Normál,Alacsony"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" display="https://lennertamas.github.io/portio/" xr:uid="{46623CFE-7227-403A-85AE-432EFE56097D}"/>
-    <hyperlink ref="J4" r:id="rId2" display="https://lennertamas.github.io/portio/" xr:uid="{7C729CB5-3417-4AA5-919D-1CC54037F6E7}"/>
-    <hyperlink ref="J6" r:id="rId3" display="https://lennertamas.github.io/portio/" xr:uid="{09131808-2F2E-4FA0-8472-A5A6B406E0F9}"/>
+    <hyperlink ref="I3" r:id="rId1" display="https://lennertamas.github.io/portio/" xr:uid="{46623CFE-7227-403A-85AE-432EFE56097D}"/>
+    <hyperlink ref="I4" r:id="rId2" display="https://lennertamas.github.io/portio/" xr:uid="{7C729CB5-3417-4AA5-919D-1CC54037F6E7}"/>
+    <hyperlink ref="I6" r:id="rId3" display="https://lennertamas.github.io/portio/" xr:uid="{09131808-2F2E-4FA0-8472-A5A6B406E0F9}"/>
     <hyperlink ref="D4" r:id="rId4" display="https://lennertamas.github.io/portio/" xr:uid="{472F43C2-BAB8-444F-8287-3B2876DBC7C5}"/>
     <hyperlink ref="D3" r:id="rId5" display="https://lennertamas.github.io/portio/" xr:uid="{D7BBECD2-AEA0-4A4D-8F26-9BD0F6E609AC}"/>
+    <hyperlink ref="D6" r:id="rId6" display="https://lennertamas.github.io/portio/" xr:uid="{CA929DE7-F8A3-4504-B46A-A3E8527373C7}"/>
+    <hyperlink ref="D7" r:id="rId7" display="https://lennertamas.github.io/portio/" xr:uid="{44BC9E7E-B654-434E-8AA7-196A348111AE}"/>
+    <hyperlink ref="D8" r:id="rId8" display="https://lennertamas.github.io/portio/" xr:uid="{140B2D70-B242-4D8E-BFB9-95EE98EA8472}"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://lennertamas.github.io/portio/" xr:uid="{9438CE2D-432E-4543-A949-15BDF5ACB62C}"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://lennertamas.github.io/portio/" xr:uid="{273A75B0-D666-4515-900E-7ABD6DAF9A0D}"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://lennertamas.github.io/portio/" xr:uid="{4B023AEA-EFC5-4FA0-902D-068580E2297D}"/>
+    <hyperlink ref="D14" r:id="rId12" display="https://lennertamas.github.io/portio/" xr:uid="{80532ED6-35C5-40C2-858A-D5125E854FD0}"/>
+    <hyperlink ref="D19" r:id="rId13" display="https://lennertamas.github.io/portio/" xr:uid="{590C2CF7-6342-4B81-9F5B-DD5DBF5C1481}"/>
+    <hyperlink ref="D20" r:id="rId14" display="https://lennertamas.github.io/portio/" xr:uid="{7D30C714-57FF-4B6F-87F6-5793E21C36D5}"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://lennertamas.github.io/portio/" xr:uid="{D3A1106E-1EAF-47B2-A590-C3DFA6132F1C}"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://lennertamas.github.io/portio/" xr:uid="{FC021D80-07FD-4584-87B0-30B4E76ADE41}"/>
+    <hyperlink ref="D22" r:id="rId17" display="https://lennertamas.github.io/portio/" xr:uid="{90382F70-4FE6-434E-960C-F71438190A5E}"/>
+    <hyperlink ref="D23" r:id="rId18" display="https://lennertamas.github.io/portio/" xr:uid="{9D1D1202-8AA8-4B81-989C-A105BFF5E9DE}"/>
+    <hyperlink ref="D25" r:id="rId19" display="https://lennertamas.github.io/portio/" xr:uid="{85037ADC-79A5-40D9-A94B-091944246523}"/>
+    <hyperlink ref="D27" r:id="rId20" display="https://lennertamas.github.io/portio/" xr:uid="{D17F1796-7E62-45AE-8543-FA7C00BDF89A}"/>
+    <hyperlink ref="D29" r:id="rId21" display="https://lennertamas.github.io/portio/" xr:uid="{636A6118-0EC1-4548-B758-900719BCB1BF}"/>
+    <hyperlink ref="D31" r:id="rId22" display="https://lennertamas.github.io/portio/" xr:uid="{D2CE282B-196F-4FE6-987B-492708A2C904}"/>
+    <hyperlink ref="D33" r:id="rId23" display="https://lennertamas.github.io/portio/" xr:uid="{5716A2D4-7AC9-44F9-9C60-D45DFD1C1D4E}"/>
+    <hyperlink ref="D35" r:id="rId24" display="https://lennertamas.github.io/portio/" xr:uid="{90652411-4BB9-4025-A9AB-9D91B0C6F847}"/>
+    <hyperlink ref="D39" r:id="rId25" display="https://lennertamas.github.io/portio/" xr:uid="{5175931A-C186-4D23-B50E-B3B25863F599}"/>
+    <hyperlink ref="I25" r:id="rId26" display="https://lennertamas.github.io/portio/" xr:uid="{1F946257-DF34-4F17-9812-724E4A4C5A91}"/>
+    <hyperlink ref="I22" r:id="rId27" display="https://lennertamas.github.io/portio/" xr:uid="{02291B35-0183-4CFA-A956-1F703EFEE757}"/>
+    <hyperlink ref="I23" r:id="rId28" display="https://lennertamas.github.io/portio/" xr:uid="{3BD9FE20-D3A7-4F5C-A22B-CCF61F106846}"/>
+    <hyperlink ref="I7" r:id="rId29" display="https://lennertamas.github.io/portio/" xr:uid="{663ED371-ED2F-4F53-A80F-8CB40A08F7D3}"/>
+    <hyperlink ref="I8" r:id="rId30" display="https://lennertamas.github.io/portio/" xr:uid="{1BCDA0E8-754E-4CBF-882F-FE0DB1D4657D}"/>
+    <hyperlink ref="I10" r:id="rId31" display="https://lennertamas.github.io/portio/" xr:uid="{A2626751-0112-4E76-A10A-85C60EE9BB4E}"/>
+    <hyperlink ref="I11" r:id="rId32" display="https://lennertamas.github.io/portio/" xr:uid="{508B38A7-0596-4376-8773-52AD9FC09673}"/>
+    <hyperlink ref="I12" r:id="rId33" display="https://lennertamas.github.io/portio/" xr:uid="{C1E1901C-4191-4D4B-B9F7-CB6D542295BF}"/>
+    <hyperlink ref="I14" r:id="rId34" display="https://lennertamas.github.io/portio/" xr:uid="{5E2ECBA0-F7A2-48D7-8224-0AE7A7833FC3}"/>
+    <hyperlink ref="I15" r:id="rId35" display="https://lennertamas.github.io/portio/" xr:uid="{434B07AA-8686-42DB-9410-6FF6DC9BAF25}"/>
+    <hyperlink ref="I16" r:id="rId36" display="https://lennertamas.github.io/portio/" xr:uid="{86DBC4AE-2899-48E4-856C-0CBF0B6D1861}"/>
+    <hyperlink ref="I17" r:id="rId37" display="https://lennertamas.github.io/portio/" xr:uid="{6F9C32C9-451E-4872-B5E7-04D81BF1AC24}"/>
+    <hyperlink ref="I19" r:id="rId38" display="https://lennertamas.github.io/portio/" xr:uid="{12909E83-CCE6-4832-A3AD-01357F520C8A}"/>
+    <hyperlink ref="I20" r:id="rId39" display="https://lennertamas.github.io/portio/" xr:uid="{0856EB36-7D78-47AE-B947-966662F7C106}"/>
+    <hyperlink ref="I27" r:id="rId40" display="https://lennertamas.github.io/portio/" xr:uid="{0656B3AD-BC4F-412D-A4B8-AA68D20EC4DD}"/>
+    <hyperlink ref="I29" r:id="rId41" display="https://lennertamas.github.io/portio/" xr:uid="{B8E7164B-56BC-403E-9A83-7C0B0F0F3462}"/>
+    <hyperlink ref="I31" r:id="rId42" display="https://lennertamas.github.io/portio/" xr:uid="{14C2FBE0-66CE-402E-8837-1782CDC7C30F}"/>
+    <hyperlink ref="I33" r:id="rId43" display="https://lennertamas.github.io/portio/" xr:uid="{FC464D31-FE5E-4F18-B2EA-C487BBFB3ECE}"/>
+    <hyperlink ref="I32" r:id="rId44" display="https://lennertamas.github.io/portio/" xr:uid="{67018819-8DCB-425F-849E-9AFD344F14AF}"/>
+    <hyperlink ref="I35" r:id="rId45" display="https://lennertamas.github.io/portio/" xr:uid="{69CE7E43-C474-442E-A58E-16E9FA863214}"/>
+    <hyperlink ref="I36" r:id="rId46" display="https://lennertamas.github.io/portio/" xr:uid="{D66BC4B0-76A7-428F-85F4-92195C91BFC2}"/>
+    <hyperlink ref="I37" r:id="rId47" display="https://lennertamas.github.io/portio/" xr:uid="{0689E529-882E-425E-A2AB-5A9733A500C0}"/>
+    <hyperlink ref="I39" r:id="rId48" display="https://lennertamas.github.io/portio/" xr:uid="{612CD351-9C47-4F53-AD43-126EB796D3EA}"/>
+    <hyperlink ref="D15" r:id="rId49" display="https://lennertamas.github.io/portio/" xr:uid="{84122B9E-7BFB-4580-B31F-31BA141A9EEE}"/>
+    <hyperlink ref="D32" r:id="rId50" display="https://lennertamas.github.io/portio/" xr:uid="{199514B6-0D88-4512-8033-44175954A678}"/>
+    <hyperlink ref="J39" r:id="rId51" display="https://lennertamas.github.io/portio/index.html" xr:uid="{6E9F6C38-7FC1-4563-B539-BBBC0751F97C}"/>
+    <hyperlink ref="K39" r:id="rId52" display="https://lennertamas.github.io/portio/index.html" xr:uid="{B7D9C7AB-323B-422A-9D31-3EFF64BDC216}"/>
+    <hyperlink ref="J10" r:id="rId53" display="https://lennertamas.github.io/portio/landing.html" xr:uid="{B3F69D57-718C-4E81-8B45-2FBFA7353942}"/>
+    <hyperlink ref="K10" r:id="rId54" display="https://lennertamas.github.io/portio/landing.html" xr:uid="{1865452C-5C1F-4251-AEBD-7FDD43038042}"/>
+    <hyperlink ref="J11" r:id="rId55" display="https://lennertamas.github.io/portio/" xr:uid="{DE6CE6A4-E77D-4243-9943-4574B491B064}"/>
+    <hyperlink ref="K11" r:id="rId56" display="https://lennertamas.github.io/portio/" xr:uid="{A71A9F25-402A-4FE0-88BF-730B69ACC110}"/>
+    <hyperlink ref="J12" r:id="rId57" display="https://lennertamas.github.io/portio/" xr:uid="{C27135F6-9818-4229-9C9A-C8E59B49C32B}"/>
+    <hyperlink ref="K12" r:id="rId58" display="https://lennertamas.github.io/portio/" xr:uid="{A2872217-01E8-4B86-B604-58E4F1AB43F7}"/>
+    <hyperlink ref="D36:D37" r:id="rId59" display="https://lennertamas.github.io/portio/" xr:uid="{C9C654F0-7472-4D00-887A-4E46BA7AA3F9}"/>
+    <hyperlink ref="J35" r:id="rId60" display="https://lennertamas.github.io/portio/contact/" xr:uid="{DD07DCA7-138C-4FB4-A8A8-C87E3AE0CB68}"/>
+    <hyperlink ref="K35" r:id="rId61" display="https://lennertamas.github.io/portio/contact/" xr:uid="{DDDECDF7-72E0-4005-AA34-95037F851E67}"/>
+    <hyperlink ref="K36" r:id="rId62" display="https://lennertamas.github.io/portio/" xr:uid="{60CD9C1F-77AD-4910-9E50-A10DFAA3E620}"/>
+    <hyperlink ref="J37" r:id="rId63" display="https://www.facebook.com/" xr:uid="{5D53DEAD-17FB-4FE8-BD12-1A16BFA2AC15}"/>
+    <hyperlink ref="K37" r:id="rId64" display="https://www.facebook.com/" xr:uid="{D31A0B56-385D-4FBC-9DAD-788E12D4376C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId6"/>
+  <pageSetup orientation="landscape" r:id="rId65"/>
 </worksheet>
 </file>
 

--- a/test_case_template.xlsx
+++ b/test_case_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyömbér Judit\IdeaProjects\TestingPortioWebpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8FE160-DCF2-4A38-A4F2-4C9FDFAF53B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B66D26-2B6D-4469-A24A-FFC1E12F5911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="hibák (bug)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$F$16:$F$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$F$16:$F$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="236">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -2376,9 +2376,6 @@
 10. A 2 kép összehasonlítása </t>
   </si>
   <si>
-    <t>Ismételt teszteset, az első tesztnél elkészíti a fájlt, a másodiknál törli.</t>
-  </si>
-  <si>
     <t>1. Adott oldalra navigálás
 2. Feltételek elfogadása
 3. Felhasználónév megadása
@@ -2578,6 +2575,74 @@
       </rPr>
       <t xml:space="preserve">
 https://www.facebook.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>Kép mentése fájl létrehozásával ismétlése</t>
+  </si>
+  <si>
+    <t>TC21 
+repeated</t>
+  </si>
+  <si>
+    <t>1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Blog linkre kattintás
+8. A képfájl tartalmának törlése</t>
+  </si>
+  <si>
+    <t>Sikeres törlés</t>
+  </si>
+  <si>
+    <t>Ismételt teszteset első része, elkészíti a fájlt és menti a képet</t>
+  </si>
+  <si>
+    <t>Ismételt teszteset második része, törli a fájlt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Felhasználónév: lovasia
+Jelszó: kispal123
+Fájl név:image2.jpg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
 </sst>
@@ -2836,18 +2901,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2914,12 +2967,120 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3323,10 +3484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3345,7 +3506,7 @@
     <col min="13" max="13" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="48.75" thickTop="1" thickBot="1">
+    <row r="1" spans="1:26" ht="33" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -3400,23 +3561,23 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -3432,7 +3593,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="35" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -3441,7 +3602,7 @@
       <c r="C3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>90</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -3456,7 +3617,7 @@
       <c r="H3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="32" t="s">
         <v>139</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -3484,14 +3645,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -3506,7 +3667,7 @@
       <c r="H4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="32" t="s">
         <v>139</v>
       </c>
       <c r="J4" s="10" t="s">
@@ -3534,23 +3695,23 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="21"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -3566,7 +3727,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="145.5" thickTop="1" thickBot="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="36" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -3575,7 +3736,7 @@
       <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>130</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -3590,7 +3751,7 @@
       <c r="H6" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="34" t="s">
         <v>159</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -3620,14 +3781,14 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
-      <c r="A7" s="15"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>128</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -3642,7 +3803,7 @@
       <c r="H7" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="34" t="s">
         <v>141</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -3672,14 +3833,14 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>129</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -3694,7 +3855,7 @@
       <c r="H8" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="34" t="s">
         <v>142</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -3724,23 +3885,23 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -3756,7 +3917,7 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -3765,7 +3926,7 @@
       <c r="C10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>131</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -3780,7 +3941,7 @@
       <c r="H10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J10" s="12" t="s">
@@ -3808,14 +3969,14 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
-      <c r="A11" s="15"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>154</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -3830,7 +3991,7 @@
       <c r="H11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="34" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="12" t="s">
@@ -3860,14 +4021,14 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
-      <c r="A12" s="15"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>155</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -3882,7 +4043,7 @@
       <c r="H12" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="34" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="12" t="s">
@@ -3912,23 +4073,23 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="25"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -3944,16 +4105,16 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>164</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -3968,7 +4129,7 @@
       <c r="H14" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="34" t="s">
         <v>143</v>
       </c>
       <c r="J14" s="5" t="s">
@@ -3996,14 +4157,14 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>165</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -4016,9 +4177,9 @@
         <v>89</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I15" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="34" t="s">
         <v>146</v>
       </c>
       <c r="J15" s="5" t="s">
@@ -4046,14 +4207,14 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="181.5" thickTop="1" thickBot="1">
-      <c r="A16" s="15"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="13" t="s">
         <v>168</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -4068,7 +4229,7 @@
       <c r="H16" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="34" t="s">
         <v>143</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -4096,14 +4257,14 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="193.5" thickTop="1" thickBot="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="13" t="s">
         <v>169</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4118,7 +4279,7 @@
       <c r="H17" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="34" t="s">
         <v>166</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -4146,23 +4307,23 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4178,7 +4339,7 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="35" t="s">
         <v>97</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -4187,7 +4348,7 @@
       <c r="C19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="13" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -4202,7 +4363,7 @@
       <c r="H19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="34" t="s">
         <v>143</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -4230,14 +4391,14 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
-      <c r="A20" s="16"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="13" t="s">
         <v>173</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -4252,7 +4413,7 @@
       <c r="H20" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="34" t="s">
         <v>147</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -4280,23 +4441,23 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4312,7 +4473,7 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="277.5" thickTop="1" thickBot="1">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="35" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -4321,7 +4482,7 @@
       <c r="C22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="13" t="s">
         <v>175</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -4336,7 +4497,7 @@
       <c r="H22" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="32" t="s">
         <v>149</v>
       </c>
       <c r="J22" s="5" t="s">
@@ -4366,14 +4527,14 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
-      <c r="A23" s="15"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="13" t="s">
         <v>176</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -4388,7 +4549,7 @@
       <c r="H23" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="32" t="s">
         <v>150</v>
       </c>
       <c r="J23" s="5" t="s">
@@ -4418,23 +4579,23 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="32"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="28"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4459,7 +4620,7 @@
       <c r="C25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="13" t="s">
         <v>193</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -4474,7 +4635,7 @@
       <c r="H25" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I25" s="36" t="s">
+      <c r="I25" s="32" t="s">
         <v>194</v>
       </c>
       <c r="J25" s="8" t="s">
@@ -4502,23 +4663,23 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="28" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="32"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="28"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -4543,7 +4704,7 @@
       <c r="C27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="13" t="s">
         <v>199</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -4558,7 +4719,7 @@
       <c r="H27" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="I27" s="32" t="s">
         <v>149</v>
       </c>
       <c r="J27" s="5" t="s">
@@ -4588,23 +4749,23 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="28" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="32"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="28"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4629,7 +4790,7 @@
       <c r="C29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -4644,7 +4805,7 @@
       <c r="H29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="38" t="s">
+      <c r="I29" s="34" t="s">
         <v>140</v>
       </c>
       <c r="J29" s="5" t="s">
@@ -4674,23 +4835,23 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="28" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="32"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -4706,7 +4867,7 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="35" t="s">
         <v>100</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -4715,7 +4876,7 @@
       <c r="C31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="13" t="s">
         <v>203</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -4730,7 +4891,7 @@
       <c r="H31" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="34" t="s">
         <v>152</v>
       </c>
       <c r="J31" s="5" t="s">
@@ -4758,14 +4919,14 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
-      <c r="A32" s="15"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="13" t="s">
         <v>204</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -4780,7 +4941,7 @@
       <c r="H32" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="34" t="s">
         <v>153</v>
       </c>
       <c r="J32" s="5" t="s">
@@ -4793,7 +4954,7 @@
         <v>29</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4809,16 +4970,16 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
-      <c r="A33" s="16"/>
+    <row r="33" spans="1:26" ht="166.5" thickTop="1" thickBot="1">
+      <c r="A33" s="36"/>
       <c r="B33" s="8" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>205</v>
+        <v>229</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>132</v>
@@ -4830,21 +4991,23 @@
         <v>89</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>151</v>
+        <v>231</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>235</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -4859,24 +5022,42 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A34" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="32"/>
+    <row r="34" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
+      <c r="A34" s="37"/>
+      <c r="B34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M34" s="3"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4891,44 +5072,24 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
-      <c r="A35" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" s="3"/>
+    <row r="35" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A35" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="28"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -4943,16 +5104,18 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="181.5" thickTop="1" thickBot="1">
-      <c r="A36" s="15"/>
+    <row r="36" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
+      <c r="A36" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="B36" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>215</v>
+        <v>99</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>132</v>
@@ -4964,19 +5127,19 @@
         <v>89</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I36" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="I36" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="J36" s="5" t="s">
-        <v>138</v>
+      <c r="J36" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="2"/>
@@ -4993,40 +5156,40 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
-      <c r="A37" s="16"/>
+    <row r="37" spans="1:26" ht="181.5" thickTop="1" thickBot="1">
+      <c r="A37" s="36"/>
       <c r="B37" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>216</v>
+        <v>73</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="I37" s="38" t="s">
+      <c r="H37" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I37" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="J37" s="12" t="s">
-        <v>228</v>
+      <c r="J37" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="2"/>
@@ -5043,24 +5206,42 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A38" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
+    <row r="38" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
+      <c r="A38" s="37"/>
+      <c r="B38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="3"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5075,44 +5256,24 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
-      <c r="A39" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="I39" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M39" s="3"/>
+    <row r="39" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A39" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -5127,20 +5288,44 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="25"/>
+    <row r="40" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
+      <c r="A40" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="3"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -5155,7 +5340,20 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
+    <row r="41" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="21"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -5170,19 +5368,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -9679,22 +9865,48 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="209" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2"/>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="2"/>
+      <c r="V209" s="2"/>
+      <c r="W209" s="2"/>
+      <c r="X209" s="2"/>
+      <c r="Y209" s="2"/>
+      <c r="Z209" s="2"/>
+    </row>
+    <row r="210" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="211" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="212" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="213" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="214" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="215" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="216" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="217" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="218" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="219" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="220" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="221" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="222" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="223" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="224" spans="2:26" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -10459,82 +10671,113 @@
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
     <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A31:A34"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A19:A20"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6:F8 F35:G37 F10:F40">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+  <conditionalFormatting sqref="F6:F8 F36:G38 F10:F31 F33:F41">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F8 F35:G37 F10:F40">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+  <conditionalFormatting sqref="F6:F8 F36:G38 F10:F31 F33:F41">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F8 F35:G37 F10:F40">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+  <conditionalFormatting sqref="F6:F8 F36:G38 F10:F31 F33:F41">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L8 L10:L40">
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+  <conditionalFormatting sqref="L6:L8 L10:L31 L33:L41">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L8 L10:L40">
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+  <conditionalFormatting sqref="L6:L8 L10:L31 L33:L41">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L8 L10:L40">
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+  <conditionalFormatting sqref="L6:L8 L10:L31 L33:L41">
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L5">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L5">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L5">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+      <formula>"Hiba"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Siker"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"Nem futtatható"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="L3:L8 L10:L40" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="L3:L8 L10:L41" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Siker,Nem futtatható,Hiba"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F3:F8 F35:G37 F10:F40" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F3:F8 F36:G38 F10:F41" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Magas,Normál,Alacsony"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10561,9 +10804,9 @@
     <hyperlink ref="D27" r:id="rId20" display="https://lennertamas.github.io/portio/" xr:uid="{D17F1796-7E62-45AE-8543-FA7C00BDF89A}"/>
     <hyperlink ref="D29" r:id="rId21" display="https://lennertamas.github.io/portio/" xr:uid="{636A6118-0EC1-4548-B758-900719BCB1BF}"/>
     <hyperlink ref="D31" r:id="rId22" display="https://lennertamas.github.io/portio/" xr:uid="{D2CE282B-196F-4FE6-987B-492708A2C904}"/>
-    <hyperlink ref="D33" r:id="rId23" display="https://lennertamas.github.io/portio/" xr:uid="{5716A2D4-7AC9-44F9-9C60-D45DFD1C1D4E}"/>
-    <hyperlink ref="D35" r:id="rId24" display="https://lennertamas.github.io/portio/" xr:uid="{90652411-4BB9-4025-A9AB-9D91B0C6F847}"/>
-    <hyperlink ref="D39" r:id="rId25" display="https://lennertamas.github.io/portio/" xr:uid="{5175931A-C186-4D23-B50E-B3B25863F599}"/>
+    <hyperlink ref="D34" r:id="rId23" display="https://lennertamas.github.io/portio/" xr:uid="{5716A2D4-7AC9-44F9-9C60-D45DFD1C1D4E}"/>
+    <hyperlink ref="D36" r:id="rId24" display="https://lennertamas.github.io/portio/" xr:uid="{90652411-4BB9-4025-A9AB-9D91B0C6F847}"/>
+    <hyperlink ref="D40" r:id="rId25" display="https://lennertamas.github.io/portio/" xr:uid="{5175931A-C186-4D23-B50E-B3B25863F599}"/>
     <hyperlink ref="I25" r:id="rId26" display="https://lennertamas.github.io/portio/" xr:uid="{1F946257-DF34-4F17-9812-724E4A4C5A91}"/>
     <hyperlink ref="I22" r:id="rId27" display="https://lennertamas.github.io/portio/" xr:uid="{02291B35-0183-4CFA-A956-1F703EFEE757}"/>
     <hyperlink ref="I23" r:id="rId28" display="https://lennertamas.github.io/portio/" xr:uid="{3BD9FE20-D3A7-4F5C-A22B-CCF61F106846}"/>
@@ -10581,31 +10824,33 @@
     <hyperlink ref="I27" r:id="rId40" display="https://lennertamas.github.io/portio/" xr:uid="{0656B3AD-BC4F-412D-A4B8-AA68D20EC4DD}"/>
     <hyperlink ref="I29" r:id="rId41" display="https://lennertamas.github.io/portio/" xr:uid="{B8E7164B-56BC-403E-9A83-7C0B0F0F3462}"/>
     <hyperlink ref="I31" r:id="rId42" display="https://lennertamas.github.io/portio/" xr:uid="{14C2FBE0-66CE-402E-8837-1782CDC7C30F}"/>
-    <hyperlink ref="I33" r:id="rId43" display="https://lennertamas.github.io/portio/" xr:uid="{FC464D31-FE5E-4F18-B2EA-C487BBFB3ECE}"/>
-    <hyperlink ref="I32" r:id="rId44" display="https://lennertamas.github.io/portio/" xr:uid="{67018819-8DCB-425F-849E-9AFD344F14AF}"/>
-    <hyperlink ref="I35" r:id="rId45" display="https://lennertamas.github.io/portio/" xr:uid="{69CE7E43-C474-442E-A58E-16E9FA863214}"/>
-    <hyperlink ref="I36" r:id="rId46" display="https://lennertamas.github.io/portio/" xr:uid="{D66BC4B0-76A7-428F-85F4-92195C91BFC2}"/>
-    <hyperlink ref="I37" r:id="rId47" display="https://lennertamas.github.io/portio/" xr:uid="{0689E529-882E-425E-A2AB-5A9733A500C0}"/>
-    <hyperlink ref="I39" r:id="rId48" display="https://lennertamas.github.io/portio/" xr:uid="{612CD351-9C47-4F53-AD43-126EB796D3EA}"/>
+    <hyperlink ref="I34" r:id="rId43" display="https://lennertamas.github.io/portio/" xr:uid="{FC464D31-FE5E-4F18-B2EA-C487BBFB3ECE}"/>
+    <hyperlink ref="I33" r:id="rId44" display="https://lennertamas.github.io/portio/" xr:uid="{67018819-8DCB-425F-849E-9AFD344F14AF}"/>
+    <hyperlink ref="I36" r:id="rId45" display="https://lennertamas.github.io/portio/" xr:uid="{69CE7E43-C474-442E-A58E-16E9FA863214}"/>
+    <hyperlink ref="I37" r:id="rId46" display="https://lennertamas.github.io/portio/" xr:uid="{D66BC4B0-76A7-428F-85F4-92195C91BFC2}"/>
+    <hyperlink ref="I38" r:id="rId47" display="https://lennertamas.github.io/portio/" xr:uid="{0689E529-882E-425E-A2AB-5A9733A500C0}"/>
+    <hyperlink ref="I40" r:id="rId48" display="https://lennertamas.github.io/portio/" xr:uid="{612CD351-9C47-4F53-AD43-126EB796D3EA}"/>
     <hyperlink ref="D15" r:id="rId49" display="https://lennertamas.github.io/portio/" xr:uid="{84122B9E-7BFB-4580-B31F-31BA141A9EEE}"/>
-    <hyperlink ref="D32" r:id="rId50" display="https://lennertamas.github.io/portio/" xr:uid="{199514B6-0D88-4512-8033-44175954A678}"/>
-    <hyperlink ref="J39" r:id="rId51" display="https://lennertamas.github.io/portio/index.html" xr:uid="{6E9F6C38-7FC1-4563-B539-BBBC0751F97C}"/>
-    <hyperlink ref="K39" r:id="rId52" display="https://lennertamas.github.io/portio/index.html" xr:uid="{B7D9C7AB-323B-422A-9D31-3EFF64BDC216}"/>
+    <hyperlink ref="D33" r:id="rId50" display="https://lennertamas.github.io/portio/" xr:uid="{199514B6-0D88-4512-8033-44175954A678}"/>
+    <hyperlink ref="J40" r:id="rId51" display="https://lennertamas.github.io/portio/index.html" xr:uid="{6E9F6C38-7FC1-4563-B539-BBBC0751F97C}"/>
+    <hyperlink ref="K40" r:id="rId52" display="https://lennertamas.github.io/portio/index.html" xr:uid="{B7D9C7AB-323B-422A-9D31-3EFF64BDC216}"/>
     <hyperlink ref="J10" r:id="rId53" display="https://lennertamas.github.io/portio/landing.html" xr:uid="{B3F69D57-718C-4E81-8B45-2FBFA7353942}"/>
     <hyperlink ref="K10" r:id="rId54" display="https://lennertamas.github.io/portio/landing.html" xr:uid="{1865452C-5C1F-4251-AEBD-7FDD43038042}"/>
     <hyperlink ref="J11" r:id="rId55" display="https://lennertamas.github.io/portio/" xr:uid="{DE6CE6A4-E77D-4243-9943-4574B491B064}"/>
     <hyperlink ref="K11" r:id="rId56" display="https://lennertamas.github.io/portio/" xr:uid="{A71A9F25-402A-4FE0-88BF-730B69ACC110}"/>
     <hyperlink ref="J12" r:id="rId57" display="https://lennertamas.github.io/portio/" xr:uid="{C27135F6-9818-4229-9C9A-C8E59B49C32B}"/>
     <hyperlink ref="K12" r:id="rId58" display="https://lennertamas.github.io/portio/" xr:uid="{A2872217-01E8-4B86-B604-58E4F1AB43F7}"/>
-    <hyperlink ref="D36:D37" r:id="rId59" display="https://lennertamas.github.io/portio/" xr:uid="{C9C654F0-7472-4D00-887A-4E46BA7AA3F9}"/>
-    <hyperlink ref="J35" r:id="rId60" display="https://lennertamas.github.io/portio/contact/" xr:uid="{DD07DCA7-138C-4FB4-A8A8-C87E3AE0CB68}"/>
-    <hyperlink ref="K35" r:id="rId61" display="https://lennertamas.github.io/portio/contact/" xr:uid="{DDDECDF7-72E0-4005-AA34-95037F851E67}"/>
-    <hyperlink ref="K36" r:id="rId62" display="https://lennertamas.github.io/portio/" xr:uid="{60CD9C1F-77AD-4910-9E50-A10DFAA3E620}"/>
-    <hyperlink ref="J37" r:id="rId63" display="https://www.facebook.com/" xr:uid="{5D53DEAD-17FB-4FE8-BD12-1A16BFA2AC15}"/>
-    <hyperlink ref="K37" r:id="rId64" display="https://www.facebook.com/" xr:uid="{D31A0B56-385D-4FBC-9DAD-788E12D4376C}"/>
+    <hyperlink ref="D37:D38" r:id="rId59" display="https://lennertamas.github.io/portio/" xr:uid="{C9C654F0-7472-4D00-887A-4E46BA7AA3F9}"/>
+    <hyperlink ref="J36" r:id="rId60" display="https://lennertamas.github.io/portio/contact/" xr:uid="{DD07DCA7-138C-4FB4-A8A8-C87E3AE0CB68}"/>
+    <hyperlink ref="K36" r:id="rId61" display="https://lennertamas.github.io/portio/contact/" xr:uid="{DDDECDF7-72E0-4005-AA34-95037F851E67}"/>
+    <hyperlink ref="K37" r:id="rId62" display="https://lennertamas.github.io/portio/" xr:uid="{60CD9C1F-77AD-4910-9E50-A10DFAA3E620}"/>
+    <hyperlink ref="J38" r:id="rId63" display="https://www.facebook.com/" xr:uid="{5D53DEAD-17FB-4FE8-BD12-1A16BFA2AC15}"/>
+    <hyperlink ref="K38" r:id="rId64" display="https://www.facebook.com/" xr:uid="{D31A0B56-385D-4FBC-9DAD-788E12D4376C}"/>
+    <hyperlink ref="I32" r:id="rId65" display="https://lennertamas.github.io/portio/" xr:uid="{8D8D45C8-F5C2-4472-95E4-1065CACD8B05}"/>
+    <hyperlink ref="D32" r:id="rId66" display="https://lennertamas.github.io/portio/" xr:uid="{E8402F03-AEDE-4C37-B79E-6F0AA4B6B06F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId65"/>
+  <pageSetup orientation="landscape" r:id="rId67"/>
 </worksheet>
 </file>
 
@@ -16704,62 +16949,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test_case_template.xlsx
+++ b/test_case_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyömbér Judit\IdeaProjects\TestingPortioWebpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B66D26-2B6D-4469-A24A-FFC1E12F5911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C4E1A7-2191-457E-9808-5FB0B761E38F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="hibák (bug)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$F$16:$F$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$F$16:$F$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="229">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -183,13 +183,6 @@
     <t>Bejelentkezés hiányos adatokkal</t>
   </si>
   <si>
-    <t>Warning message: Username or Password
-is not correct!</t>
-  </si>
-  <si>
-    <t>No warning message</t>
-  </si>
-  <si>
     <t>Kijelentkezés</t>
   </si>
   <si>
@@ -209,9 +202,6 @@
   </si>
   <si>
     <t>Magas</t>
-  </si>
-  <si>
-    <t>Message: User Registered!</t>
   </si>
   <si>
     <t>Normál</t>
@@ -637,10 +627,6 @@
 Google Chrome böngésző </t>
   </si>
   <si>
-    <t>Message:
-Oops! There was a problem.</t>
-  </si>
-  <si>
     <t>Sikeres bejelentkezések</t>
   </si>
   <si>
@@ -906,10 +892,6 @@
 Jelszó: kispal123
 Fájlnév: blogTitles.txt</t>
     </r>
-  </si>
-  <si>
-    <t>A profil szerkesztéséhez saját regisztráció szükséges
-Message: Profile edited!</t>
   </si>
   <si>
     <r>
@@ -2024,11 +2006,6 @@
 Sikeres törlés</t>
   </si>
   <si>
-    <t>A fiók törléséhez saját regisztráció szükséges
-Warning message: I am sure! Delete my account
-Message: Username or Password is not correct</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
 https://lennertamas.github.io/portio/
@@ -2578,72 +2555,28 @@
     </r>
   </si>
   <si>
-    <t>Kép mentése fájl létrehozásával ismétlése</t>
-  </si>
-  <si>
-    <t>TC21 
-repeated</t>
-  </si>
-  <si>
-    <t>1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Feltételezzük, hogy sikeres a
-    bejelentkezés
-7. Blog linkre kattintás
-8. A képfájl tartalmának törlése</t>
-  </si>
-  <si>
-    <t>Sikeres törlés</t>
-  </si>
-  <si>
-    <t>Ismételt teszteset első része, elkészíti a fájlt és menti a képet</t>
-  </si>
-  <si>
-    <t>Ismételt teszteset második része, törli a fájlt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="10"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Felhasználónév: lovasia
-Jelszó: kispal123
-Fájl név:image2.jpg
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="10"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>Figyelmeztetés: 
+Username or Password
+is not correct!</t>
+  </si>
+  <si>
+    <t>Üzenet: User Registered!</t>
+  </si>
+  <si>
+    <t>Nincs figyelmeztetés</t>
+  </si>
+  <si>
+    <t>A profil szerkesztéséhez saját regisztráció szükséges
+Üzenet: Profile edited!</t>
+  </si>
+  <si>
+    <t>Üzenet:
+Oops! There was a problem.</t>
+  </si>
+  <si>
+    <t>A fiók törléséhez saját regisztráció szükséges
+Megerősítés: I am sure! Delete my account
+Üzenet: Username or Password is not correct</t>
   </si>
 </sst>
 </file>
@@ -2984,55 +2917,7 @@
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3484,19 +3369,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z989"/>
+  <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="30.42578125" customWidth="1"/>
@@ -3508,7 +3393,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="33" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3560,13 +3445,13 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+    <row r="2" spans="1:26" ht="33" thickTop="1" thickBot="1">
       <c r="A2" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -3594,37 +3479,37 @@
     </row>
     <row r="3" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
       <c r="A3" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>29</v>
@@ -3647,34 +3532,34 @@
     <row r="4" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
       <c r="A4" s="38"/>
       <c r="B4" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>48</v>
@@ -3696,11 +3581,11 @@
     </row>
     <row r="5" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
@@ -3731,40 +3616,40 @@
         <v>49</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3783,40 +3668,40 @@
     <row r="7" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
       <c r="A7" s="36"/>
       <c r="B7" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>47</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>48</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -3835,40 +3720,40 @@
     <row r="8" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
       <c r="A8" s="37"/>
       <c r="B8" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>48</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3886,11 +3771,11 @@
     </row>
     <row r="9" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A9" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -3918,37 +3803,37 @@
     </row>
     <row r="10" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
       <c r="A10" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>29</v>
@@ -3971,40 +3856,40 @@
     <row r="11" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
       <c r="A11" s="36"/>
       <c r="B11" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -4023,40 +3908,40 @@
     <row r="12" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
       <c r="A12" s="36"/>
       <c r="B12" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="G12" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -4074,11 +3959,11 @@
     </row>
     <row r="13" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A13" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -4106,37 +3991,37 @@
     </row>
     <row r="14" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
       <c r="A14" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>29</v>
@@ -4162,31 +4047,31 @@
         <v>30</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>29</v>
@@ -4212,31 +4097,31 @@
         <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>29</v>
@@ -4262,31 +4147,31 @@
         <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>29</v>
@@ -4308,11 +4193,11 @@
     </row>
     <row r="18" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A18" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -4340,37 +4225,37 @@
     </row>
     <row r="19" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
       <c r="A19" s="35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>29</v>
@@ -4396,31 +4281,31 @@
         <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>29</v>
@@ -4442,11 +4327,11 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A21" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -4474,43 +4359,43 @@
     </row>
     <row r="22" spans="1:26" ht="277.5" thickTop="1" thickBot="1">
       <c r="A22" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4532,37 +4417,37 @@
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>48</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4580,11 +4465,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A24" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -4612,37 +4497,37 @@
     </row>
     <row r="25" spans="1:26" ht="253.5" thickTop="1" thickBot="1">
       <c r="A25" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>29</v>
@@ -4664,11 +4549,11 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A26" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -4696,43 +4581,43 @@
     </row>
     <row r="27" spans="1:26" ht="325.5" thickTop="1" thickBot="1">
       <c r="A27" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>48</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4750,11 +4635,11 @@
     </row>
     <row r="28" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A28" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
@@ -4782,43 +4667,43 @@
     </row>
     <row r="29" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
       <c r="A29" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4836,11 +4721,11 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A30" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -4868,37 +4753,37 @@
     </row>
     <row r="31" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
       <c r="A31" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>29</v>
@@ -4924,38 +4809,36 @@
         <v>41</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>233</v>
-      </c>
+      <c r="M32" s="3"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4970,44 +4853,42 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="166.5" thickTop="1" thickBot="1">
-      <c r="A33" s="36"/>
+    <row r="33" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
+      <c r="A33" s="37"/>
       <c r="B33" s="8" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="K33" s="5" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>234</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M33" s="3"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5022,42 +4903,24 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M34" s="3"/>
+    <row r="34" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A34" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="28"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -5072,24 +4935,44 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A35" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="24" t="s">
+    <row r="35" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
+      <c r="A35" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="28"/>
+      <c r="B35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="3"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -5104,42 +4987,40 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
-      <c r="A36" s="35" t="s">
-        <v>101</v>
-      </c>
+    <row r="36" spans="1:26" ht="181.5" thickTop="1" thickBot="1">
+      <c r="A36" s="36"/>
       <c r="B36" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="I36" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>225</v>
-      </c>
       <c r="L36" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="2"/>
@@ -5156,40 +5037,40 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="181.5" thickTop="1" thickBot="1">
-      <c r="A37" s="36"/>
+    <row r="37" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
+      <c r="A37" s="37"/>
       <c r="B37" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="J37" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="I37" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="K37" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="2"/>
@@ -5206,42 +5087,24 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I38" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" s="3"/>
+    <row r="38" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A38" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5256,24 +5119,44 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A39" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
+    <row r="39" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
+      <c r="A39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="3"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -5288,44 +5171,20 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
-      <c r="A40" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="I40" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M40" s="3"/>
+    <row r="40" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="21"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -5340,20 +5199,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="15"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="21"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -5368,7 +5214,19 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -9865,48 +9723,22 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" spans="2:26" ht="15.75" customHeight="1">
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
-      <c r="Q209" s="2"/>
-      <c r="R209" s="2"/>
-      <c r="S209" s="2"/>
-      <c r="T209" s="2"/>
-      <c r="U209" s="2"/>
-      <c r="V209" s="2"/>
-      <c r="W209" s="2"/>
-      <c r="X209" s="2"/>
-      <c r="Y209" s="2"/>
-      <c r="Z209" s="2"/>
-    </row>
-    <row r="210" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="211" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="212" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="213" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="214" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="215" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="216" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="217" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="218" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="219" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="220" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="221" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="222" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="223" spans="2:26" ht="15.75" customHeight="1"/>
-    <row r="224" spans="2:26" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -10671,113 +10503,112 @@
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
     <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A19:A20"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6:F8 F36:G38 F10:F31 F33:F41">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+  <conditionalFormatting sqref="F6:F8 F35:G37 F10:F31 F33:F40">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F8 F36:G38 F10:F31 F33:F41">
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+  <conditionalFormatting sqref="F6:F8 F35:G37 F10:F31 F33:F40">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F8 F36:G38 F10:F31 F33:F41">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+  <conditionalFormatting sqref="F6:F8 F35:G37 F10:F31 F33:F40">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L8 L10:L31 L33:L41">
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+  <conditionalFormatting sqref="L6:L8 L10:L31 L33:L40">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L8 L10:L31 L33:L41">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+  <conditionalFormatting sqref="L6:L8 L10:L31 L33:L40">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L8 L10:L31 L33:L41">
-    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
+  <conditionalFormatting sqref="L6:L8 L10:L31 L33:L40">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L5">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L5">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L5">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="L3:L8 L10:L41" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="L3:L8 L10:L40" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Siker,Nem futtatható,Hiba"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F3:F8 F36:G38 F10:F41" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F3:F8 F35:G37 F10:F40" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Magas,Normál,Alacsony"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10804,9 +10635,9 @@
     <hyperlink ref="D27" r:id="rId20" display="https://lennertamas.github.io/portio/" xr:uid="{D17F1796-7E62-45AE-8543-FA7C00BDF89A}"/>
     <hyperlink ref="D29" r:id="rId21" display="https://lennertamas.github.io/portio/" xr:uid="{636A6118-0EC1-4548-B758-900719BCB1BF}"/>
     <hyperlink ref="D31" r:id="rId22" display="https://lennertamas.github.io/portio/" xr:uid="{D2CE282B-196F-4FE6-987B-492708A2C904}"/>
-    <hyperlink ref="D34" r:id="rId23" display="https://lennertamas.github.io/portio/" xr:uid="{5716A2D4-7AC9-44F9-9C60-D45DFD1C1D4E}"/>
-    <hyperlink ref="D36" r:id="rId24" display="https://lennertamas.github.io/portio/" xr:uid="{90652411-4BB9-4025-A9AB-9D91B0C6F847}"/>
-    <hyperlink ref="D40" r:id="rId25" display="https://lennertamas.github.io/portio/" xr:uid="{5175931A-C186-4D23-B50E-B3B25863F599}"/>
+    <hyperlink ref="D33" r:id="rId23" display="https://lennertamas.github.io/portio/" xr:uid="{5716A2D4-7AC9-44F9-9C60-D45DFD1C1D4E}"/>
+    <hyperlink ref="D35" r:id="rId24" display="https://lennertamas.github.io/portio/" xr:uid="{90652411-4BB9-4025-A9AB-9D91B0C6F847}"/>
+    <hyperlink ref="D39" r:id="rId25" display="https://lennertamas.github.io/portio/" xr:uid="{5175931A-C186-4D23-B50E-B3B25863F599}"/>
     <hyperlink ref="I25" r:id="rId26" display="https://lennertamas.github.io/portio/" xr:uid="{1F946257-DF34-4F17-9812-724E4A4C5A91}"/>
     <hyperlink ref="I22" r:id="rId27" display="https://lennertamas.github.io/portio/" xr:uid="{02291B35-0183-4CFA-A956-1F703EFEE757}"/>
     <hyperlink ref="I23" r:id="rId28" display="https://lennertamas.github.io/portio/" xr:uid="{3BD9FE20-D3A7-4F5C-A22B-CCF61F106846}"/>
@@ -10824,33 +10655,31 @@
     <hyperlink ref="I27" r:id="rId40" display="https://lennertamas.github.io/portio/" xr:uid="{0656B3AD-BC4F-412D-A4B8-AA68D20EC4DD}"/>
     <hyperlink ref="I29" r:id="rId41" display="https://lennertamas.github.io/portio/" xr:uid="{B8E7164B-56BC-403E-9A83-7C0B0F0F3462}"/>
     <hyperlink ref="I31" r:id="rId42" display="https://lennertamas.github.io/portio/" xr:uid="{14C2FBE0-66CE-402E-8837-1782CDC7C30F}"/>
-    <hyperlink ref="I34" r:id="rId43" display="https://lennertamas.github.io/portio/" xr:uid="{FC464D31-FE5E-4F18-B2EA-C487BBFB3ECE}"/>
-    <hyperlink ref="I33" r:id="rId44" display="https://lennertamas.github.io/portio/" xr:uid="{67018819-8DCB-425F-849E-9AFD344F14AF}"/>
-    <hyperlink ref="I36" r:id="rId45" display="https://lennertamas.github.io/portio/" xr:uid="{69CE7E43-C474-442E-A58E-16E9FA863214}"/>
-    <hyperlink ref="I37" r:id="rId46" display="https://lennertamas.github.io/portio/" xr:uid="{D66BC4B0-76A7-428F-85F4-92195C91BFC2}"/>
-    <hyperlink ref="I38" r:id="rId47" display="https://lennertamas.github.io/portio/" xr:uid="{0689E529-882E-425E-A2AB-5A9733A500C0}"/>
-    <hyperlink ref="I40" r:id="rId48" display="https://lennertamas.github.io/portio/" xr:uid="{612CD351-9C47-4F53-AD43-126EB796D3EA}"/>
-    <hyperlink ref="D15" r:id="rId49" display="https://lennertamas.github.io/portio/" xr:uid="{84122B9E-7BFB-4580-B31F-31BA141A9EEE}"/>
-    <hyperlink ref="D33" r:id="rId50" display="https://lennertamas.github.io/portio/" xr:uid="{199514B6-0D88-4512-8033-44175954A678}"/>
-    <hyperlink ref="J40" r:id="rId51" display="https://lennertamas.github.io/portio/index.html" xr:uid="{6E9F6C38-7FC1-4563-B539-BBBC0751F97C}"/>
-    <hyperlink ref="K40" r:id="rId52" display="https://lennertamas.github.io/portio/index.html" xr:uid="{B7D9C7AB-323B-422A-9D31-3EFF64BDC216}"/>
-    <hyperlink ref="J10" r:id="rId53" display="https://lennertamas.github.io/portio/landing.html" xr:uid="{B3F69D57-718C-4E81-8B45-2FBFA7353942}"/>
-    <hyperlink ref="K10" r:id="rId54" display="https://lennertamas.github.io/portio/landing.html" xr:uid="{1865452C-5C1F-4251-AEBD-7FDD43038042}"/>
-    <hyperlink ref="J11" r:id="rId55" display="https://lennertamas.github.io/portio/" xr:uid="{DE6CE6A4-E77D-4243-9943-4574B491B064}"/>
-    <hyperlink ref="K11" r:id="rId56" display="https://lennertamas.github.io/portio/" xr:uid="{A71A9F25-402A-4FE0-88BF-730B69ACC110}"/>
-    <hyperlink ref="J12" r:id="rId57" display="https://lennertamas.github.io/portio/" xr:uid="{C27135F6-9818-4229-9C9A-C8E59B49C32B}"/>
-    <hyperlink ref="K12" r:id="rId58" display="https://lennertamas.github.io/portio/" xr:uid="{A2872217-01E8-4B86-B604-58E4F1AB43F7}"/>
-    <hyperlink ref="D37:D38" r:id="rId59" display="https://lennertamas.github.io/portio/" xr:uid="{C9C654F0-7472-4D00-887A-4E46BA7AA3F9}"/>
-    <hyperlink ref="J36" r:id="rId60" display="https://lennertamas.github.io/portio/contact/" xr:uid="{DD07DCA7-138C-4FB4-A8A8-C87E3AE0CB68}"/>
-    <hyperlink ref="K36" r:id="rId61" display="https://lennertamas.github.io/portio/contact/" xr:uid="{DDDECDF7-72E0-4005-AA34-95037F851E67}"/>
-    <hyperlink ref="K37" r:id="rId62" display="https://lennertamas.github.io/portio/" xr:uid="{60CD9C1F-77AD-4910-9E50-A10DFAA3E620}"/>
-    <hyperlink ref="J38" r:id="rId63" display="https://www.facebook.com/" xr:uid="{5D53DEAD-17FB-4FE8-BD12-1A16BFA2AC15}"/>
-    <hyperlink ref="K38" r:id="rId64" display="https://www.facebook.com/" xr:uid="{D31A0B56-385D-4FBC-9DAD-788E12D4376C}"/>
-    <hyperlink ref="I32" r:id="rId65" display="https://lennertamas.github.io/portio/" xr:uid="{8D8D45C8-F5C2-4472-95E4-1065CACD8B05}"/>
-    <hyperlink ref="D32" r:id="rId66" display="https://lennertamas.github.io/portio/" xr:uid="{E8402F03-AEDE-4C37-B79E-6F0AA4B6B06F}"/>
+    <hyperlink ref="I33" r:id="rId43" display="https://lennertamas.github.io/portio/" xr:uid="{FC464D31-FE5E-4F18-B2EA-C487BBFB3ECE}"/>
+    <hyperlink ref="I35" r:id="rId44" display="https://lennertamas.github.io/portio/" xr:uid="{69CE7E43-C474-442E-A58E-16E9FA863214}"/>
+    <hyperlink ref="I36" r:id="rId45" display="https://lennertamas.github.io/portio/" xr:uid="{D66BC4B0-76A7-428F-85F4-92195C91BFC2}"/>
+    <hyperlink ref="I37" r:id="rId46" display="https://lennertamas.github.io/portio/" xr:uid="{0689E529-882E-425E-A2AB-5A9733A500C0}"/>
+    <hyperlink ref="I39" r:id="rId47" display="https://lennertamas.github.io/portio/" xr:uid="{612CD351-9C47-4F53-AD43-126EB796D3EA}"/>
+    <hyperlink ref="D15" r:id="rId48" display="https://lennertamas.github.io/portio/" xr:uid="{84122B9E-7BFB-4580-B31F-31BA141A9EEE}"/>
+    <hyperlink ref="J39" r:id="rId49" display="https://lennertamas.github.io/portio/index.html" xr:uid="{6E9F6C38-7FC1-4563-B539-BBBC0751F97C}"/>
+    <hyperlink ref="K39" r:id="rId50" display="https://lennertamas.github.io/portio/index.html" xr:uid="{B7D9C7AB-323B-422A-9D31-3EFF64BDC216}"/>
+    <hyperlink ref="J10" r:id="rId51" display="https://lennertamas.github.io/portio/landing.html" xr:uid="{B3F69D57-718C-4E81-8B45-2FBFA7353942}"/>
+    <hyperlink ref="K10" r:id="rId52" display="https://lennertamas.github.io/portio/landing.html" xr:uid="{1865452C-5C1F-4251-AEBD-7FDD43038042}"/>
+    <hyperlink ref="J11" r:id="rId53" display="https://lennertamas.github.io/portio/" xr:uid="{DE6CE6A4-E77D-4243-9943-4574B491B064}"/>
+    <hyperlink ref="K11" r:id="rId54" display="https://lennertamas.github.io/portio/" xr:uid="{A71A9F25-402A-4FE0-88BF-730B69ACC110}"/>
+    <hyperlink ref="J12" r:id="rId55" display="https://lennertamas.github.io/portio/" xr:uid="{C27135F6-9818-4229-9C9A-C8E59B49C32B}"/>
+    <hyperlink ref="K12" r:id="rId56" display="https://lennertamas.github.io/portio/" xr:uid="{A2872217-01E8-4B86-B604-58E4F1AB43F7}"/>
+    <hyperlink ref="D36:D37" r:id="rId57" display="https://lennertamas.github.io/portio/" xr:uid="{C9C654F0-7472-4D00-887A-4E46BA7AA3F9}"/>
+    <hyperlink ref="J35" r:id="rId58" display="https://lennertamas.github.io/portio/contact/" xr:uid="{DD07DCA7-138C-4FB4-A8A8-C87E3AE0CB68}"/>
+    <hyperlink ref="K35" r:id="rId59" display="https://lennertamas.github.io/portio/contact/" xr:uid="{DDDECDF7-72E0-4005-AA34-95037F851E67}"/>
+    <hyperlink ref="K36" r:id="rId60" display="https://lennertamas.github.io/portio/" xr:uid="{60CD9C1F-77AD-4910-9E50-A10DFAA3E620}"/>
+    <hyperlink ref="J37" r:id="rId61" display="https://www.facebook.com/" xr:uid="{5D53DEAD-17FB-4FE8-BD12-1A16BFA2AC15}"/>
+    <hyperlink ref="K37" r:id="rId62" display="https://www.facebook.com/" xr:uid="{D31A0B56-385D-4FBC-9DAD-788E12D4376C}"/>
+    <hyperlink ref="I32" r:id="rId63" display="https://lennertamas.github.io/portio/" xr:uid="{8D8D45C8-F5C2-4472-95E4-1065CACD8B05}"/>
+    <hyperlink ref="D32" r:id="rId64" display="https://lennertamas.github.io/portio/" xr:uid="{E8402F03-AEDE-4C37-B79E-6F0AA4B6B06F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId67"/>
+  <pageSetup orientation="landscape" r:id="rId65"/>
 </worksheet>
 </file>
 
@@ -16949,62 +16778,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test_case_template.xlsx
+++ b/test_case_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyömbér Judit\IdeaProjects\TestingPortioWebpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C4E1A7-2191-457E-9808-5FB0B761E38F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF3590C-D053-4DBD-A5A2-DCEA21B22E3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="250">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -302,24 +302,6 @@
     <t>Gyömbér Judit</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Az oldalra érkeve felugró ablakban megjelenik az adatkezelési nyilatkozat, melyet az OK gombra kattintva el kell fogadni.
-</t>
-    </r>
-  </si>
-  <si>
     <t>Új adat bevitel</t>
   </si>
   <si>
@@ -425,202 +407,7 @@
     <t>12.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Az oldalra érkeve felugró ablakban megjelenik az adatkezelési nyilatkozat, melyet a jobb felső sarokban lévő CloseIcon-ra kattintva elutasít a felhasználó.
-</t>
-    </r>
-  </si>
-  <si>
     <t>Profil beállítás</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Az adatkezelési nyilatkozat elfogadása után, a regisztráció oldalra navigálva </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>regisztrálás hiányzó jelszóval.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Az adatkezelési nyilatkozat elfogadása után, a regisztráció oldalra navigálva </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>regisztrálás helytelen email címmel.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Az adatkezelési nyilatkozat elfogadása után, a regisztráció oldalra navigálva </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>regisztrálás helyes adatokkal.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Az adatkezelési nyilatkozat elfogadása után, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bejelentkezés</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> már előzetesen regisztrált </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>helyes adatokkal.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Működő internetkapcsolat
@@ -1190,6 +977,1060 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Register gombra kattintás
+4. Felhasználónév megadása
+5. Jelszó megadása
+6. Email megadása
+7. Register gombra kattintás
+8. Sikeres regisztráció  
+    ellenőrzése
+9. A várt üzenet ellenőrzése
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. A felugró ablak
+    megjelenésének ellenőrzése
+3. Kattintás a Close Icon-ra
+4. Annak ellenőrzése, hogy nem
+    érkeztünk meg a LoginPage-re
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. A felugró ablak
+    megjelenésének ellenőrzése
+3. Feltételek elfogadása
+4. A LoginPage-re érkezés
+    ellenőrzése
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Felhasználónév: teszteszter
+Jelszó: teszt
+Email: teszteszter5@gmail.com
+Várt üzenet: User registered!</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Register gombra kattintás
+4. Felhasználónév megadása
+5. Jelszó megadása
+6. Email megadása
+7. Register2 gombra kattintás
+8. Feltételezzük, hogy sikertelen 
+    a regisztráció
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Az elvárt URL-t összehasonlítjuk
+    az aktuális URL-lel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy még mindig
+    az adott URL érvényes
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Experiences gombhoz görgetés
+8. Experiences gombra kattintás
+9. Experiences mennyiségének 
+    ellenőrzése 
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Felhasználónév: lovasia
+Jelszó: kispal123
+Fájlnév: contactInfo.json
+Keys: title
+Values: data </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Skills linkre kattintás
+9. Az adott HashMap adatainak és
+   a weboldalon látható értékeknek
+   az összehasonlítása
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Hire Me Now gombra kattintás
+8. Sikeres ContactPage-re  
+     navigálás ellenőrzése
+9. Az ott látható Contact info
+    összehasonlítása a HashMap-be
+    parsolt JSON fájl tartalmával
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Blog linkre kattintás
+8. See All Posts gombra kattintás
+9. BlogPage-re érkezés ellenőrzése
+10. A blogok számának
+      összeszámolása 
+11. A lapozás során a BlogPage2-ra
+      érkezés ellenőrzése
+12. A blogok számának ellenőrzése
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Blog linkre kattintás
+8. See All Posts gombra kattintás
+9. BlogPage-re érkezés ellenőrzése
+10. A blogok címeinek az adott fájlba
+      írása
+11. A lapozás során a BlogPage2-ra
+      érkezés ellenőrzése
+12. A fájl tartalmának ellenőrzése
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Regisztráció gombra kattintás
+4. Felhasználónév megadása
+5. Jelszó megadása
+6. Email cím megadása
+7. Regisztrácó2 gombra kattintás
+8. Sikeres regisztráció ellenőrzése
+9. Login gombra kattintás
+10. Felhasználónév megadása
+11. Jelszó megadása
+12. Login gombra kattintás
+13. Sikeres bejelentkezés
+      ellenőrzése
+14. Profil gombra kattintás
+15. Név megadása
+16. Nem megadása
+17. Telefonszám megadása
+18. Save Profile gombra kettintás
+19. A várt üzenet összehasonlítása
+     az aktuálissal
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikeres regisztráció
+Sikeres belépés
+A profil adatok sikeres mentése
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Contact Me gombra kattintás
+8. Név megadása
+9. Email megadása
+10. Üzenet írása
+11. Checkbox bepipálása
+12. Send Message gombra kattintás
+13. Az üzenet küldés sikerességének
+      ellenőrzése</t>
+  </si>
+  <si>
+    <t>Sikeres belépés
+Sikeres üzenetküldés</t>
+  </si>
+  <si>
+    <t>Sikeres belépés
+Sikertelen üzenetküldés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felugróablak megjelenése
+A LoginPage sikeres megnyitása  </t>
+  </si>
+  <si>
+    <t>Sikeres regisztráció
+Üzenet: User registered!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Felhasználónév: lovasia
+Jelszó: kispal123</t>
+    </r>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés
+4 db tapasztalat van a felsorolásban</t>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés
+A cégek megnevezése: 
+Umbrella co.
+Aperture Science 
+ACME Inc. 
+LexCorp.</t>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés
+A kulcs - érték párok megegyeznek
+HTML - 69 
+CSS - 60
+  Javascript - 85</t>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés
+A kulcs - érték párok megegyeznek
+HTML - 69 
+CSS - 60
+  Javascript - 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikeres bejelentkezés
+A kulcs-érték párok megegyeznek
+Office Address - 23 Khan Niketon, Grand Street, NYK
+Phone &amp; Email - +(448) 833 5272 332
+hello@example.com
+Working Hours - Open from 10am to 6pm (close at 5pm Sundays)
+</t>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés
+Sikeres navigálás a BlogPage-re
+Sikeres navigálás a BlogPage2-re
+9 db blog van</t>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés
+Sikeres navigálás a BlogPage-re
+Sikeres navigálás a BlogPage2-re
+A 9 blog címe:
+Markdown Formatting Demo 
+Designer Conference at Florida 2020
+Benjamin Franklins thoughts about new designers 
+Designers thoughts about mobile UI How to become acreative designer
+  New designers limitations
+  Things you must know as a designer
+World's Most Famous App Developers and Designers
+You must know this before becoming a designer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Fájlnév: users.json
+Felhasználónév 1: lovasia
+Jelszó 1: kispal123
+Felhasználónév 2: kisst
+Jelszó 2: quimby123 
+Felhasználónév 3: beckz
+Jelszó 3: 30y123</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév 1 megadása
+4. Jelszó 1 megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. LoginPage-re navigálás
+8. Felhasználónév 2 megadása
+9. Jelszó 2 megadása
+10. Login gombra kattintás
+11. Feltételezzük, hogy sikeres a
+    bejelentkezés
+12. LoginPage-re navigálás
+13. Felhasználónév 3 megadása
+14. Jelszó 3 megadása
+15. Login gombra kattintás
+16. Feltételezzük, hogy sikeres a
+    bejelentkezés
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Regisztráció gombra kattintás
+4. Felhasználónév megadása
+5. Jelszó megadása
+6. Email cím megadása
+7. Regisztrácó2 gombra kattintás
+8. Sikeres regisztráció ellenőrzése
+9. Login gombra kattintás
+10. Felhasználónév megadása
+11. Jelszó megadása
+12. Login gombra kattintás
+13. Sikeres bejelentkezés
+      ellenőrzése
+14. Profil gombra kattintás
+15. Név megadása
+16. Nem megadása
+17. Telefonszám megadása
+18. Save Profile gombra kettintás
+19. A várt üzenet összehasonlítása
+     az aktuálissal
+20. HomePage-re navigálás
+21. Felhasználónév megtekintése és
+      összehasonlítása a megadott
+      névvel.
+</t>
+  </si>
+  <si>
+    <t>Sikeres regisztráció
+Sikeres belépés
+A profil adatok sikeres mentése
+Felhasználónév megjelenése a profilon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sikeres regisztráció
+Sikeres belépés
+A profil adatok sikeres mentése
+Nem jelenik meg a felhasználónév a profilon</t>
+  </si>
+  <si>
+    <t>Sikeres regisztráció
+Sikeres belépés
+Törléskor megerősítés kérése
+Sikeres törlés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Logout gombra kattintás
+8. Sikeres kijelentkezés ellenőrzése
+9. A várt LogoutPage url
+    összehasonlítása az aktuális url-lel
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres kijelentkezés
+Elvárt URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/index.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres kijelentkezés
+Aktuális URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/index.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres bejelentkezés
+a LandingPage-re
+Elvárt URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/landing.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres bejelentkezés
+a LandingPage-re
+Aktuális URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/landing.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikertelen bejelentkezés
+Elvárt URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikertelen bejelentkezés
+Aktuális URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Blog linkre kattintás
+8. A második kép lementése meglévő
+    fájlba
+9. A kép letöltése a netről az
+    összehasonlításhoz
+10. A 2 kép összehasonlítása </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Blog linkre kattintás
+8. A harmadik kép lementése
+    fájl készítésével együtt
+9. A kép letöltése a netről az
+    összehasonlításhoz
+10. A 2 kép összehasonlítása </t>
+  </si>
+  <si>
+    <t>1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. About linkre kattintás
+8. Vagy legörgetés a Download
+    gombhoz (mikor melyik működik)
+9. Download gomra kattintás
+10. Sikeres letöltés ellenőrzése</t>
+  </si>
+  <si>
+    <t>1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Hire Me Now gombra kattintás
+8. A ContactPage oldalra való sikeres
+    navigálás ellenőrzése</t>
+  </si>
+  <si>
+    <t>1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Legörgetés a footerben lévő Privacy
+    and Policy linkhez
+8. A Privacy and Policy linkre kattintás
+9. Feltételezzük, hogy nem dobott ki
+    az oldal és elérjük a dokumentumot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Legörgetés a footerben lévő
+    Facebbok ikonhoz
+8. A Facebook ikonra kattintás
+9. A Facebook oldalára való sikeres
+    navigálás ellenőrzése
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Experiences gombhoz görgetés
+8. Experiences gombra kattintás
+9. Az adott fájl tartalmának és a
+   weboldalon látható
+   cégneveknek az összehasonlítása
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres navigáció
+Elvárt URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/contact/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres navigáció
+Aktuális URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/contact/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikertelen navigáció
+Az aktuális URL a LoginPage:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres navigáció
+Elvárt URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.facebook.com/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikeres navigáció
+Aktuális URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.facebook.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>Figyelmeztetés: 
+Username or Password
+is not correct!</t>
+  </si>
+  <si>
+    <t>Üzenet: User Registered!</t>
+  </si>
+  <si>
+    <t>Nincs figyelmeztetés</t>
+  </si>
+  <si>
+    <t>A profil szerkesztéséhez saját regisztráció szükséges
+Üzenet: Profile edited!</t>
+  </si>
+  <si>
+    <t>Üzenet:
+Oops! There was a problem.</t>
+  </si>
+  <si>
+    <t>A fiók törléséhez saját regisztráció szükséges
+Megerősítés: I am sure! Delete my account
+Üzenet: Username or Password is not correct</t>
+  </si>
+  <si>
+    <t>Bug #5</t>
+  </si>
+  <si>
+    <t>Bug #6</t>
+  </si>
+  <si>
+    <t>Bug #7</t>
+  </si>
+  <si>
+    <t>Fejlesztő</t>
+  </si>
+  <si>
+    <t>Felugróablak megjelenése
+A LoginPage-re navigálás sikertelen</t>
+  </si>
+  <si>
+    <t>1. Adott oldalra navigálás
+2. A felugró ablak
+    megjelenésének ellenőrzése
+3. Kattintás a Close Icon-ra
+4. Annak ellenőrzése, hogy nem
+    érkeztünk meg a LoginPage
+    re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Register gombra kattintás
+4. Felhasználónév megadása
+5. Jelszó megadása
+6. Helytelen email megadása
+7. Register2 gombra kattintás
+8. Feltételezzük, hogy sikertelen 
+    a regisztráció
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Register gombra kattintás
+4. Felhasználónév megadása
+5. Üres jelszó megadása
+6. Email megadása
+7. Register2 gombra kattintás
+8. Feltételezzük, hogy sikertelen 
+    a regisztráció
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Sikeres bejelentkezés
+    ellenőrzése
+7. Contact Me gombra kattintás
+8. Név megadása
+9. Email megadása
+10. Üzenet írása
+11. Checkbox bepipálása
+12. Send Message gombra kattintás
+13. Az üzenet küldés sikerességének ellenőrzése
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sikeres regisztráció
+Sikeres belépés
+A profil adatok sikeres mentése
+Nem jelenik meg a felhasználónév a profilon
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sikeres regisztráció
+Sikeres belépés
+A profil adatok sikeres mentése
+Felhasználónév megjelenése a profilon
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Regisztráció gombra kattintás
+4. Felhasználónév megadása
+5. Jelszó megadása
+6. Email cím megadása
+7. Regisztrácó2 gombra kattintás
+8. Sikeres regisztráció ellenőrzése
+9. Login gombra kattintás
+10. Felhasználónév megadása
+11. Jelszó megadása
+12. Login gombra kattintás
+13. Sikeres bejelentkezés
+      ellenőrzése
+14. Profil gombra kattintás
+15. Név megadása
+16. Nem megadása
+17. Telefonszám megadása
+18. Save Profile gombra kettintás
+19. A várt üzenet 
+     összehasonlítása
+     az aktuálissal
+20. HomePage-re navigálás
+21. Felhasználónév   
+      megtekintése és
+      összehasonlítása a 
+      megadott névvel.
+</t>
+  </si>
+  <si>
+    <t>Sikertelen navigáció</t>
+  </si>
+  <si>
+    <t>1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. Legörgetés a footerben lévő
+    Privacy and Policy linkhez
+8. A Privacy and Policy linkre
+    kattintás
+9. Feltételezzük, hogy nem
+    dobott ki az oldal és elérjük a
+    dokumentumot</t>
+  </si>
+  <si>
+    <t>1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Felhasználónév megadása
+4. Jelszó megadása
+5. Login gombra kattintás
+6. Feltételezzük, hogy sikeres a
+    bejelentkezés
+7. About linkre kattintás
+8. Vagy legörgetés a Download
+    gombhoz (mikor melyik
+    működik)
+9. Download gomra kattintás
+10. Sikeres letöltés ellenőrzése</t>
+  </si>
+  <si>
+    <t>Az oldalra érkezve felugró ablakban megjelenik az adatkezelési nyilatkozat, melyet a jobb felső sarokban lévő CloseIcon-ra kattintva elutasít a felhasználó.</t>
+  </si>
+  <si>
+    <t>Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után, a ContactPage-re navigálva üzenet küldése a Contact Form-mal</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">
 https://lennertamas.github.io/portio/
@@ -1203,7 +2044,121 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az adatkezelési nyilatkozat elfogadása után, </t>
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után, a ContactPage-re navigálva üzenet küldése a Contact Form-mal
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkezve felugró ablakban megjelenik az adatkezelési nyilatkozat, melyet az OK gombra kattintva el kell fogadni.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkezve felugró ablakban megjelenik az adatkezelési nyilatkozat, melyet a jobb felső sarokban lévő CloseIcon-ra kattintva elutasít a felhasználó.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása után, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bejelentkezé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s már előzetesen regisztrált adatokkal, de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hibás jelszóval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása után, </t>
     </r>
     <r>
       <rPr>
@@ -1263,7 +2218,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az adatkezelési nyilatkozat elfogadása után, </t>
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása után, </t>
     </r>
     <r>
       <rPr>
@@ -1274,7 +2229,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>bejelentkezé</t>
+      <t>bejelentkezés</t>
     </r>
     <r>
       <rPr>
@@ -1284,7 +2239,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">s már előzetesen regisztrált adatokkal, de </t>
+      <t xml:space="preserve"> már előzetesen regisztrált </t>
     </r>
     <r>
       <rPr>
@@ -1295,7 +2250,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>hibás jelszóval</t>
+      <t>helyes adatokkal.</t>
     </r>
     <r>
       <rPr>
@@ -1305,125 +2260,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.
+      <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Register gombra kattintás
-4. Felhasználónév megadása
-5. Jelszó megadása
-6. Email megadása
-7. Register gombra kattintás
-8. Sikeres regisztráció  
-    ellenőrzése
-9. A várt üzenet ellenőrzése
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. A felugró ablak
-    megjelenésének ellenőrzése
-3. Kattintás a Close Icon-ra
-4. Annak ellenőrzése, hogy nem
-    érkeztünk meg a LoginPage-re
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. A felugró ablak
-    megjelenésének ellenőrzése
-3. Feltételek elfogadása
-4. A LoginPage-re érkezés
-    ellenőrzése
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="10"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Felhasználónév: teszteszter
-Jelszó: teszt
-Email: teszteszter5@gmail.com
-Várt üzenet: User registered!</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Register gombra kattintás
-4. Felhasználónév megadása
-5. Jelszó megadása
-6. Email megadása
-7. Register2 gombra kattintás
-8. Feltételezzük, hogy sikertelen 
-    a regisztráció
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Feltételezzük, hogy sikeres a
-    bejelentkezés
-7. Az elvárt URL-t összehasonlítjuk
-    az aktuális URL-lel
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Feltételezzük, hogy még mindig
-    az adott URL érvényes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Sikeres bejelentkezés
-    ellenőrzése
-7. Experiences gombhoz görgetés
-8. Experiences gombra kattintás
-9. Experiences mennyiségének 
-    ellenőrzése 
-</t>
   </si>
   <si>
     <r>
@@ -1439,7 +2278,124 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a munkatapasztalatok </t>
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása után, a regisztráció oldalra navigálva </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regisztrálás helytelen email címmel.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása után, a regisztráció oldalra navigálva </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regisztrálás hiányzó jelszóval.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása után, a regisztráció oldalra navigálva </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regisztrálás helyes adatokkal.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+https://lennertamas.github.io/portio/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a munkatapasztalatok </t>
     </r>
     <r>
       <rPr>
@@ -1478,7 +2434,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a munkatapasztalatok </t>
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a munkatapasztalatok </t>
     </r>
     <r>
       <rPr>
@@ -1505,49 +2461,21 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="10"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
       <t xml:space="preserve">
 https://lennertamas.github.io/portio/
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <rFont val="Helvetica Neue"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Felhasználónév: lovasia
-Jelszó: kispal123
-Fájlnév: contactInfo.json
-Keys: title
-Values: data </t>
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után, a weboldalon látható ismeretek és azok mélységének összehasonlítása az adott HasMap tartalmával 
+</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Sikeres bejelentkezés
-    ellenőrzése
-7. Skills linkre kattintás
-9. Az adott HashMap adatainak és
-   a weboldalon látható értékeknek
-   az összehasonlítása
-</t>
   </si>
   <si>
     <r>
@@ -1563,7 +2491,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után, a weboldalon látható ismeretek és azok mélységének összehasonlítása az adott HasMap tartalmával 
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után, a ContactPage-re navigálva az ott lévő contact infót összehasonlítjuk az adott fájl tartalmával.
 </t>
     </r>
   </si>
@@ -1581,45 +2509,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után, a ContactPage-re navigálva az ott lévő contact infót összehasonlítjuk az adott fájl tartalmával.
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után,  a blogok számának összeszámlálása, lapozva a BlogPage-eken.
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Sikeres bejelentkezés
-    ellenőrzése
-7. Hire Me Now gombra kattintás
-8. Sikeres ContactPage-re  
-     navigálás ellenőrzése
-9. Az ott látható Contact info
-    összehasonlítása a HashMap-be
-    parsolt JSON fájl tartalmával
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Sikeres bejelentkezés
-    ellenőrzése
-7. Blog linkre kattintás
-8. See All Posts gombra kattintás
-9. BlogPage-re érkezés ellenőrzése
-10. A blogok számának
-      összeszámolása 
-11. A lapozás során a BlogPage2-ra
-      érkezés ellenőrzése
-12. A blogok számának ellenőrzése
-</t>
   </si>
   <si>
     <r>
@@ -1635,7 +2527,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után,  a blogok számának összeszámlálása, lapozva a BlogPage-eken.
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után, a blogok címeinek fájlba írása a BlogPage-eken lapzva és a címek összehasonlítása a a honlapon táthatóval.
 </t>
     </r>
   </si>
@@ -1653,28 +2545,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után, a blogok címeinek fájlba írása a BlogPage-eken lapzva és a címek összehasonlítása a a honlapon táthatóval.
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása, regisztráció és bejelentkezés után a ProfilePage-re navigálva a profil adatok megadása és elmentése.
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Sikeres bejelentkezés
-    ellenőrzése
-7. Blog linkre kattintás
-8. See All Posts gombra kattintás
-9. BlogPage-re érkezés ellenőrzése
-10. A blogok címeinek az adott fájlba
-      írása
-11. A lapozás során a BlogPage2-ra
-      érkezés ellenőrzése
-12. A fájl tartalmának ellenőrzése
-</t>
   </si>
   <si>
     <r>
@@ -1690,7 +2563,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása, regisztráció és bejelentkezés után a ProfilePage-re navigálva a profil adatok megadása és elmentése.
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása után sorozatos, ismételt bejelentkezés JSON fájlban megadott adatokkal.
 </t>
     </r>
   </si>
@@ -1708,162 +2581,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után, a ContactPage-re navigálva üzenet küldése a Contact Form-mal
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása, regisztráció, bejelentkezés és a profil adatok mentése után a pfrofilnév változásának ellenőrzése.
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Regisztráció gombra kattintás
-4. Felhasználónév megadása
-5. Jelszó megadása
-6. Email cím megadása
-7. Regisztrácó2 gombra kattintás
-8. Sikeres regisztráció ellenőrzése
-9. Login gombra kattintás
-10. Felhasználónév megadása
-11. Jelszó megadása
-12. Login gombra kattintás
-13. Sikeres bejelentkezés
-      ellenőrzése
-14. Profil gombra kattintás
-15. Név megadása
-16. Nem megadása
-17. Telefonszám megadása
-18. Save Profile gombra kettintás
-19. A várt üzenet összehasonlítása
-     az aktuálissal
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sikeres regisztráció
-Sikeres belépés
-A profil adatok sikeres mentése
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Sikeres bejelentkezés
-    ellenőrzése
-7. Contact Me gombra kattintás
-8. Név megadása
-9. Email megadása
-10. Üzenet írása
-11. Checkbox bepipálása
-12. Send Message gombra kattintás
-13. Az üzenet küldés sikerességének
-      ellenőrzése</t>
-  </si>
-  <si>
-    <t>Sikeres belépés
-Sikeres üzenetküldés</t>
-  </si>
-  <si>
-    <t>Sikeres belépés
-Sikertelen üzenetküldés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felugróablak megjelenése
-A LoginPage sikeres megnyitása  </t>
-  </si>
-  <si>
-    <t>Felugróablak megjelenése
-Figyelmeztető üzenet a      nyilatkozat elfogadására
-A Loginage-re navigálás sikertelen</t>
-  </si>
-  <si>
-    <t>Sikeres regisztráció
-Üzenet: User registered!</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="10"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Felhasználónév: lovasia
-Jelszó: kispal123</t>
-    </r>
-  </si>
-  <si>
-    <t>Sikeres bejelentkezés
-4 db tapasztalat van a felsorolásban</t>
-  </si>
-  <si>
-    <t>Sikeres bejelentkezés
-A cégek megnevezése: 
-Umbrella co.
-Aperture Science 
-ACME Inc. 
-LexCorp.</t>
-  </si>
-  <si>
-    <t>Sikeres bejelentkezés
-A kulcs - érték párok megegyeznek
-HTML - 69 
-CSS - 60
-  Javascript - 85</t>
-  </si>
-  <si>
-    <t>Sikeres bejelentkezés
-A kulcs - érték párok megegyeznek
-HTML - 69 
-CSS - 60
-  Javascript - 86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sikeres bejelentkezés
-A kulcs-érték párok megegyeznek
-Office Address - 23 Khan Niketon, Grand Street, NYK
-Phone &amp; Email - +(448) 833 5272 332
-hello@example.com
-Working Hours - Open from 10am to 6pm (close at 5pm Sundays)
-</t>
-  </si>
-  <si>
-    <t>Sikeres bejelentkezés
-Sikeres navigálás a BlogPage-re
-Sikeres navigálás a BlogPage2-re
-9 db blog van</t>
-  </si>
-  <si>
-    <t>Sikeres bejelentkezés
-Sikeres navigálás a BlogPage-re
-Sikeres navigálás a BlogPage2-re
-A 9 blog címe:
-Markdown Formatting Demo 
-Designer Conference at Florida 2020
-Benjamin Franklins thoughts about new designers 
-Designers thoughts about mobile UI How to become acreative designer
-  New designers limitations
-  Things you must know as a designer
-World's Most Famous App Developers and Designers
-You must know this before becoming a designer</t>
   </si>
   <si>
     <r>
@@ -1879,107 +2599,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása után sorozatos, ismételt bejelentkezés JSON fájlban megadott adatokkal.
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása, regisztráció és bejelentkezés után a ProfilePage-re navigálva a felhasználó fiókjának törlése.
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="10"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Fájlnév: users.json
-Felhasználónév 1: lovasia
-Jelszó 1: kispal123
-Felhasználónév 2: kisst
-Jelszó 2: quimby123 
-Felhasználónév 3: beckz
-Jelszó 3: 30y123</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév 1 megadása
-4. Jelszó 1 megadása
-5. Login gombra kattintás
-6. Feltételezzük, hogy sikeres a
-    bejelentkezés
-7. LoginPage-re navigálás
-8. Felhasználónév 2 megadása
-9. Jelszó 2 megadása
-10. Login gombra kattintás
-11. Feltételezzük, hogy sikeres a
-    bejelentkezés
-12. LoginPage-re navigálás
-13. Felhasználónév 3 megadása
-14. Jelszó 3 megadása
-15. Login gombra kattintás
-16. Feltételezzük, hogy sikeres a
-    bejelentkezés
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Regisztráció gombra kattintás
-4. Felhasználónév megadása
-5. Jelszó megadása
-6. Email cím megadása
-7. Regisztrácó2 gombra kattintás
-8. Sikeres regisztráció ellenőrzése
-9. Login gombra kattintás
-10. Felhasználónév megadása
-11. Jelszó megadása
-12. Login gombra kattintás
-13. Sikeres bejelentkezés
-      ellenőrzése
-14. Profil gombra kattintás
-15. Név megadása
-16. Nem megadása
-17. Telefonszám megadása
-18. Save Profile gombra kettintás
-19. A várt üzenet összehasonlítása
-     az aktuálissal
-20. HomePage-re navigálás
-21. Felhasználónév megtekintése és
-      összehasonlítása a megadott
-      névvel.
-</t>
-  </si>
-  <si>
-    <t>Sikeres regisztráció
-Sikeres belépés
-A profil adatok sikeres mentése
-Felhasználónév megjelenése a profilon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Sikeres regisztráció
-Sikeres belépés
-A profil adatok sikeres mentése
-Nem jelenik meg a felhasználónév a profilon</t>
   </si>
   <si>
     <r>
@@ -1995,15 +2617,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása, regisztráció, bejelentkezés és a profil adatok mentése után a pfrofilnév változásának ellenőrzése.
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása, bejelentkezés és a blog linkre kattintás után az egyik blog fotójának lementése meglévő fájlba.
 </t>
     </r>
-  </si>
-  <si>
-    <t>Sikeres regisztráció
-Sikeres belépés
-Törléskor megerősítés kérése
-Sikeres törlés</t>
   </si>
   <si>
     <r>
@@ -2019,7 +2635,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása, regisztráció és bejelentkezés után a ProfilePage-re navigálva a felhasználó fiókjának törlése.
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása, bejelentkezés és a blog linkre kattintás után az egyik blog fotójának lementése fájlba a fájl egyidejű létrehozásával. 
 </t>
     </r>
   </si>
@@ -2037,7 +2653,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása, bejelentkezés és a blog linkre kattintás után az egyik blog fotójának lementése meglévő fájlba.
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Download CV gombra kattintva a fájl letöltésének ellenőrzése.
 </t>
     </r>
   </si>
@@ -2055,7 +2671,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása, bejelentkezés és a blog linkre kattintás után az egyik blog fotójának lementése fájlba a fájl egyidejű létrehozásával. 
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Hire Me gombra kattintással navigálás a ContactPage oldalra.
 </t>
     </r>
   </si>
@@ -2073,181 +2689,8 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Download CV gombra kattintva a fájl letöltésének ellenőrzése.
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Privay and Policy linkre kattintással navigálás a dokumentumhoz.
 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Feltételezzük, hogy sikeres a
-    bejelentkezés
-7. Logout gombra kattintás
-8. Sikeres kijelentkezés ellenőrzése
-9. A várt LogoutPage url
-    összehasonlítása az aktuális url-lel
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sikeres kijelentkezés
-Elvárt URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/index.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sikeres kijelentkezés
-Aktuális URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/index.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sikeres bejelentkezés
-a LandingPage-re
-Elvárt URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/landing.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sikeres bejelentkezés
-a LandingPage-re
-Aktuális URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/landing.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sikertelen bejelentkezés
-Elvárt URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sikertelen bejelentkezés
-Aktuális URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/</t>
     </r>
   </si>
   <si>
@@ -2264,7 +2707,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után kijelentkezés az oldalról.
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Facebook linkre kattintással navigálás a Facebbok oldalára.
 </t>
     </r>
   </si>
@@ -2282,301 +2725,24 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Hire Me gombra kattintással navigálás a ContactPage oldalra.
+      <t xml:space="preserve">Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után kijelentkezés az oldalról.
 </t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Privay and Policy linkre kattintással navigálás a dokumentumhoz.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Az oldalra érkeve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Facebook linkre kattintással navigálás a Facebbok oldalára.
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Feltételezzük, hogy sikeres a
-    bejelentkezés
-7. Blog linkre kattintás
-8. A második kép lementése meglévő
-    fájlba
-9. A kép letöltése a netről az
-    összehasonlításhoz
-10. A 2 kép összehasonlítása </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Feltételezzük, hogy sikeres a
-    bejelentkezés
-7. Blog linkre kattintás
-8. A harmadik kép lementése
-    fájl készítésével együtt
-9. A kép letöltése a netről az
-    összehasonlításhoz
-10. A 2 kép összehasonlítása </t>
-  </si>
-  <si>
-    <t>1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Feltételezzük, hogy sikeres a
-    bejelentkezés
-7. About linkre kattintás
-8. Vagy legörgetés a Download
-    gombhoz (mikor melyik működik)
-9. Download gomra kattintás
-10. Sikeres letöltés ellenőrzése</t>
-  </si>
-  <si>
-    <t>1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Feltételezzük, hogy sikeres a
-    bejelentkezés
-7. Hire Me Now gombra kattintás
-8. A ContactPage oldalra való sikeres
-    navigálás ellenőrzése</t>
-  </si>
-  <si>
-    <t>1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Feltételezzük, hogy sikeres a
-    bejelentkezés
-7. Legörgetés a footerben lévő Privacy
-    and Policy linkhez
-8. A Privacy and Policy linkre kattintás
-9. Feltételezzük, hogy nem dobott ki
-    az oldal és elérjük a dokumentumot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Feltételezzük, hogy sikeres a
-    bejelentkezés
-7. Legörgetés a footerben lévő
-    Facebbok ikonhoz
-8. A Facebook ikonra kattintás
-9. A Facebook oldalára való sikeres
-    navigálás ellenőrzése
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Adott oldalra navigálás
-2. Feltételek elfogadása
-3. Felhasználónév megadása
-4. Jelszó megadása
-5. Login gombra kattintás
-6. Sikeres bejelentkezés
-    ellenőrzése
-7. Experiences gombhoz görgetés
-8. Experiences gombra kattintás
-9. Az adott fájl tartalmának és a
-   weboldalon látható
-   cégneveknek az összehasonlítása
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sikeres navigáció
-Elvárt URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/contact/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sikeres navigáció
-Aktuális URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/contact/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sikertelen navigáció
-Az aktuális URL a LoginPage:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://lennertamas.github.io/portio/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sikeres navigáció
-Elvárt URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://www.facebook.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sikeres navigáció
-Aktuális URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://www.facebook.com/</t>
-    </r>
-  </si>
-  <si>
-    <t>Figyelmeztetés: 
-Username or Password
-is not correct!</t>
-  </si>
-  <si>
-    <t>Üzenet: User Registered!</t>
-  </si>
-  <si>
-    <t>Nincs figyelmeztetés</t>
-  </si>
-  <si>
-    <t>A profil szerkesztéséhez saját regisztráció szükséges
-Üzenet: Profile edited!</t>
-  </si>
-  <si>
-    <t>Üzenet:
-Oops! There was a problem.</t>
-  </si>
-  <si>
-    <t>A fiók törléséhez saját regisztráció szükséges
-Megerősítés: I am sure! Delete my account
-Üzenet: Username or Password is not correct</t>
+    <t>Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása után, a regisztráció oldalra navigálva regisztrálás hiányzó jelszóval.</t>
+  </si>
+  <si>
+    <t>Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása után, a regisztráció oldalra navigálva regisztrálás helytelen email címmel.</t>
+  </si>
+  <si>
+    <t>Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása, regisztráció, bejelentkezés és a profil adatok mentése után a pfrofilnév változásának ellenőrzése.</t>
+  </si>
+  <si>
+    <t>Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Download CV gombra kattintva a fájl letöltésének ellenőrzése.</t>
+  </si>
+  <si>
+    <t>Az oldalra érkezve, az adatkezelési nyilatkozat elfogadása és bejelentkezés után a Privay and Policy linkre kattintással navigálás a dokumentumhoz.</t>
   </si>
 </sst>
 </file>
@@ -2798,7 +2964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2912,12 +3078,306 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3371,7 +3831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -3445,13 +3905,13 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="33" thickTop="1" thickBot="1">
+    <row r="2" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A2" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -3488,10 +3948,10 @@
         <v>81</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>57</v>
@@ -3500,16 +3960,16 @@
         <v>86</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>29</v>
@@ -3538,10 +3998,10 @@
         <v>82</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>57</v>
@@ -3550,16 +4010,16 @@
         <v>86</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>48</v>
@@ -3581,11 +4041,11 @@
     </row>
     <row r="5" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
@@ -3622,10 +4082,10 @@
         <v>49</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>57</v>
@@ -3634,22 +4094,22 @@
         <v>86</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3665,7 +4125,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
       <c r="A7" s="36"/>
       <c r="B7" s="10" t="s">
         <v>75</v>
@@ -3674,10 +4134,10 @@
         <v>53</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>57</v>
@@ -3686,22 +4146,22 @@
         <v>86</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>47</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>48</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -3717,7 +4177,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
       <c r="A8" s="37"/>
       <c r="B8" s="10" t="s">
         <v>76</v>
@@ -3726,10 +4186,10 @@
         <v>54</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>57</v>
@@ -3738,22 +4198,22 @@
         <v>86</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>48</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3771,11 +4231,11 @@
     </row>
     <row r="9" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A9" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -3801,7 +4261,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -3812,10 +4272,10 @@
         <v>56</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>57</v>
@@ -3824,16 +4284,16 @@
         <v>86</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I10" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="K10" s="12" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>29</v>
@@ -3853,7 +4313,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:26" ht="166.5" thickTop="1" thickBot="1">
       <c r="A11" s="36"/>
       <c r="B11" s="8" t="s">
         <v>78</v>
@@ -3862,10 +4322,10 @@
         <v>50</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>57</v>
@@ -3874,22 +4334,22 @@
         <v>86</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3905,7 +4365,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="136.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
       <c r="A12" s="36"/>
       <c r="B12" s="8" t="s">
         <v>79</v>
@@ -3914,10 +4374,10 @@
         <v>55</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>57</v>
@@ -3926,22 +4386,22 @@
         <v>86</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3959,11 +4419,11 @@
     </row>
     <row r="13" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A13" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -3991,7 +4451,7 @@
     </row>
     <row r="14" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
       <c r="A14" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>80</v>
@@ -4000,10 +4460,10 @@
         <v>64</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>62</v>
@@ -4012,16 +4472,16 @@
         <v>86</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>29</v>
@@ -4050,10 +4510,10 @@
         <v>63</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>58</v>
@@ -4062,16 +4522,16 @@
         <v>86</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>29</v>
@@ -4097,13 +4557,13 @@
         <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>58</v>
@@ -4112,16 +4572,16 @@
         <v>86</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>29</v>
@@ -4147,13 +4607,13 @@
         <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>58</v>
@@ -4162,16 +4622,16 @@
         <v>86</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>29</v>
@@ -4193,11 +4653,11 @@
     </row>
     <row r="18" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A18" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -4225,7 +4685,7 @@
     </row>
     <row r="19" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
       <c r="A19" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>33</v>
@@ -4234,10 +4694,10 @@
         <v>65</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>62</v>
@@ -4246,16 +4706,16 @@
         <v>86</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>29</v>
@@ -4284,10 +4744,10 @@
         <v>68</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>58</v>
@@ -4296,16 +4756,16 @@
         <v>86</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>29</v>
@@ -4327,11 +4787,11 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A21" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -4359,19 +4819,19 @@
     </row>
     <row r="22" spans="1:26" ht="277.5" thickTop="1" thickBot="1">
       <c r="A22" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>58</v>
@@ -4380,22 +4840,22 @@
         <v>86</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4420,10 +4880,10 @@
         <v>52</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>57</v>
@@ -4432,22 +4892,22 @@
         <v>86</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>48</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4465,11 +4925,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A24" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -4497,7 +4957,7 @@
     </row>
     <row r="25" spans="1:26" ht="253.5" thickTop="1" thickBot="1">
       <c r="A25" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>37</v>
@@ -4506,10 +4966,10 @@
         <v>85</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>57</v>
@@ -4518,16 +4978,16 @@
         <v>86</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>29</v>
@@ -4549,11 +5009,11 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A26" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -4581,7 +5041,7 @@
     </row>
     <row r="27" spans="1:26" ht="325.5" thickTop="1" thickBot="1">
       <c r="A27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>38</v>
@@ -4590,10 +5050,10 @@
         <v>61</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>62</v>
@@ -4602,22 +5062,22 @@
         <v>86</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>48</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4635,11 +5095,11 @@
     </row>
     <row r="28" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A28" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
@@ -4667,7 +5127,7 @@
     </row>
     <row r="29" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
       <c r="A29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>39</v>
@@ -4676,10 +5136,10 @@
         <v>59</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>57</v>
@@ -4691,19 +5151,19 @@
         <v>60</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4721,11 +5181,11 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A30" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -4753,7 +5213,7 @@
     </row>
     <row r="31" spans="1:26" ht="205.5" thickTop="1" thickBot="1">
       <c r="A31" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>40</v>
@@ -4762,10 +5222,10 @@
         <v>66</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>58</v>
@@ -4774,16 +5234,16 @@
         <v>86</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>29</v>
@@ -4812,10 +5272,10 @@
         <v>67</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>58</v>
@@ -4824,16 +5284,16 @@
         <v>86</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>29</v>
@@ -4862,10 +5322,10 @@
         <v>69</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>58</v>
@@ -4874,16 +5334,16 @@
         <v>86</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>48</v>
@@ -4905,11 +5365,11 @@
     </row>
     <row r="34" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A34" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
@@ -4937,19 +5397,19 @@
     </row>
     <row r="35" spans="1:26" ht="151.5" thickTop="1" thickBot="1">
       <c r="A35" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>58</v>
@@ -4958,16 +5418,16 @@
         <v>86</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>29</v>
@@ -4996,10 +5456,10 @@
         <v>70</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>58</v>
@@ -5008,16 +5468,16 @@
         <v>86</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>48</v>
@@ -5046,10 +5506,10 @@
         <v>71</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>62</v>
@@ -5058,16 +5518,16 @@
         <v>86</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>29</v>
@@ -5089,11 +5549,11 @@
     </row>
     <row r="38" spans="1:26" ht="17.25" thickTop="1" thickBot="1">
       <c r="A38" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -5130,10 +5590,10 @@
         <v>51</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>57</v>
@@ -5142,16 +5602,16 @@
         <v>86</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>29</v>
@@ -10515,92 +10975,92 @@
     <mergeCell ref="A19:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F8 F35:G37 F10:F31 F33:F40">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F8 F35:G37 F10:F31 F33:F40">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F8 F35:G37 F10:F31 F33:F40">
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="33" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L8 L10:L31 L33:L40">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="34" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L8 L10:L31 L33:L40">
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="35" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L8 L10:L31 L33:L40">
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="36" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="11" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="12" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L5">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L5">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L5">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10685,23 +11145,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:8" ht="17.25" thickTop="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -10715,35 +11178,95 @@
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
+      <c r="F1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="45.75" customHeight="1">
+      <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="102.75" customHeight="1">
+      <c r="B3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="102.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="48" customHeight="1">
+      <c r="B4" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -10759,53 +11282,147 @@
       <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="48" customHeight="1">
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="48" customHeight="1">
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="48" customHeight="1">
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="48" customHeight="1">
+      <c r="B8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="48" customHeight="1">
+      <c r="B9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="48" customHeight="1">
+      <c r="B10" s="39">
+        <v>45043</v>
+      </c>
+      <c r="C10" s="39">
+        <v>45043</v>
+      </c>
+      <c r="D10" s="39">
+        <v>45043</v>
+      </c>
+      <c r="E10" s="39">
+        <v>45043</v>
+      </c>
+      <c r="F10" s="39">
+        <v>45043</v>
+      </c>
+      <c r="G10" s="39">
+        <v>45043</v>
+      </c>
+      <c r="H10" s="39">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -10821,8 +11438,17 @@
       <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="48" customHeight="1">
+      <c r="F11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33" thickTop="1" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -10838,35 +11464,95 @@
       <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="48" customHeight="1">
+      <c r="F12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="109.5" thickTop="1" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="48" customHeight="1">
+      <c r="B13" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="109.5" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="115.5" customHeight="1">
+      <c r="B14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="409.5" thickTop="1" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickTop="1">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -16778,74 +17464,164 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="19" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="23" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="24" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="25" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="B8:E8" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="B8:H8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Tesztelő,Fejlesztő"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B6:E7" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="B6:H7" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Magas,Normál,Alacsony"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>